--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Matches/2526/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4909" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B3D94C-5A14-430D-8784-000F98653878}"/>
+  <xr:revisionPtr revIDLastSave="4910" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CFE2CAB-5CC9-45A8-AED1-4D3A0E3DFDEA}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -14952,7 +14952,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14999,21 +14999,21 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <f ca="1">JWR!N1</f>
+        <v>19.678282828282828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
         <v>19.727272727272727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3">
-        <f ca="1">JWR!N1</f>
-        <v>19.678282828282828</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4910" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CFE2CAB-5CC9-45A8-AED1-4D3A0E3DFDEA}"/>
+  <xr:revisionPtr revIDLastSave="4943" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321B88EC-D4CB-4349-9B67-3F66325CA90D}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="196">
   <si>
     <t>Scholl</t>
   </si>
@@ -622,6 +622,21 @@
   <si>
     <t>Kuster</t>
   </si>
+  <si>
+    <t>Stöger</t>
+  </si>
+  <si>
+    <t>Spiegl</t>
+  </si>
+  <si>
+    <t>Weiz</t>
+  </si>
+  <si>
+    <t>Chukwu</t>
+  </si>
+  <si>
+    <t>Drame</t>
+  </si>
 </sst>
 </file>
 
@@ -839,6 +854,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.462962962962962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.546296296296294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,19 +1122,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19.727272727272727</c:v>
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.272727272727273</c:v>
+                  <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.727272727272727</c:v>
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,19 +1393,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>18.454545454545453</c:v>
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.09090909090909</c:v>
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.454545454545453</c:v>
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.90909090909091</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>18.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,19 +1927,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,19 +2207,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>19.545454545454547</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.636363636363637</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.454545454545453</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.454545454545453</c:v>
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2996,19 +3020,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>18.454545454545453</c:v>
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.09090909090909</c:v>
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.454545454545453</c:v>
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.90909090909091</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>18.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3860,19 +3884,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19.727272727272727</c:v>
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.272727272727273</c:v>
+                  <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.727272727272727</c:v>
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,19 +4485,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,19 +4786,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>19.545454545454547</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.636363636363637</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.454545454545453</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.454545454545453</c:v>
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14952,7 +14982,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14986,25 +15016,25 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.745454545454542</v>
+        <v>18.836363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <f ca="1">JWR!N1</f>
+        <v>19.489618406285071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.418181818181818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3">
-        <f ca="1">JWR!N1</f>
-        <v>19.678282828282828</v>
+        <v>19.509090909090908</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15013,7 +15043,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15040,7 +15070,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.581818181818182</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15944,7 +15974,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">LASK!N3</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="C3" s="5">
         <f ca="1">LASK!N6</f>
@@ -15952,11 +15982,11 @@
       </c>
       <c r="D3" s="5">
         <f ca="1">LASK!N9</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5">
         <f ca="1">LASK!N12</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="F3" s="5">
         <f>LASK!O12</f>
@@ -16000,19 +16030,19 @@
       </c>
       <c r="B4" s="5">
         <f ca="1">'Altach Juniors'!N3</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="C4" s="5">
         <f ca="1">'Altach Juniors'!N6</f>
-        <v>19.09090909090909</v>
+        <v>19.181818181818183</v>
       </c>
       <c r="D4" s="5">
         <f ca="1">'Altach Juniors'!N9</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="E4" s="5">
         <f ca="1">'Altach Juniors'!N12</f>
-        <v>18.90909090909091</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5">
         <f>'Altach Juniors'!O12</f>
@@ -16112,7 +16142,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">WAC!N3</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="C6" s="8">
         <f ca="1">WAC!N6</f>
@@ -16120,11 +16150,11 @@
       </c>
       <c r="D6" s="8">
         <f ca="1">WAC!N9</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="E6" s="8">
         <f ca="1">WAC!N12</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="F6" s="8">
         <f>WAC!O12</f>
@@ -16168,19 +16198,19 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">Rapid!N3</f>
-        <v>19</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="C7" s="5">
         <f ca="1">Rapid!N6</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="D7" s="5">
         <f ca="1">Rapid!N9</f>
-        <v>19.636363636363637</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="E7" s="5">
         <f ca="1">Rapid!N12</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="F7" s="5">
         <f>Rapid!O12</f>
@@ -16939,7 +16969,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16953,11 +16983,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M1" s="1">
         <f ca="1">AVERAGE(M3:M68)</f>
-        <v>18.539393939393939</v>
+        <v>18.542087542087543</v>
       </c>
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.678282828282828</v>
+        <v>19.489618406285071</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -17426,8 +17456,97 @@
         <v>20.462962962962962</v>
       </c>
     </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="1"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="M18" s="1">
+        <f ca="1">AVERAGE(C18,D18,E18,F18,G18,H18,I18,J18,L18)</f>
+        <v>18.555555555555557</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">AVERAGE(B18:M18)</f>
+        <v>18.546296296296294</v>
+      </c>
       <c r="P18" t="s">
         <v>3</v>
       </c>
@@ -17435,7 +17554,7 @@
         <v>36024</v>
       </c>
     </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>75</v>
       </c>
@@ -17443,7 +17562,7 @@
         <v>39233</v>
       </c>
     </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P20" t="s">
         <v>80</v>
       </c>
@@ -17451,7 +17570,7 @@
         <v>39158</v>
       </c>
     </row>
-    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N21" s="1"/>
       <c r="P21" t="s">
         <v>1</v>
@@ -17460,7 +17579,7 @@
         <v>38504</v>
       </c>
     </row>
-    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>77</v>
       </c>
@@ -17468,7 +17587,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
         <v>81</v>
       </c>
@@ -17476,7 +17595,7 @@
         <v>38883</v>
       </c>
     </row>
-    <row r="24" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N24" s="1"/>
       <c r="P24" t="s">
         <v>0</v>
@@ -17485,7 +17604,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="25" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>83</v>
       </c>
@@ -17493,7 +17612,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="26" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>82</v>
       </c>
@@ -17501,7 +17620,7 @@
         <v>39372</v>
       </c>
     </row>
-    <row r="27" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P27" t="s">
         <v>84</v>
       </c>
@@ -17509,7 +17628,7 @@
         <v>38668</v>
       </c>
     </row>
-    <row r="28" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>2</v>
       </c>
@@ -17517,7 +17636,7 @@
         <v>38453</v>
       </c>
     </row>
-    <row r="29" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P29" t="s">
         <v>106</v>
       </c>
@@ -17525,7 +17644,7 @@
         <v>39664</v>
       </c>
     </row>
-    <row r="30" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N30" s="1"/>
       <c r="P30" t="s">
         <v>107</v>
@@ -17534,7 +17653,7 @@
         <v>39653</v>
       </c>
     </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>109</v>
       </c>
@@ -17542,7 +17661,7 @@
         <v>39418</v>
       </c>
     </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>108</v>
       </c>
@@ -17576,6 +17695,20 @@
     </row>
     <row r="36" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
+      <c r="P36" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>39361</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>38982</v>
+      </c>
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
@@ -17631,7 +17764,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17646,7 +17779,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -17730,11 +17863,11 @@
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -17906,11 +18039,11 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -17994,11 +18127,11 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -18082,14 +18215,102 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>19.727272727272727</v>
-      </c>
-    </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.3">
+        <v>19.818181818181817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">AVERAGE(B18:M18)</f>
+        <v>19.90909090909091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>86</v>
       </c>
@@ -18097,7 +18318,7 @@
         <v>38475</v>
       </c>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P20" t="s">
         <v>6</v>
       </c>
@@ -18105,7 +18326,7 @@
         <v>38417</v>
       </c>
     </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P21" t="s">
         <v>34</v>
       </c>
@@ -18113,7 +18334,7 @@
         <v>38682</v>
       </c>
     </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>36</v>
       </c>
@@ -18121,7 +18342,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
         <v>7</v>
       </c>
@@ -18129,7 +18350,7 @@
         <v>38727</v>
       </c>
     </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P24" t="s">
         <v>87</v>
       </c>
@@ -18137,7 +18358,7 @@
         <v>37276</v>
       </c>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>8</v>
       </c>
@@ -18145,7 +18366,7 @@
         <v>38694</v>
       </c>
     </row>
-    <row r="26" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>37</v>
       </c>
@@ -18153,7 +18374,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="27" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P27" t="s">
         <v>35</v>
       </c>
@@ -18161,7 +18382,7 @@
         <v>38475</v>
       </c>
     </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>88</v>
       </c>
@@ -18169,7 +18390,7 @@
         <v>38916</v>
       </c>
     </row>
-    <row r="29" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P29" t="s">
         <v>18</v>
       </c>
@@ -18177,7 +18398,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P30" t="s">
         <v>105</v>
       </c>
@@ -18185,7 +18406,7 @@
         <v>38335</v>
       </c>
     </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>104</v>
       </c>
@@ -18193,7 +18414,7 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>151</v>
       </c>
@@ -18260,7 +18481,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.745454545454542</v>
+        <v>18.836363636363636</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18316,7 +18537,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
@@ -18348,7 +18569,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -18404,7 +18625,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
@@ -18436,7 +18657,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>19.09090909090909</v>
+        <v>19.181818181818183</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -18492,7 +18713,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
@@ -18524,7 +18745,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -18580,7 +18801,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
@@ -18612,7 +18833,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>18.90909090909091</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -18668,7 +18889,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
@@ -18700,7 +18921,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>18.818181818181817</v>
+        <v>18.90909090909091</v>
       </c>
     </row>
     <row r="18" spans="16:17" x14ac:dyDescent="0.3">
@@ -19509,10 +19730,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19524,7 +19745,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.581818181818182</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19592,7 +19813,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
@@ -19612,7 +19833,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -19768,7 +19989,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
@@ -19788,7 +20009,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -19856,7 +20077,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
@@ -19876,7 +20097,7 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ref="N12" ca="1" si="4">AVERAGE(B12:M12)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -19967,7 +20188,93 @@
         <v>20.545454545454547</v>
       </c>
     </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" ca="1" si="6">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">AVERAGE(B18:L18)</f>
+        <v>19.818181818181817</v>
+      </c>
       <c r="P18" t="s">
         <v>9</v>
       </c>
@@ -19975,7 +20282,7 @@
         <v>37152</v>
       </c>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>17</v>
       </c>
@@ -19983,7 +20290,7 @@
         <v>38876</v>
       </c>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P20" t="s">
         <v>10</v>
       </c>
@@ -19991,7 +20298,7 @@
         <v>38589</v>
       </c>
     </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P21" t="s">
         <v>11</v>
       </c>
@@ -19999,7 +20306,7 @@
         <v>36971</v>
       </c>
     </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>12</v>
       </c>
@@ -20007,7 +20314,7 @@
         <v>36971</v>
       </c>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
         <v>14</v>
       </c>
@@ -20015,7 +20322,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P24" t="s">
         <v>29</v>
       </c>
@@ -20023,7 +20330,7 @@
         <v>38807</v>
       </c>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>28</v>
       </c>
@@ -20031,7 +20338,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="26" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>78</v>
       </c>
@@ -20039,7 +20346,7 @@
         <v>37974</v>
       </c>
     </row>
-    <row r="27" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P27" t="s">
         <v>96</v>
       </c>
@@ -20047,7 +20354,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>97</v>
       </c>
@@ -20055,7 +20362,7 @@
         <v>39101</v>
       </c>
     </row>
-    <row r="29" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P29" t="s">
         <v>112</v>
       </c>
@@ -20063,7 +20370,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P30" t="s">
         <v>172</v>
       </c>
@@ -20071,7 +20378,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>13</v>
       </c>
@@ -20079,7 +20386,7 @@
         <v>38595</v>
       </c>
     </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>177</v>
       </c>
@@ -20093,6 +20400,22 @@
       </c>
       <c r="Q33" s="6">
         <v>38563</v>
+      </c>
+    </row>
+    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>39028</v>
+      </c>
+    </row>
+    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>38357</v>
       </c>
     </row>
   </sheetData>
@@ -20122,7 +20445,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.418181818181818</v>
+        <v>19.509090909090908</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20170,7 +20493,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:L3" ca="1" si="0">DATEDIF(VLOOKUP(C2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
@@ -20210,7 +20533,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19</v>
+        <v>19.09090909090909</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -20258,7 +20581,7 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:L6" ca="1" si="1">DATEDIF(VLOOKUP(C5,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -20298,7 +20621,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -20346,7 +20669,7 @@
       </c>
       <c r="C9">
         <f t="shared" ref="C9:L9" ca="1" si="2">DATEDIF(VLOOKUP(C8,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
@@ -20386,7 +20709,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>19.636363636363637</v>
+        <v>19.727272727272727</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -20434,7 +20757,7 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:L12" ca="1" si="3">DATEDIF(VLOOKUP(C11,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
@@ -20474,7 +20797,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20522,7 +20845,7 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:L15" ca="1" si="4">DATEDIF(VLOOKUP(C14,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
@@ -20562,7 +20885,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
     </row>
     <row r="18" spans="16:17" x14ac:dyDescent="0.3">

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4943" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321B88EC-D4CB-4349-9B67-3F66325CA90D}"/>
+  <xr:revisionPtr revIDLastSave="5011" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96D408FF-5D3F-42D7-B345-A7B3181CE45B}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="205">
   <si>
     <t>Scholl</t>
   </si>
@@ -637,6 +637,33 @@
   <si>
     <t>Drame</t>
   </si>
+  <si>
+    <t>Kalsdorf</t>
+  </si>
+  <si>
+    <t>Wimmer D.</t>
+  </si>
+  <si>
+    <t>Vogt</t>
+  </si>
+  <si>
+    <t>Dosso</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>Ilk</t>
+  </si>
+  <si>
+    <t>Pirker</t>
+  </si>
+  <si>
+    <t>Jastrzembski</t>
+  </si>
+  <si>
+    <t>Mahiya</t>
+  </si>
 </sst>
 </file>
 
@@ -841,22 +868,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19.3</c:v>
+                  <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.648148148148149</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.616666666666667</c:v>
+                  <c:v>19.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.462962962962962</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.546296296296294</c:v>
+                  <c:v>18.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,6 +1168,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,6 +1977,9 @@
                 <c:pt idx="5">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2207,19 +2243,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>19.09090909090909</c:v>
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>19.636363636363637</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.727272727272727</c:v>
+                <c:pt idx="12">
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.545454545454547</c:v>
+                <c:pt idx="15">
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,19 +2780,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0" formatCode="0.00">
+                  <c:v>19.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>19.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>19.818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>19.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,19 +3638,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0" formatCode="0.00">
+                  <c:v>19.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>19.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>19.818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>19.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3900,6 +3945,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4502,6 +4550,9 @@
                 <c:pt idx="5">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4786,19 +4837,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>19.09090909090909</c:v>
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>19.636363636363637</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.727272727272727</c:v>
+                <c:pt idx="12">
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.545454545454547</c:v>
+                <c:pt idx="15">
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5051,7 +5105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19,30</c:v>
+                  <c:v>19,36</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15025,7 +15079,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.489618406285071</v>
+        <v>19.402597402597404</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15034,7 +15088,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.509090909090908</v>
+        <v>19.606060606060606</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15052,7 +15106,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>19.890909090909087</v>
+        <v>19.954545454545453</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15070,7 +15124,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.5</v>
+        <v>20.428571428571427</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15099,8 +15153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DFA24-3406-41A0-A4BC-C12C2626EFAE}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15111,7 +15165,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.890909090909087</v>
+        <v>19.954545454545453</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -15160,7 +15214,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:L3" ca="1" si="0">DATEDIF(VLOOKUP(C2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
@@ -15200,7 +15254,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -15249,7 +15303,7 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:L6" ca="1" si="1">DATEDIF(VLOOKUP(C5,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -15289,7 +15343,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -15338,7 +15392,7 @@
       </c>
       <c r="C9">
         <f t="shared" ref="C9:L9" ca="1" si="2">DATEDIF(VLOOKUP(C8,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
@@ -15378,7 +15432,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -15427,7 +15481,7 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:L12" ca="1" si="3">DATEDIF(VLOOKUP(C11,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
@@ -15467,7 +15521,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -15516,7 +15570,7 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:L15" ca="1" si="4">DATEDIF(VLOOKUP(C14,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
@@ -15556,14 +15610,97 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>19.727272727272727</v>
-      </c>
-    </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
+        <v>19.818181818181817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
+      </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="1"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">AVERAGE(B18:M18)</f>
+        <v>19.818181818181817</v>
+      </c>
       <c r="P18" t="s">
         <v>67</v>
       </c>
@@ -15571,7 +15708,7 @@
         <v>38998</v>
       </c>
     </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>18</v>
       </c>
@@ -15579,7 +15716,7 @@
         <v>37425</v>
       </c>
     </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N20" s="1"/>
       <c r="P20" t="s">
         <v>102</v>
@@ -15588,7 +15725,7 @@
         <v>36322</v>
       </c>
     </row>
-    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N21" s="1"/>
       <c r="P21" t="s">
         <v>57</v>
@@ -15597,7 +15734,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>66</v>
       </c>
@@ -15605,7 +15742,7 @@
         <v>38602</v>
       </c>
     </row>
-    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N23" s="1"/>
       <c r="P23" t="s">
         <v>68</v>
@@ -15614,7 +15751,7 @@
         <v>38873</v>
       </c>
     </row>
-    <row r="24" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N24" s="1"/>
       <c r="P24" t="s">
         <v>76</v>
@@ -15623,7 +15760,7 @@
         <v>39824</v>
       </c>
     </row>
-    <row r="25" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>65</v>
       </c>
@@ -15631,7 +15768,7 @@
         <v>38030</v>
       </c>
     </row>
-    <row r="26" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
       <c r="P26" t="s">
         <v>74</v>
@@ -15640,7 +15777,7 @@
         <v>38948</v>
       </c>
     </row>
-    <row r="27" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N27" s="1"/>
       <c r="P27" t="s">
         <v>70</v>
@@ -15649,7 +15786,7 @@
         <v>39252</v>
       </c>
     </row>
-    <row r="28" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>69</v>
       </c>
@@ -15657,7 +15794,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="29" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N29" s="1"/>
       <c r="P29" t="s">
         <v>118</v>
@@ -15666,7 +15803,7 @@
         <v>39243</v>
       </c>
     </row>
-    <row r="30" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N30" s="1"/>
       <c r="P30" t="s">
         <v>119</v>
@@ -15675,7 +15812,7 @@
         <v>36567</v>
       </c>
     </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>117</v>
       </c>
@@ -15683,7 +15820,7 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N32" s="1"/>
       <c r="P32" t="s">
         <v>148</v>
@@ -15746,6 +15883,20 @@
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
+      <c r="P39" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>38783</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>36576</v>
+      </c>
     </row>
     <row r="41" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
@@ -15836,7 +15987,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15918,7 +16069,7 @@
       </c>
       <c r="B2" s="8">
         <f ca="1">JWR!N3</f>
-        <v>19.3</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="C2" s="5">
         <f ca="1">JWR!N6</f>
@@ -15926,14 +16077,14 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">JWR!N9</f>
-        <v>20.648148148148149</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="E2" s="8">
         <f ca="1">JWR!N12</f>
-        <v>19.616666666666667</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="F2" s="8">
-        <f>JWR!O12</f>
+        <f>JWR!P9</f>
         <v>0</v>
       </c>
       <c r="G2" s="8">
@@ -16198,19 +16349,19 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">Rapid!N3</f>
-        <v>19.09090909090909</v>
+        <v>19.181818181818183</v>
       </c>
       <c r="C7" s="5">
         <f ca="1">Rapid!N6</f>
-        <v>19.636363636363637</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="D7" s="5">
         <f ca="1">Rapid!N9</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="E7" s="5">
         <f ca="1">Rapid!N12</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="F7" s="5">
         <f>Rapid!O12</f>
@@ -16310,19 +16461,19 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">Sturm!N3</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="C9" s="5">
         <f ca="1">Sturm!N6</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="D9" s="5">
         <f ca="1">Sturm!N9</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="E9" s="5">
         <f ca="1">Sturm!N12</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="F9" s="5">
         <f>Sturm!O12</f>
@@ -16969,7 +17120,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16981,13 +17132,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M1" s="1">
-        <f ca="1">AVERAGE(M3:M68)</f>
-        <v>18.542087542087543</v>
-      </c>
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.489618406285071</v>
+        <v>19.402597402597404</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -17073,13 +17220,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
-      <c r="M3" s="1">
-        <f ca="1">AVERAGE(C3:L3)</f>
-        <v>18.600000000000001</v>
-      </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.3</v>
+        <v>19.363636363636363</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -17165,10 +17308,6 @@
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="M6" s="1">
-        <f ca="1">AVERAGE(B6:L6)</f>
-        <v>18.363636363636363</v>
-      </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
         <v>18.363636363636363</v>
@@ -17257,13 +17396,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
-      <c r="M9" s="1">
-        <f ca="1">AVERAGE(C9,D9,E9,F9,G9,H9,I9,J9,L9)</f>
-        <v>18.777777777777779</v>
-      </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.648148148148149</v>
+        <v>20.818181818181817</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -17352,13 +17487,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="M12" s="1">
-        <f ca="1">AVERAGE(B12,C12,D12,E12,F12,G12,H12,I12,J12,L12)</f>
-        <v>18.399999999999999</v>
-      </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.616666666666667</v>
+        <v>19.727272727272727</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -17447,13 +17578,9 @@
         <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
-      <c r="M15" s="1">
-        <f ca="1">AVERAGE(C15,D15,E15,F15,G15,H15,I15,J15,L15)</f>
-        <v>18.555555555555557</v>
-      </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>20.462962962962962</v>
+        <v>20.636363636363637</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -17539,13 +17666,9 @@
         <f t="shared" ca="1" si="5"/>
         <v>20</v>
       </c>
-      <c r="M18" s="1">
-        <f ca="1">AVERAGE(C18,D18,E18,F18,G18,H18,I18,J18,L18)</f>
-        <v>18.555555555555557</v>
-      </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.546296296296294</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="P18" t="s">
         <v>3</v>
@@ -17563,6 +17686,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
       <c r="P20" t="s">
         <v>80</v>
       </c>
@@ -17571,7 +17730,54 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N21" s="1"/>
+      <c r="B21">
+        <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" ca="1" si="6">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1">AVERAGE(B21:M21)</f>
+        <v>18.363636363636363</v>
+      </c>
       <c r="P21" t="s">
         <v>1</v>
       </c>
@@ -17708,6 +17914,14 @@
       </c>
       <c r="Q37" s="6">
         <v>38982</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>38539</v>
       </c>
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
@@ -17761,10 +17975,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE832A2-00C7-4FEB-881B-6BCBCF658A7A}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18319,6 +18533,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
       <c r="P20" t="s">
         <v>6</v>
       </c>
@@ -18327,6 +18577,54 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" ca="1" si="6">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1">AVERAGE(B21:M21)</f>
+        <v>19.818181818181817</v>
+      </c>
       <c r="P21" t="s">
         <v>34</v>
       </c>
@@ -18452,6 +18750,14 @@
       </c>
       <c r="Q36" s="6">
         <v>39597</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>39178</v>
       </c>
     </row>
   </sheetData>
@@ -19730,10 +20036,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19745,7 +20051,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.5</v>
+        <v>20.428571428571427</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20190,7 +20496,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -20291,6 +20597,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
       <c r="P20" t="s">
         <v>10</v>
       </c>
@@ -20299,6 +20641,54 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" ca="1" si="7">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1">AVERAGE(B21:L21)</f>
+        <v>20</v>
+      </c>
       <c r="P21" t="s">
         <v>11</v>
       </c>
@@ -20416,6 +20806,22 @@
       </c>
       <c r="Q35" s="6">
         <v>38357</v>
+      </c>
+    </row>
+    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P36" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>38587</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>39590</v>
       </c>
     </row>
   </sheetData>
@@ -20432,7 +20838,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20445,7 +20851,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.509090909090908</v>
+        <v>19.606060606060606</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20521,7 +20927,7 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
@@ -20533,7 +20939,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.09090909090909</v>
+        <v>19.181818181818183</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -20609,7 +21015,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
@@ -20621,7 +21027,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>19.636363636363637</v>
+        <v>19.727272727272727</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -20697,7 +21103,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="2"/>
@@ -20709,7 +21115,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -20785,7 +21191,7 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="3"/>
@@ -20797,7 +21203,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20873,7 +21279,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
@@ -20885,10 +21291,96 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>19.545454545454547</v>
-      </c>
-    </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.3">
+        <v>19.636363636363637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">AVERAGE(B18:M18)</f>
+        <v>19.636363636363637</v>
+      </c>
       <c r="P18" t="s">
         <v>47</v>
       </c>
@@ -20896,7 +21388,7 @@
         <v>38672</v>
       </c>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>52</v>
       </c>
@@ -20904,7 +21396,7 @@
         <v>38832</v>
       </c>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P20" t="s">
         <v>48</v>
       </c>
@@ -20912,7 +21404,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P21" t="s">
         <v>45</v>
       </c>
@@ -20920,7 +21412,7 @@
         <v>39211</v>
       </c>
     </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>42</v>
       </c>
@@ -20928,7 +21420,7 @@
         <v>39328</v>
       </c>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
         <v>98</v>
       </c>
@@ -20936,7 +21428,7 @@
         <v>36935</v>
       </c>
     </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P24" t="s">
         <v>44</v>
       </c>
@@ -20944,7 +21436,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>56</v>
       </c>
@@ -20952,7 +21444,7 @@
         <v>38815</v>
       </c>
     </row>
-    <row r="26" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>43</v>
       </c>
@@ -20960,7 +21452,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="27" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P27" t="s">
         <v>54</v>
       </c>
@@ -20968,7 +21460,7 @@
         <v>39334</v>
       </c>
     </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>27</v>
       </c>
@@ -20976,7 +21468,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="29" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P29" t="s">
         <v>114</v>
       </c>
@@ -20984,7 +21476,7 @@
         <v>36691</v>
       </c>
     </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P30" t="s">
         <v>162</v>
       </c>
@@ -20992,7 +21484,7 @@
         <v>38273</v>
       </c>
     </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>163</v>
       </c>
@@ -21000,7 +21492,7 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>174</v>
       </c>
@@ -21014,6 +21506,14 @@
       </c>
       <c r="Q33" s="6">
         <v>39202</v>
+      </c>
+    </row>
+    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>39235</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5011" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96D408FF-5D3F-42D7-B345-A7B3181CE45B}"/>
+  <xr:revisionPtr revIDLastSave="5073" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D8474FE-2D68-42B1-8C07-A3955277D44B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -47,8 +47,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="212">
   <si>
     <t>Scholl</t>
   </si>
@@ -664,6 +686,27 @@
   <si>
     <t>Mahiya</t>
   </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Adejenughure</t>
+  </si>
+  <si>
+    <t>Schuster</t>
+  </si>
+  <si>
+    <t>Trummer</t>
+  </si>
+  <si>
+    <t>Kuchl</t>
+  </si>
+  <si>
+    <t>Yilmaz</t>
+  </si>
+  <si>
+    <t>Basar</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +780,50 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1440,6 +1526,9 @@
                 <c:pt idx="4">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.727272727272727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1706,6 +1795,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,6 +2620,9 @@
                 <c:pt idx="12" formatCode="0.00">
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>18.636363636363637</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3076,6 +3171,9 @@
                 <c:pt idx="4">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.727272727272727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3362,6 +3460,9 @@
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
+                  <c:v>18.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
@@ -4259,6 +4360,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15061,7 +15165,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.618181818181817</v>
+        <v>18.621212121212121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15070,7 +15174,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.836363636363636</v>
+        <v>18.818181818181817</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15115,7 +15219,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.163636363636364</v>
+        <v>20.196969696969699</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15153,7 +15257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DFA24-3406-41A0-A4BC-C12C2626EFAE}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
@@ -15987,7 +16091,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16067,52 +16171,70 @@
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="8">
-        <f ca="1">JWR!N3</f>
+      <c r="B2" s="8" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.363636363636363</v>
       </c>
-      <c r="C2" s="5">
-        <f ca="1">JWR!N6</f>
+      <c r="C2" s="8" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>18.363636363636363</v>
       </c>
-      <c r="D2" s="8">
-        <f ca="1">JWR!N9</f>
+      <c r="D2" s="8" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.818181818181817</v>
       </c>
-      <c r="E2" s="8">
-        <f ca="1">JWR!N12</f>
+      <c r="E2" s="8" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.727272727272727</v>
       </c>
-      <c r="F2" s="8">
-        <f>JWR!P9</f>
+      <c r="F2" s="8" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>20.636363636363637</v>
+      </c>
+      <c r="G2" s="8" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>18.545454545454547</v>
+      </c>
+      <c r="H2" s="8" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>18.363636363636363</v>
+      </c>
+      <c r="I2" s="8" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="8">
-        <f>JWR!P12</f>
+      <c r="J2" s="8" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="8">
-        <f>JWR!Q12</f>
+      <c r="K2" s="8" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="8">
-        <f>JWR!R12</f>
+      <c r="L2" s="8" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="8">
-        <f>JWR!S12</f>
+      <c r="M2" s="8" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="8">
-        <f>JWR!T12</f>
+      <c r="N2" s="8" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="5"/>
+      <c r="O2" s="8" cm="1">
+        <f t="array" aca="1" ref="O2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="8" cm="1">
+        <f t="array" aca="1" ref="P2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8" cm="1">
+        <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="5"/>
       <c r="T2" s="8"/>
@@ -16123,52 +16245,70 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <f ca="1">LASK!N3</f>
+      <c r="B3" s="8" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.818181818181817</v>
       </c>
-      <c r="C3" s="5">
-        <f ca="1">LASK!N6</f>
+      <c r="C3" s="8" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>20</v>
       </c>
-      <c r="D3" s="5">
-        <f ca="1">LASK!N9</f>
+      <c r="D3" s="8" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>20</v>
       </c>
-      <c r="E3" s="5">
-        <f ca="1">LASK!N12</f>
+      <c r="E3" s="8" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.363636363636363</v>
       </c>
-      <c r="F3" s="5">
-        <f>LASK!O12</f>
+      <c r="F3" s="8" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.818181818181817</v>
+      </c>
+      <c r="G3" s="8" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.90909090909091</v>
+      </c>
+      <c r="H3" s="8" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.818181818181817</v>
+      </c>
+      <c r="I3" s="8" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <f>LASK!P12</f>
+      <c r="J3" s="8" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="5">
-        <f>LASK!Q12</f>
+      <c r="K3" s="8" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <f>LASK!R12</f>
+      <c r="L3" s="8" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="5">
-        <f>LASK!S12</f>
+      <c r="M3" s="8" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5">
-        <f>LASK!T12</f>
+      <c r="N3" s="8" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="O3" s="8" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" cm="1">
+        <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -16179,52 +16319,70 @@
       <c r="A4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="5">
-        <f ca="1">'Altach Juniors'!N3</f>
+      <c r="B4" s="5" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>18.545454545454547</v>
       </c>
-      <c r="C4" s="5">
-        <f ca="1">'Altach Juniors'!N6</f>
+      <c r="C4" s="5" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.181818181818183</v>
       </c>
-      <c r="D4" s="5">
-        <f ca="1">'Altach Juniors'!N9</f>
+      <c r="D4" s="5" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>18.545454545454547</v>
       </c>
-      <c r="E4" s="5">
-        <f ca="1">'Altach Juniors'!N12</f>
+      <c r="E4" s="5" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>19</v>
       </c>
-      <c r="F4" s="5">
-        <f>'Altach Juniors'!O12</f>
+      <c r="F4" s="5" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>18.90909090909091</v>
+      </c>
+      <c r="G4" s="5" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>18.727272727272727</v>
+      </c>
+      <c r="H4" s="5" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="5">
-        <f>'Altach Juniors'!P12</f>
+      <c r="I4" s="5" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <f>'Altach Juniors'!Q12</f>
+      <c r="J4" s="5" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <f>'Altach Juniors'!R12</f>
+      <c r="K4" s="5" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="5">
-        <f>'Altach Juniors'!S12</f>
+      <c r="L4" s="5" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
-        <f>'Altach Juniors'!T12</f>
+      <c r="M4" s="5" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="N4" s="5" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" cm="1">
+        <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -16235,52 +16393,70 @@
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="5">
-        <f ca="1">'Young Violets'!N3</f>
+      <c r="B5" s="5" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.90909090909091</v>
       </c>
-      <c r="C5" s="5">
-        <f ca="1">'Young Violets'!N6</f>
+      <c r="C5" s="5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>20</v>
       </c>
-      <c r="D5" s="5">
-        <f ca="1">'Young Violets'!N9</f>
+      <c r="D5" s="5" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.181818181818183</v>
       </c>
-      <c r="E5" s="5">
-        <f ca="1">'Young Violets'!N12</f>
+      <c r="E5" s="5" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.272727272727273</v>
       </c>
-      <c r="F5" s="5">
-        <f>'Young Violets'!O12</f>
+      <c r="F5" s="5" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>20.454545454545453</v>
+      </c>
+      <c r="G5" s="5" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>20.363636363636363</v>
+      </c>
+      <c r="H5" s="5" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="5">
-        <f>'Young Violets'!P12</f>
+      <c r="I5" s="5" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="5">
-        <f>'Young Violets'!Q12</f>
+      <c r="J5" s="5" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <f>'Young Violets'!R12</f>
+      <c r="K5" s="5" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="5">
-        <f>'Young Violets'!S12</f>
+      <c r="L5" s="5" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <f>'Young Violets'!T12</f>
+      <c r="M5" s="5" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="N5" s="5" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" cm="1">
+        <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -16291,52 +16467,70 @@
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
-        <f ca="1">WAC!N3</f>
+      <c r="B6" s="5" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.636363636363637</v>
       </c>
-      <c r="C6" s="8">
-        <f ca="1">WAC!N6</f>
+      <c r="C6" s="5" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.818181818181817</v>
       </c>
-      <c r="D6" s="8">
-        <f ca="1">WAC!N9</f>
+      <c r="D6" s="5" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.636363636363637</v>
       </c>
-      <c r="E6" s="8">
-        <f ca="1">WAC!N12</f>
+      <c r="E6" s="5" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.545454545454547</v>
       </c>
-      <c r="F6" s="8">
-        <f>WAC!O12</f>
+      <c r="F6" s="5" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>20.545454545454547</v>
+      </c>
+      <c r="G6" s="5" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.818181818181817</v>
+      </c>
+      <c r="H6" s="5" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="8">
-        <f>WAC!P12</f>
+      <c r="J6" s="5" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="8">
-        <f>WAC!Q12</f>
+      <c r="K6" s="5" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <f>WAC!R12</f>
+      <c r="L6" s="5" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="8">
-        <f>WAC!S12</f>
+      <c r="M6" s="5" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8">
-        <f>WAC!T12</f>
+      <c r="N6" s="5" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="O6" s="5" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" cm="1">
+        <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -16347,52 +16541,70 @@
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="5">
-        <f ca="1">Rapid!N3</f>
+      <c r="B7" s="5" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.181818181818183</v>
       </c>
-      <c r="C7" s="5">
-        <f ca="1">Rapid!N6</f>
+      <c r="C7" s="5" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.727272727272727</v>
       </c>
-      <c r="D7" s="5">
-        <f ca="1">Rapid!N9</f>
+      <c r="D7" s="5" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.818181818181817</v>
       </c>
-      <c r="E7" s="5">
-        <f ca="1">Rapid!N12</f>
+      <c r="E7" s="5" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.636363636363637</v>
       </c>
-      <c r="F7" s="5">
-        <f>Rapid!O12</f>
+      <c r="F7" s="5" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.636363636363637</v>
+      </c>
+      <c r="G7" s="5" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.636363636363637</v>
+      </c>
+      <c r="H7" s="5" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="5">
-        <f>Rapid!P12</f>
+      <c r="I7" s="5" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="5">
-        <f>Rapid!Q12</f>
+      <c r="J7" s="5" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
-        <f>Rapid!R12</f>
+      <c r="K7" s="5" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <f>Rapid!S12</f>
+      <c r="L7" s="5" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <f>Rapid!T12</f>
+      <c r="M7" s="5" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="N7" s="5" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -16403,52 +16615,70 @@
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5">
-        <f ca="1">Liefering!N3</f>
+      <c r="B8" s="5" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>18.454545454545453</v>
       </c>
-      <c r="C8" s="5">
-        <f ca="1">Liefering!N6</f>
+      <c r="C8" s="5" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>18.636363636363637</v>
       </c>
-      <c r="D8" s="5">
-        <f ca="1">Liefering!N9</f>
+      <c r="D8" s="5" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>18.727272727272727</v>
       </c>
-      <c r="E8" s="5">
-        <f ca="1">Liefering!N12</f>
+      <c r="E8" s="5" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>18.636363636363637</v>
       </c>
-      <c r="F8" s="5">
-        <f>Liefering!O12</f>
+      <c r="F8" s="5" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>18.636363636363637</v>
+      </c>
+      <c r="G8" s="5" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>18.636363636363637</v>
+      </c>
+      <c r="H8" s="5" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="5">
-        <f>Liefering!P12</f>
+      <c r="I8" s="5" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="5">
-        <f>Liefering!Q12</f>
+      <c r="J8" s="5" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
-        <f>Liefering!R12</f>
+      <c r="K8" s="5" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <f>Liefering!S12</f>
+      <c r="L8" s="5" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
-        <f>Liefering!T12</f>
+      <c r="M8" s="5" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="N8" s="5" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" cm="1">
+        <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -16459,52 +16689,70 @@
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5">
-        <f ca="1">Sturm!N3</f>
+      <c r="B9" s="5" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.90909090909091</v>
       </c>
-      <c r="C9" s="5">
-        <f ca="1">Sturm!N6</f>
+      <c r="C9" s="5" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.09090909090909</v>
       </c>
-      <c r="D9" s="5">
-        <f ca="1">Sturm!N9</f>
+      <c r="D9" s="5" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.90909090909091</v>
       </c>
-      <c r="E9" s="5">
-        <f ca="1">Sturm!N12</f>
+      <c r="E9" s="5" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.181818181818183</v>
       </c>
-      <c r="F9" s="5">
-        <f>Sturm!O12</f>
+      <c r="F9" s="5" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.818181818181817</v>
+      </c>
+      <c r="G9" s="5" cm="1">
+        <f t="array" aca="1" ref="G9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.818181818181817</v>
+      </c>
+      <c r="H9" s="5" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
-        <f>Sturm!P12</f>
+      <c r="I9" s="5" cm="1">
+        <f t="array" aca="1" ref="I9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="5">
-        <f>Sturm!Q12</f>
+      <c r="J9" s="5" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="5">
-        <f>Sturm!R12</f>
+      <c r="K9" s="5" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="5">
-        <f>Sturm!S12</f>
+      <c r="L9" s="5" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
-        <f>Sturm!T12</f>
+      <c r="M9" s="5" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="N9" s="5" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5" cm="1">
+        <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -17111,7 +17359,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:Q9">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(B2&lt;&gt;0,B2=MIN(IF(B$2:B$9&lt;&gt;0,B$2:B$9)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(B2&lt;&gt;0,B2=MAX(IF(B$2:B$9&lt;&gt;0,B$2:B$9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18771,10 +19028,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE484A-7472-48CF-8DEF-9C09E1FFDA18}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18787,7 +19044,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.836363636363636</v>
+        <v>18.818181818181817</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19230,7 +19487,93 @@
         <v>18.90909090909091</v>
       </c>
     </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">AVERAGE(B18:M18)</f>
+        <v>18.727272727272727</v>
+      </c>
       <c r="P18" t="s">
         <v>19</v>
       </c>
@@ -19238,7 +19581,7 @@
         <v>38815</v>
       </c>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>89</v>
       </c>
@@ -19246,7 +19589,7 @@
         <v>39135</v>
       </c>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P20" t="s">
         <v>13</v>
       </c>
@@ -19254,7 +19597,7 @@
         <v>39895</v>
       </c>
     </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P21" t="s">
         <v>90</v>
       </c>
@@ -19262,7 +19605,7 @@
         <v>38965</v>
       </c>
     </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>20</v>
       </c>
@@ -19270,7 +19613,7 @@
         <v>39123</v>
       </c>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
         <v>92</v>
       </c>
@@ -19278,7 +19621,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P24" t="s">
         <v>91</v>
       </c>
@@ -19286,7 +19629,7 @@
         <v>39460</v>
       </c>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>39</v>
       </c>
@@ -19294,7 +19637,7 @@
         <v>37739</v>
       </c>
     </row>
-    <row r="26" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>93</v>
       </c>
@@ -19302,7 +19645,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="27" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P27" t="s">
         <v>30</v>
       </c>
@@ -19310,7 +19653,7 @@
         <v>38020</v>
       </c>
     </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>21</v>
       </c>
@@ -19318,7 +19661,7 @@
         <v>38566</v>
       </c>
     </row>
-    <row r="29" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P29" t="s">
         <v>123</v>
       </c>
@@ -19326,7 +19669,7 @@
         <v>38152</v>
       </c>
     </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P30" t="s">
         <v>121</v>
       </c>
@@ -19334,7 +19677,7 @@
         <v>38392</v>
       </c>
     </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>122</v>
       </c>
@@ -19342,7 +19685,7 @@
         <v>37447</v>
       </c>
     </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>157</v>
       </c>
@@ -19380,6 +19723,22 @@
       </c>
       <c r="Q36" s="6">
         <v>39538</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>39427</v>
+      </c>
+    </row>
+    <row r="38" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>39500</v>
       </c>
     </row>
   </sheetData>
@@ -19394,7 +19753,7 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19402,7 +19761,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.163636363636364</v>
+        <v>20.196969696969699</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19859,8 +20218,94 @@
         <v>20.454545454545453</v>
       </c>
     </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="1"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">AVERAGE(B18:M18)</f>
+        <v>20.363636363636363</v>
+      </c>
       <c r="P18" t="s">
         <v>94</v>
       </c>
@@ -19868,7 +20313,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>26</v>
       </c>
@@ -19876,7 +20321,7 @@
         <v>38627</v>
       </c>
     </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P20" t="s">
         <v>95</v>
       </c>
@@ -19884,7 +20329,7 @@
         <v>38620</v>
       </c>
     </row>
-    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N21" s="1"/>
       <c r="P21" t="s">
         <v>38</v>
@@ -19893,7 +20338,7 @@
         <v>39510</v>
       </c>
     </row>
-    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>26</v>
       </c>
@@ -19901,7 +20346,7 @@
         <v>38627</v>
       </c>
     </row>
-    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
         <v>79</v>
       </c>
@@ -19909,7 +20354,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="24" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P24" t="s">
         <v>32</v>
       </c>
@@ -19917,7 +20362,7 @@
         <v>39430</v>
       </c>
     </row>
-    <row r="25" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>23</v>
       </c>
@@ -19925,7 +20370,7 @@
         <v>38906</v>
       </c>
     </row>
-    <row r="26" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>24</v>
       </c>
@@ -19933,7 +20378,7 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="27" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N27" s="1"/>
       <c r="P27" t="s">
         <v>22</v>
@@ -19942,7 +20387,7 @@
         <v>38728</v>
       </c>
     </row>
-    <row r="28" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>25</v>
       </c>
@@ -19950,7 +20395,7 @@
         <v>32643</v>
       </c>
     </row>
-    <row r="29" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P29" t="s">
         <v>31</v>
       </c>
@@ -19958,7 +20403,7 @@
         <v>39197</v>
       </c>
     </row>
-    <row r="30" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N30" s="1"/>
       <c r="P30" t="s">
         <v>111</v>
@@ -19967,7 +20412,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>59</v>
       </c>
@@ -19975,7 +20420,7 @@
         <v>38851</v>
       </c>
     </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>155</v>
       </c>
@@ -20038,7 +20483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
@@ -21547,18 +21992,19 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.618181818181817</v>
+        <v>18.621212121212121</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22006,11 +22452,94 @@
         <v>18.636363636363637</v>
       </c>
     </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" t="s">
+        <v>61</v>
+      </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="1"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">AVERAGE(B18:M18)</f>
+        <v>18.636363636363637</v>
+      </c>
       <c r="P18" t="s">
         <v>99</v>
       </c>
@@ -22018,7 +22547,7 @@
         <v>39078</v>
       </c>
     </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>63</v>
       </c>
@@ -22026,7 +22555,7 @@
         <v>38409</v>
       </c>
     </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N20" s="1"/>
       <c r="P20" t="s">
         <v>73</v>
@@ -22035,7 +22564,7 @@
         <v>39501</v>
       </c>
     </row>
-    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N21" s="1"/>
       <c r="P21" t="s">
         <v>62</v>
@@ -22044,7 +22573,7 @@
         <v>38778</v>
       </c>
     </row>
-    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>58</v>
       </c>
@@ -22052,7 +22581,7 @@
         <v>38775</v>
       </c>
     </row>
-    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N23" s="1"/>
       <c r="P23" t="s">
         <v>101</v>
@@ -22061,7 +22590,7 @@
         <v>38724</v>
       </c>
     </row>
-    <row r="24" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N24" s="1"/>
       <c r="P24" t="s">
         <v>100</v>
@@ -22070,7 +22599,7 @@
         <v>38762</v>
       </c>
     </row>
-    <row r="25" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>72</v>
       </c>
@@ -22078,7 +22607,7 @@
         <v>39463</v>
       </c>
     </row>
-    <row r="26" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
       <c r="P26" t="s">
         <v>64</v>
@@ -22087,7 +22616,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="27" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N27" s="1"/>
       <c r="P27" t="s">
         <v>61</v>
@@ -22096,7 +22625,7 @@
         <v>38722</v>
       </c>
     </row>
-    <row r="28" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>59</v>
       </c>
@@ -22104,7 +22633,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="29" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N29" s="1"/>
       <c r="P29" t="s">
         <v>115</v>
@@ -22113,7 +22642,7 @@
         <v>38373</v>
       </c>
     </row>
-    <row r="30" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N30" s="1"/>
       <c r="P30" t="s">
         <v>116</v>
@@ -22122,7 +22651,7 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>147</v>
       </c>
@@ -22130,7 +22659,7 @@
         <v>39109</v>
       </c>
     </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N32" s="1"/>
       <c r="P32" t="s">
         <v>171</v>
@@ -22139,37 +22668,57 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N33" s="1"/>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="P33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>38853</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>38666</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>39117</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.3">

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5073" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D8474FE-2D68-42B1-8C07-A3955277D44B}"/>
+  <xr:revisionPtr revIDLastSave="5089" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D74AD3-ADC5-4FCF-AC32-D166B6F7109E}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="214">
   <si>
     <t>Scholl</t>
   </si>
@@ -707,6 +707,12 @@
   <si>
     <t>Basar</t>
   </si>
+  <si>
+    <t>Hohenems</t>
+  </si>
+  <si>
+    <t>Kronberger</t>
+  </si>
 </sst>
 </file>
 
@@ -780,7 +786,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <color auto="1"/>
@@ -797,31 +803,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1528,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3173,6 +3157,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15174,7 +15161,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.818181818181817</v>
+        <v>18.961038961038959</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -16345,7 +16332,7 @@
       </c>
       <c r="H4" s="5" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="I4" s="5" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17360,11 +17347,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:Q9">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(B2&lt;&gt;0,B2=MIN(IF(B$2:B$9&lt;&gt;0,B$2:B$9)))</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(B2&lt;&gt;0,B2=MAX(IF(B$2:B$9&lt;&gt;0,B$2:B$9)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(B2&lt;&gt;0,B2=MIN(IF(B$2:B$9&lt;&gt;0,B$2:B$9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -19028,10 +19015,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE484A-7472-48CF-8DEF-9C09E1FFDA18}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19044,7 +19031,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.818181818181817</v>
+        <v>18.961038961038959</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19590,6 +19577,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
       <c r="P20" t="s">
         <v>13</v>
       </c>
@@ -19598,6 +19621,54 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" ca="1" si="6">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1">AVERAGE(B21:M21)</f>
+        <v>19.818181818181817</v>
+      </c>
       <c r="P21" t="s">
         <v>90</v>
       </c>
@@ -19739,6 +19810,14 @@
       </c>
       <c r="Q38" s="6">
         <v>39500</v>
+      </c>
+    </row>
+    <row r="39" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P39" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>37302</v>
       </c>
     </row>
   </sheetData>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5089" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D74AD3-ADC5-4FCF-AC32-D166B6F7109E}"/>
+  <xr:revisionPtr revIDLastSave="5171" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3900F0B-A995-493B-9CA5-5EFADC9AB327}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" activeTab="6" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="223">
   <si>
     <t>Scholl</t>
   </si>
@@ -713,6 +713,33 @@
   <si>
     <t>Kronberger</t>
   </si>
+  <si>
+    <t>Hamzic</t>
+  </si>
+  <si>
+    <t>Zabransky</t>
+  </si>
+  <si>
+    <t>Ivanschitz</t>
+  </si>
+  <si>
+    <t>Mendes</t>
+  </si>
+  <si>
+    <t>Hussauf</t>
+  </si>
+  <si>
+    <t>Schöller</t>
+  </si>
+  <si>
+    <t>Leodolter</t>
+  </si>
+  <si>
+    <t>Zdichynec</t>
+  </si>
+  <si>
+    <t>Kojzek</t>
+  </si>
 </sst>
 </file>
 
@@ -954,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,6 +1813,9 @@
                 <c:pt idx="5">
                   <c:v>20.363636363636363</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2036,16 +2069,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.818181818181817</c:v>
+                  <c:v>20.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.545454545454547</c:v>
@@ -2055,6 +2088,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,6 +2372,9 @@
                 <c:pt idx="15">
                   <c:v>19.636363636363637</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.181818181818183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2607,6 +2646,9 @@
                 <c:pt idx="15" formatCode="0.00">
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>18.727272727272727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2875,6 +2917,9 @@
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
                   <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>20.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,6 +3497,9 @@
                 <c:pt idx="15" formatCode="0.00">
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>18.727272727272727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3742,6 +3790,9 @@
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
                   <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>20.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4351,6 +4402,9 @@
                 <c:pt idx="5">
                   <c:v>20.363636363636363</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4624,16 +4678,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.818181818181817</c:v>
+                  <c:v>20.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.545454545454547</c:v>
@@ -4643,6 +4697,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,6 +5001,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>19.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15126,8 +15186,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15152,7 +15212,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.621212121212121</v>
+        <v>18.636363636363637</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15170,7 +15230,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.402597402597404</v>
+        <v>19.420454545454547</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15179,7 +15239,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.606060606060606</v>
+        <v>19.545454545454543</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15197,7 +15257,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>19.954545454545453</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15206,7 +15266,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.196969696969699</v>
+        <v>20.233766233766232</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15215,7 +15275,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.428571428571427</v>
+        <v>20.44318181818182</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15245,18 +15305,19 @@
   <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.954545454545453</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -15808,6 +15869,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>70</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="P20" t="s">
         <v>102</v>
@@ -15817,7 +15914,54 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N21" s="1"/>
+      <c r="B21">
+        <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" ca="1" si="6">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1">AVERAGE(B21:M21)</f>
+        <v>20.90909090909091</v>
+      </c>
       <c r="P21" t="s">
         <v>57</v>
       </c>
@@ -16188,7 +16332,7 @@
       </c>
       <c r="I2" s="8" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="J2" s="8" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16406,7 +16550,7 @@
       </c>
       <c r="H5" s="5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="I5" s="5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16456,19 +16600,19 @@
       </c>
       <c r="B6" s="5" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.818181818181817</v>
+        <v>20.90909090909091</v>
       </c>
       <c r="D6" s="5" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="E6" s="5" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="F6" s="5" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -16484,7 +16628,7 @@
       </c>
       <c r="I6" s="5" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="J6" s="5" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -16554,7 +16698,7 @@
       </c>
       <c r="H7" s="5" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.181818181818183</v>
       </c>
       <c r="I7" s="5" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -16628,7 +16772,7 @@
       </c>
       <c r="H8" s="5" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="I8" s="5" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -16702,7 +16846,7 @@
       </c>
       <c r="H9" s="5" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.90909090909091</v>
       </c>
       <c r="I9" s="5" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -17364,7 +17508,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17378,7 +17522,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.402597402597404</v>
+        <v>19.420454545454547</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18038,6 +18182,42 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
       <c r="P23" t="s">
         <v>81</v>
       </c>
@@ -18046,7 +18226,54 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N24" s="1"/>
+      <c r="B24">
+        <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" ca="1" si="7">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">AVERAGE(B24:M24)</f>
+        <v>19.545454545454547</v>
+      </c>
       <c r="P24" t="s">
         <v>0</v>
       </c>
@@ -18170,6 +18397,12 @@
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
+      <c r="P39" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>38932</v>
+      </c>
     </row>
     <row r="42" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
@@ -19832,7 +20065,7 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19840,7 +20073,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.196969696969699</v>
+        <v>20.233766233766232</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20401,6 +20634,43 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="1"/>
       <c r="P20" t="s">
         <v>95</v>
       </c>
@@ -20409,7 +20679,54 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N21" s="1"/>
+      <c r="B21">
+        <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" ca="1" si="6">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1">AVERAGE(B21:M21)</f>
+        <v>20.454545454545453</v>
+      </c>
       <c r="P21" t="s">
         <v>38</v>
       </c>
@@ -20522,6 +20839,14 @@
       </c>
       <c r="Q34" s="6">
         <v>38653</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>37284</v>
       </c>
     </row>
     <row r="36" spans="14:17" x14ac:dyDescent="0.3">
@@ -20560,10 +20885,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20575,7 +20900,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.428571428571427</v>
+        <v>20.44318181818182</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20619,7 +20944,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <f ca="1">DATEDIF(VLOOKUP(B2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:L3" ca="1" si="0">DATEDIF(VLOOKUP(C2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -20663,7 +20988,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -20707,7 +21032,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <f ca="1">DATEDIF(VLOOKUP(B5,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:L6" ca="1" si="1">DATEDIF(VLOOKUP(C5,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -20751,7 +21076,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20.818181818181817</v>
+        <v>20.90909090909091</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -20795,7 +21120,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <f ca="1">DATEDIF(VLOOKUP(B8,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:L9" ca="1" si="2">DATEDIF(VLOOKUP(C8,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -20839,7 +21164,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -20883,7 +21208,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <f ca="1">DATEDIF(VLOOKUP(B11,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:L12" ca="1" si="3">DATEDIF(VLOOKUP(C11,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -20927,7 +21252,7 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ref="N12" ca="1" si="4">AVERAGE(B12:M12)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -21229,6 +21554,42 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
       <c r="P23" t="s">
         <v>14</v>
       </c>
@@ -21237,6 +21598,54 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" ca="1" si="8">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">AVERAGE(B24:L24)</f>
+        <v>20.181818181818183</v>
+      </c>
       <c r="P24" t="s">
         <v>29</v>
       </c>
@@ -21346,6 +21755,14 @@
       </c>
       <c r="Q37" s="6">
         <v>39590</v>
+      </c>
+    </row>
+    <row r="38" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>38719</v>
       </c>
     </row>
   </sheetData>
@@ -21361,8 +21778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88D7D6-4932-46BC-9430-8F20DDAB89DF}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21375,7 +21792,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.606060606060606</v>
+        <v>19.545454545454543</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -21921,6 +22338,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
       <c r="P20" t="s">
         <v>48</v>
       </c>
@@ -21929,6 +22382,54 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" ca="1" si="6">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1">AVERAGE(B21:M21)</f>
+        <v>19.181818181818183</v>
+      </c>
       <c r="P21" t="s">
         <v>45</v>
       </c>
@@ -22038,6 +22539,14 @@
       </c>
       <c r="Q34" s="6">
         <v>39235</v>
+      </c>
+    </row>
+    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>38695</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">
@@ -22070,8 +22579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A6E26-4348-4BD7-A4C3-5653B1514462}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22083,7 +22592,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.621212121212121</v>
+        <v>18.636363636363637</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22635,6 +23144,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" t="s">
+        <v>61</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="P20" t="s">
         <v>73</v>
@@ -22644,7 +23189,54 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N21" s="1"/>
+      <c r="B21">
+        <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" ca="1" si="6">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="N21" s="1">
+        <f ca="1">AVERAGE(B21:M21)</f>
+        <v>18.727272727272727</v>
+      </c>
       <c r="P21" t="s">
         <v>62</v>
       </c>
@@ -22775,12 +23367,46 @@
     </row>
     <row r="36" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
+      <c r="P36" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>38977</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>38815</v>
+      </c>
     </row>
     <row r="38" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
+      <c r="P38" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>38151</v>
+      </c>
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
+      <c r="P39" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>39115</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>39179</v>
+      </c>
     </row>
     <row r="41" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5171" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3900F0B-A995-493B-9CA5-5EFADC9AB327}"/>
+  <xr:revisionPtr revIDLastSave="5180" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5FDCA9-8E77-4413-B89D-ABE696AA9C46}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" activeTab="6" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="224">
   <si>
     <t>Scholl</t>
   </si>
@@ -740,6 +740,9 @@
   <si>
     <t>Kojzek</t>
   </si>
+  <si>
+    <t>Kufstein</t>
+  </si>
 </sst>
 </file>
 
@@ -977,7 +980,7 @@
                   <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.545454545454547</c:v>
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18.363636363636363</c:v>
@@ -1542,6 +1545,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,25 +2635,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>18.454545454545453</c:v>
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>18.636363636363637</c:v>
-                </c:pt>
                 <c:pt idx="12" formatCode="0.00">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,6 +3212,9 @@
                 <c:pt idx="6">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3480,25 +3489,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>18.454545454545453</c:v>
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>18.636363636363637</c:v>
-                </c:pt>
                 <c:pt idx="12" formatCode="0.00">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15186,8 +15195,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15212,7 +15221,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272723</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15221,7 +15230,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.961038961038959</v>
+        <v>18.943181818181817</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15230,7 +15239,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.420454545454547</v>
+        <v>19.431818181818187</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -16324,7 +16333,7 @@
       </c>
       <c r="G2" s="8" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.545454545454547</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="H2" s="8" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16480,7 +16489,7 @@
       </c>
       <c r="I4" s="5" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="J4" s="5" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16748,31 +16757,31 @@
       </c>
       <c r="B8" s="5" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="D8" s="5" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="E8" s="5" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="F8" s="5" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="G8" s="5" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="H8" s="5" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="I8" s="5" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -17522,7 +17531,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.420454545454547</v>
+        <v>19.431818181818187</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18012,7 +18021,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -18056,7 +18065,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.545454545454547</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="P18" t="s">
         <v>3</v>
@@ -19251,7 +19260,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19264,7 +19273,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.961038961038959</v>
+        <v>18.943181818181817</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19918,6 +19927,42 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>159</v>
+      </c>
       <c r="P23" t="s">
         <v>92</v>
       </c>
@@ -19926,6 +19971,54 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" ca="1" si="7">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">AVERAGE(B24:M24)</f>
+        <v>18.818181818181817</v>
+      </c>
       <c r="P24" t="s">
         <v>91</v>
       </c>
@@ -20887,7 +20980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -22592,7 +22685,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272723</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22669,7 +22762,7 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
@@ -22681,7 +22774,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -22758,7 +22851,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
@@ -22770,7 +22863,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -22847,7 +22940,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="2"/>
@@ -22859,7 +22952,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -22936,7 +23029,7 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="3"/>
@@ -22948,7 +23041,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -23025,7 +23118,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
@@ -23037,7 +23130,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -23114,7 +23207,7 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="5"/>
@@ -23126,7 +23219,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="P18" t="s">
         <v>99</v>
@@ -23223,7 +23316,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
@@ -23235,7 +23328,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="P21" t="s">
         <v>62</v>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5180" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5FDCA9-8E77-4413-B89D-ABE696AA9C46}"/>
+  <xr:revisionPtr revIDLastSave="5248" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA49E47-7C7E-4829-838E-E3AAA3B1B080}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="230">
   <si>
     <t>Scholl</t>
   </si>
@@ -585,9 +585,6 @@
     <t>Vienna</t>
   </si>
   <si>
-    <t>Zawietschky</t>
-  </si>
-  <si>
     <t>Ramsbacher</t>
   </si>
   <si>
@@ -742,6 +739,27 @@
   </si>
   <si>
     <t>Kufstein</t>
+  </si>
+  <si>
+    <t>Deutschlandsberg</t>
+  </si>
+  <si>
+    <t>Stripfing</t>
+  </si>
+  <si>
+    <t>Zawieschitzky</t>
+  </si>
+  <si>
+    <t>Sumbu</t>
+  </si>
+  <si>
+    <t>St. Johann</t>
+  </si>
+  <si>
+    <t>Deshishku</t>
+  </si>
+  <si>
+    <t>Gleisdorf</t>
   </si>
 </sst>
 </file>
@@ -987,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,6 +1293,9 @@
                 <c:pt idx="6">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1549,6 +1573,9 @@
                 <c:pt idx="7">
                   <c:v>18.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.727272727272727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1802,10 +1829,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.181818181818183</c:v>
@@ -1821,6 +1848,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,6 +2127,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,6 +2414,9 @@
                 <c:pt idx="18">
                   <c:v>19.181818181818183</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.272727272727273</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2655,6 +2691,9 @@
                 <c:pt idx="18" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2926,6 +2965,9 @@
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
                   <c:v>20.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3214,6 +3256,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3507,6 +3552,9 @@
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
@@ -3803,6 +3851,9 @@
                 <c:pt idx="18" formatCode="0.00">
                   <c:v>20.90909090909091</c:v>
                 </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4096,6 +4147,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,10 +4448,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.181818181818183</c:v>
@@ -4413,6 +4467,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4709,6 +4766,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5013,6 +5073,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15196,7 +15259,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15221,7 +15284,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.727272727272723</v>
+        <v>18.73863636363636</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15230,7 +15293,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.943181818181817</v>
+        <v>18.919191919191917</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15239,7 +15302,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.431818181818187</v>
+        <v>19.343434343434346</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15248,7 +15311,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.545454545454543</v>
+        <v>19.511363636363637</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15257,7 +15320,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.818181818181817</v>
+        <v>19.84090909090909</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15266,7 +15329,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>20.09090909090909</v>
+        <v>20.136363636363633</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15275,7 +15338,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.233766233766232</v>
+        <v>20.227272727272727</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15284,7 +15347,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.44318181818182</v>
+        <v>20.444444444444443</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15314,7 +15377,7 @@
   <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15326,7 +15389,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.09090909090909</v>
+        <v>20.136363636363633</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -15619,7 +15682,7 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
         <v>65</v>
@@ -15687,7 +15750,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -15699,7 +15762,7 @@
         <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
         <v>68</v>
@@ -15708,16 +15771,16 @@
         <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
         <v>76</v>
       </c>
       <c r="J14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" t="s">
         <v>186</v>
-      </c>
-      <c r="K14" t="s">
-        <v>187</v>
       </c>
       <c r="L14" t="s">
         <v>70</v>
@@ -15788,7 +15851,7 @@
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
         <v>68</v>
@@ -15797,16 +15860,16 @@
         <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
         <v>76</v>
       </c>
       <c r="J17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" t="s">
         <v>202</v>
-      </c>
-      <c r="K17" t="s">
-        <v>203</v>
       </c>
       <c r="L17" t="s">
         <v>70</v>
@@ -15885,7 +15948,7 @@
         <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -15900,7 +15963,7 @@
         <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I20" t="s">
         <v>149</v>
@@ -15909,7 +15972,7 @@
         <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
         <v>70</v>
@@ -15987,6 +16050,42 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>102</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="P23" t="s">
         <v>68</v>
@@ -15996,7 +16095,54 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N24" s="1"/>
+      <c r="B24">
+        <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" ca="1" si="7">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">AVERAGE(B24:M24)</f>
+        <v>20.454545454545453</v>
+      </c>
       <c r="P24" t="s">
         <v>76</v>
       </c>
@@ -16084,7 +16230,7 @@
     </row>
     <row r="34" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q34" s="6">
         <v>38419</v>
@@ -16093,7 +16239,7 @@
     <row r="35" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N35" s="1"/>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q35" s="6">
         <v>38919</v>
@@ -16102,7 +16248,7 @@
     <row r="36" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q36" s="6">
         <v>38799</v>
@@ -16110,7 +16256,7 @@
     </row>
     <row r="37" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="6">
         <v>39609</v>
@@ -16119,7 +16265,7 @@
     <row r="38" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q38" s="6">
         <v>36322</v>
@@ -16128,7 +16274,7 @@
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q39" s="6">
         <v>38783</v>
@@ -16136,7 +16282,7 @@
     </row>
     <row r="40" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q40" s="6">
         <v>36576</v>
@@ -16144,6 +16290,12 @@
     </row>
     <row r="41" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
+      <c r="P41" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>39206</v>
+      </c>
     </row>
     <row r="42" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
@@ -16345,7 +16497,7 @@
       </c>
       <c r="J2" s="8" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="K2" s="8" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16415,7 +16567,7 @@
       </c>
       <c r="I3" s="8" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J3" s="8" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -16493,7 +16645,7 @@
       </c>
       <c r="J4" s="5" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="K4" s="5" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16535,11 +16687,11 @@
       </c>
       <c r="B5" s="5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="D5" s="5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16563,7 +16715,7 @@
       </c>
       <c r="I5" s="5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16641,7 +16793,7 @@
       </c>
       <c r="J6" s="5" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="K6" s="5" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -16711,7 +16863,7 @@
       </c>
       <c r="I7" s="5" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="J7" s="5" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -16785,7 +16937,7 @@
       </c>
       <c r="I8" s="5" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="J8" s="5" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -16859,7 +17011,7 @@
       </c>
       <c r="I9" s="5" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="J9" s="5" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -17517,7 +17669,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17531,7 +17683,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.431818181818187</v>
+        <v>19.343434343434346</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -17985,7 +18137,7 @@
         <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -17994,7 +18146,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -18084,7 +18236,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
@@ -18108,7 +18260,7 @@
         <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
         <v>108</v>
@@ -18117,7 +18269,7 @@
         <v>84</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P20" t="s">
         <v>80</v>
@@ -18216,7 +18368,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
         <v>83</v>
@@ -18225,7 +18377,7 @@
         <v>84</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P23" t="s">
         <v>81</v>
@@ -18299,6 +18451,42 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
       <c r="P26" t="s">
         <v>82</v>
       </c>
@@ -18307,6 +18495,54 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" ca="1" si="8">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">AVERAGE(B27:M27)</f>
+        <v>18.636363636363637</v>
+      </c>
       <c r="P27" t="s">
         <v>84</v>
       </c>
@@ -18382,7 +18618,7 @@
     <row r="36" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q36" s="6">
         <v>39361</v>
@@ -18390,7 +18626,7 @@
     </row>
     <row r="37" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q37" s="6">
         <v>38982</v>
@@ -18398,7 +18634,7 @@
     </row>
     <row r="38" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q38" s="6">
         <v>38539</v>
@@ -18407,7 +18643,7 @@
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q39" s="6">
         <v>38932</v>
@@ -18463,8 +18699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE832A2-00C7-4FEB-881B-6BCBCF658A7A}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18479,7 +18715,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.818181818181817</v>
+        <v>19.84090909090909</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18836,7 +19072,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -18924,7 +19160,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -19020,7 +19256,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -19053,7 +19289,7 @@
         <v>88</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P20" t="s">
         <v>6</v>
@@ -19127,6 +19363,42 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
       <c r="P23" t="s">
         <v>7</v>
       </c>
@@ -19135,6 +19407,54 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" ca="1" si="7">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">AVERAGE(B24:M24)</f>
+        <v>20</v>
+      </c>
       <c r="P24" t="s">
         <v>87</v>
       </c>
@@ -19240,7 +19560,7 @@
     </row>
     <row r="37" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="6">
         <v>39178</v>
@@ -19260,7 +19580,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19273,7 +19593,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.943181818181817</v>
+        <v>18.919191919191917</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19542,7 +19862,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -19630,10 +19950,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
         <v>188</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -19654,7 +19974,7 @@
         <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" t="s">
         <v>158</v>
@@ -19718,13 +20038,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
         <v>209</v>
-      </c>
-      <c r="B17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" t="s">
-        <v>210</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -19739,7 +20059,7 @@
         <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I17" t="s">
         <v>92</v>
@@ -19820,10 +20140,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -19841,7 +20161,7 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I20" t="s">
         <v>92</v>
@@ -19928,16 +20248,16 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
@@ -19949,7 +20269,7 @@
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I23" t="s">
         <v>92</v>
@@ -20035,6 +20355,42 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>159</v>
+      </c>
       <c r="P26" t="s">
         <v>93</v>
       </c>
@@ -20043,6 +20399,54 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" ca="1" si="8">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">AVERAGE(B27:M27)</f>
+        <v>18.727272727272727</v>
+      </c>
       <c r="P27" t="s">
         <v>30</v>
       </c>
@@ -20108,7 +20512,7 @@
     </row>
     <row r="35" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="6">
         <v>38728</v>
@@ -20116,7 +20520,7 @@
     </row>
     <row r="36" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q36" s="6">
         <v>39538</v>
@@ -20124,7 +20528,7 @@
     </row>
     <row r="37" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q37" s="6">
         <v>39427</v>
@@ -20132,7 +20536,7 @@
     </row>
     <row r="38" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q38" s="6">
         <v>39500</v>
@@ -20140,7 +20544,7 @@
     </row>
     <row r="39" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q39" s="6">
         <v>37302</v>
@@ -20158,7 +20562,7 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20166,7 +20570,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.233766233766232</v>
+        <v>20.227272727272727</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20223,7 +20627,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
@@ -20255,7 +20659,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -20315,7 +20719,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
@@ -20347,7 +20751,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -20536,7 +20940,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
@@ -20554,7 +20958,7 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
         <v>31</v>
@@ -20566,7 +20970,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
@@ -20643,7 +21047,7 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H17" t="s">
         <v>79</v>
@@ -20655,7 +21059,7 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -20746,7 +21150,7 @@
         <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
         <v>79</v>
@@ -20836,6 +21240,43 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="1"/>
       <c r="P23" t="s">
         <v>79</v>
       </c>
@@ -20844,6 +21285,54 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" ca="1" si="7">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">AVERAGE(B24:M24)</f>
+        <v>20</v>
+      </c>
       <c r="P24" t="s">
         <v>32</v>
       </c>
@@ -20920,7 +21409,7 @@
     <row r="33" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N33" s="1"/>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q33" s="6">
         <v>38324</v>
@@ -20928,7 +21417,7 @@
     </row>
     <row r="34" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="6">
         <v>38653</v>
@@ -20936,7 +21425,7 @@
     </row>
     <row r="35" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="6">
         <v>37284</v>
@@ -20944,6 +21433,12 @@
     </row>
     <row r="36" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
+      <c r="P36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>39501</v>
+      </c>
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
@@ -20978,10 +21473,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20993,7 +21488,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.44318181818182</v>
+        <v>20.444444444444443</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -21292,7 +21787,7 @@
         <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" t="s">
         <v>97</v>
@@ -21371,16 +21866,16 @@
         <v>112</v>
       </c>
       <c r="H14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" t="s">
         <v>177</v>
-      </c>
-      <c r="I14" t="s">
-        <v>178</v>
       </c>
       <c r="J14" t="s">
         <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
         <v>97</v>
@@ -21444,7 +21939,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -21459,7 +21954,7 @@
         <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
@@ -21468,7 +21963,7 @@
         <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
         <v>97</v>
@@ -21540,10 +22035,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -21561,7 +22056,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" t="s">
         <v>29</v>
@@ -21570,7 +22065,7 @@
         <v>78</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -21648,7 +22143,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -21669,7 +22164,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I23" t="s">
         <v>29</v>
@@ -21678,7 +22173,7 @@
         <v>78</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -21755,6 +22250,42 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
       <c r="P26" t="s">
         <v>78</v>
       </c>
@@ -21763,6 +22294,54 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" ca="1" si="9">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">AVERAGE(B27:L27)</f>
+        <v>20.454545454545453</v>
+      </c>
       <c r="P27" t="s">
         <v>96</v>
       </c>
@@ -21788,7 +22367,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="6">
         <v>39287</v>
@@ -21804,7 +22383,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="6">
         <v>38141</v>
@@ -21812,7 +22391,7 @@
     </row>
     <row r="33" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="6">
         <v>38563</v>
@@ -21820,7 +22399,7 @@
     </row>
     <row r="34" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="6">
         <v>39028</v>
@@ -21828,7 +22407,7 @@
     </row>
     <row r="35" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="6">
         <v>38357</v>
@@ -21836,7 +22415,7 @@
     </row>
     <row r="36" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="6">
         <v>38587</v>
@@ -21844,7 +22423,7 @@
     </row>
     <row r="37" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="6">
         <v>39590</v>
@@ -21852,10 +22431,18 @@
     </row>
     <row r="38" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q38" s="6">
         <v>38719</v>
+      </c>
+    </row>
+    <row r="39" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>38362</v>
       </c>
     </row>
   </sheetData>
@@ -21871,8 +22458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88D7D6-4932-46BC-9430-8F20DDAB89DF}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21885,7 +22472,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.545454545454543</v>
+        <v>19.511363636363637</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22163,7 +22750,7 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
@@ -22251,7 +22838,7 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
@@ -22339,7 +22926,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
         <v>52</v>
@@ -22351,13 +22938,13 @@
         <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I17" t="s">
         <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
         <v>114</v>
@@ -22453,7 +23040,7 @@
         <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I20" t="s">
         <v>163</v>
@@ -22539,6 +23126,42 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>218</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
       <c r="P23" t="s">
         <v>98</v>
       </c>
@@ -22547,6 +23170,54 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" ca="1" si="7">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">AVERAGE(B24:M24)</f>
+        <v>19.272727272727273</v>
+      </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
@@ -22612,7 +23283,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q32" s="6">
         <v>39521</v>
@@ -22620,7 +23291,7 @@
     </row>
     <row r="33" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q33" s="6">
         <v>39202</v>
@@ -22628,7 +23299,7 @@
     </row>
     <row r="34" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="6">
         <v>39235</v>
@@ -22636,7 +23307,7 @@
     </row>
     <row r="35" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="6">
         <v>38695</v>
@@ -22672,8 +23343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A6E26-4348-4BD7-A4C3-5653B1514462}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22685,7 +23356,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.727272727272723</v>
+        <v>18.73863636363636</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22960,7 +23631,7 @@
         <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -23049,7 +23720,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
@@ -23135,10 +23806,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -23147,10 +23818,10 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" t="s">
-        <v>207</v>
       </c>
       <c r="G17" t="s">
         <v>101</v>
@@ -23165,7 +23836,7 @@
         <v>59</v>
       </c>
       <c r="K17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s">
         <v>61</v>
@@ -23238,22 +23909,22 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" t="s">
         <v>214</v>
-      </c>
-      <c r="C20" t="s">
-        <v>215</v>
       </c>
       <c r="D20" t="s">
         <v>115</v>
       </c>
       <c r="E20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" t="s">
         <v>216</v>
-      </c>
-      <c r="F20" t="s">
-        <v>217</v>
       </c>
       <c r="G20" t="s">
         <v>101</v>
@@ -23268,7 +23939,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
         <v>61</v>
@@ -23346,6 +24017,42 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>61</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="P23" t="s">
         <v>101</v>
@@ -23355,7 +24062,54 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N24" s="1"/>
+      <c r="B24">
+        <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" ca="1" si="7">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">AVERAGE(B24:M24)</f>
+        <v>18.818181818181817</v>
+      </c>
       <c r="P24" t="s">
         <v>100</v>
       </c>
@@ -23426,7 +24180,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N32" s="1"/>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="6">
         <v>39204</v>
@@ -23435,7 +24189,7 @@
     <row r="33" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N33" s="1"/>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q33" s="6">
         <v>38853</v>
@@ -23443,7 +24197,7 @@
     </row>
     <row r="34" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="6">
         <v>38666</v>
@@ -23452,7 +24206,7 @@
     <row r="35" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N35" s="1"/>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="6">
         <v>39117</v>
@@ -23461,7 +24215,7 @@
     <row r="36" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q36" s="6">
         <v>38977</v>
@@ -23469,7 +24223,7 @@
     </row>
     <row r="37" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="6">
         <v>38815</v>
@@ -23478,7 +24232,7 @@
     <row r="38" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q38" s="6">
         <v>38151</v>
@@ -23487,7 +24241,7 @@
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q39" s="6">
         <v>39115</v>
@@ -23495,7 +24249,7 @@
     </row>
     <row r="40" spans="14:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q40" s="6">
         <v>39179</v>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5248" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA49E47-7C7E-4829-838E-E3AAA3B1B080}"/>
+  <xr:revisionPtr revIDLastSave="5323" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C48F6F-11A3-4030-9D13-B4978D843166}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" activeTab="1" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="240">
   <si>
     <t>Scholl</t>
   </si>
@@ -761,6 +761,36 @@
   <si>
     <t>Gleisdorf</t>
   </si>
+  <si>
+    <t>Lafnitz</t>
+  </si>
+  <si>
+    <t>Abdi</t>
+  </si>
+  <si>
+    <t>Kapfenberg</t>
+  </si>
+  <si>
+    <t>Gröller</t>
+  </si>
+  <si>
+    <t>Seekirchen</t>
+  </si>
+  <si>
+    <t>Petrovic</t>
+  </si>
+  <si>
+    <t>Thalmann</t>
+  </si>
+  <si>
+    <t>Hodzic</t>
+  </si>
+  <si>
+    <t>Maretic</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
 </sst>
 </file>
 
@@ -992,22 +1022,25 @@
                   <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.727272727272727</c:v>
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.363636363636363</c:v>
+                  <c:v>18.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1296,6 +1329,12 @@
                 <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1576,6 +1615,9 @@
                 <c:pt idx="8">
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.09090909090909</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1829,28 +1871,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.09090909090909</c:v>
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.181818181818183</c:v>
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.272727272727273</c:v>
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.363636363636363</c:v>
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,6 +2175,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,6 +2465,9 @@
                 <c:pt idx="21">
                   <c:v>19.272727272727273</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2671,16 +2722,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>18.545454545454547</c:v>
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
                   <c:v>18.727272727272727</c:v>
@@ -2693,6 +2744,9 @@
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2968,6 +3022,9 @@
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
                   <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>21.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3260,6 +3317,9 @@
                 <c:pt idx="8">
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.09090909090909</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3534,16 +3594,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>18.545454545454547</c:v>
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
                   <c:v>18.727272727272727</c:v>
@@ -3556,6 +3616,9 @@
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3854,6 +3917,9 @@
                 <c:pt idx="21" formatCode="0.00">
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>21.363636363636363</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4150,6 +4216,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,28 +4520,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.09090909090909</c:v>
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.181818181818183</c:v>
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.272727272727273</c:v>
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.363636363636363</c:v>
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4769,6 +4844,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5076,6 +5154,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>19.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15258,7 +15339,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -15284,7 +15365,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.73863636363636</v>
+        <v>18.767676767676765</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15293,7 +15374,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.919191919191917</v>
+        <v>18.836363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15302,7 +15383,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.343434343434346</v>
+        <v>19.381818181818183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15311,7 +15392,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.511363636363637</v>
+        <v>19.494949494949495</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15320,25 +15401,25 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.84090909090909</v>
+        <v>19.890909090909091</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5">
-        <f ca="1">Sturm!N1</f>
-        <v>20.136363636363633</v>
+        <f ca="1">'Young Violets'!N1</f>
+        <v>20.161616161616163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5">
-        <f ca="1">'Young Violets'!N1</f>
-        <v>20.227272727272727</v>
+        <f ca="1">Sturm!N1</f>
+        <v>20.27272727272727</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15347,7 +15428,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.444444444444443</v>
+        <v>20.40909090909091</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15376,8 +15457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DFA24-3406-41A0-A4BC-C12C2626EFAE}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15389,7 +15470,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.136363636363633</v>
+        <v>20.27272727272727</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -16159,6 +16240,42 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" t="s">
+        <v>226</v>
+      </c>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>102</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="P26" t="s">
         <v>74</v>
@@ -16168,7 +16285,54 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N27" s="1"/>
+      <c r="B27">
+        <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" ca="1" si="8">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">AVERAGE(B27:M27)</f>
+        <v>21.363636363636363</v>
+      </c>
       <c r="P27" t="s">
         <v>70</v>
       </c>
@@ -16382,7 +16546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980021B-B36B-4907-BAF3-C28A440CD06D}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -16477,7 +16641,7 @@
       </c>
       <c r="E2" s="8" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="F2" s="8" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16485,11 +16649,11 @@
       </c>
       <c r="G2" s="8" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="H2" s="8" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.363636363636363</v>
+        <v>18.454545454545453</v>
       </c>
       <c r="I2" s="8" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16501,7 +16665,7 @@
       </c>
       <c r="K2" s="8" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="L2" s="8" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16571,11 +16735,11 @@
       </c>
       <c r="J3" s="8" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="K3" s="8" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="L3" s="8" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -16649,7 +16813,7 @@
       </c>
       <c r="K4" s="5" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.09090909090909</v>
       </c>
       <c r="L4" s="5" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16687,27 +16851,27 @@
       </c>
       <c r="B5" s="5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="D5" s="5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="F5" s="5" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="G5" s="5" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.363636363636363</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="H5" s="5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16715,11 +16879,11 @@
       </c>
       <c r="I5" s="5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="J5" s="5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K5" s="5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16797,7 +16961,7 @@
       </c>
       <c r="K6" s="5" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="L6" s="5" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -16867,7 +17031,7 @@
       </c>
       <c r="J7" s="5" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="K7" s="5" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -16909,19 +17073,19 @@
       </c>
       <c r="B8" s="5" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.545454545454547</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="D8" s="5" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.818181818181817</v>
+        <v>18.90909090909091</v>
       </c>
       <c r="E8" s="5" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="F8" s="5" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -16941,7 +17105,7 @@
       </c>
       <c r="J8" s="5" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="K8" s="5" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -17015,7 +17179,7 @@
       </c>
       <c r="J9" s="5" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>21.363636363636363</v>
       </c>
       <c r="K9" s="5" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -17669,7 +17833,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17683,7 +17847,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.343434343434346</v>
+        <v>19.381818181818183</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18014,7 +18178,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
@@ -18038,7 +18202,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -18185,7 +18349,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
@@ -18217,7 +18381,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="P18" t="s">
         <v>3</v>
@@ -18321,11 +18485,11 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>18.363636363636363</v>
+        <v>18.454545454545453</v>
       </c>
       <c r="P21" t="s">
         <v>1</v>
@@ -18559,6 +18723,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
       <c r="P29" t="s">
         <v>106</v>
       </c>
@@ -18567,7 +18767,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N30" s="1"/>
+      <c r="B30">
+        <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:L30" ca="1" si="9">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1">AVERAGE(B30:M30)</f>
+        <v>19.454545454545453</v>
+      </c>
       <c r="P30" t="s">
         <v>107</v>
       </c>
@@ -18699,8 +18946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE832A2-00C7-4FEB-881B-6BCBCF658A7A}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18715,7 +18962,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.84090909090909</v>
+        <v>19.890909090909091</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19471,6 +19718,42 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
       <c r="P26" t="s">
         <v>37</v>
       </c>
@@ -19479,6 +19762,54 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" ca="1" si="8">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">AVERAGE(B27:M27)</f>
+        <v>20.09090909090909</v>
+      </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
@@ -19495,6 +19826,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
       <c r="P29" t="s">
         <v>18</v>
       </c>
@@ -19503,6 +19870,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:L30" ca="1" si="9">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1">AVERAGE(B30:M30)</f>
+        <v>20.09090909090909</v>
+      </c>
       <c r="P30" t="s">
         <v>105</v>
       </c>
@@ -19577,10 +19992,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE484A-7472-48CF-8DEF-9C09E1FFDA18}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19593,7 +20008,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.919191919191917</v>
+        <v>18.836363636363636</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20463,6 +20878,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s">
+        <v>93</v>
+      </c>
       <c r="P29" t="s">
         <v>123</v>
       </c>
@@ -20471,6 +20922,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:L30" ca="1" si="9">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1">AVERAGE(B30:M30)</f>
+        <v>18.09090909090909</v>
+      </c>
       <c r="P30" t="s">
         <v>121</v>
       </c>
@@ -20548,6 +21047,38 @@
       </c>
       <c r="Q39" s="6">
         <v>37302</v>
+      </c>
+    </row>
+    <row r="40" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>38913</v>
+      </c>
+    </row>
+    <row r="41" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P41" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>38795</v>
+      </c>
+    </row>
+    <row r="42" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P42" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>39771</v>
+      </c>
+    </row>
+    <row r="43" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>39339</v>
       </c>
     </row>
   </sheetData>
@@ -20562,7 +21093,7 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20570,7 +21101,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.227272727272727</v>
+        <v>20.161616161616163</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20619,7 +21150,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:L3" ca="1" si="0">DATEDIF(VLOOKUP(C2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
@@ -20659,7 +21190,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -20711,7 +21242,7 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:L6" ca="1" si="1">DATEDIF(VLOOKUP(C5,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -20751,7 +21282,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -20803,7 +21334,7 @@
       </c>
       <c r="C9">
         <f t="shared" ref="C9:L9" ca="1" si="2">DATEDIF(VLOOKUP(C8,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
@@ -20843,7 +21374,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -20895,7 +21426,7 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:L12" ca="1" si="3">DATEDIF(VLOOKUP(C11,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
@@ -20935,7 +21466,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20984,7 +21515,7 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:L15" ca="1" si="4">DATEDIF(VLOOKUP(C14,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
@@ -21024,7 +21555,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -21073,7 +21604,7 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
@@ -21113,7 +21644,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>20.363636363636363</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="P18" t="s">
         <v>94</v>
@@ -21307,7 +21838,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
@@ -21331,7 +21862,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="P24" t="s">
         <v>32</v>
@@ -21349,6 +21880,43 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="1"/>
       <c r="P26" t="s">
         <v>24</v>
       </c>
@@ -21357,7 +21925,54 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N27" s="1"/>
+      <c r="B27">
+        <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" ca="1" si="8">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">AVERAGE(B27:M27)</f>
+        <v>19</v>
+      </c>
       <c r="P27" t="s">
         <v>22</v>
       </c>
@@ -21438,6 +22053,14 @@
       </c>
       <c r="Q36" s="6">
         <v>39501</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>38783</v>
       </c>
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
@@ -21473,10 +22096,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21488,7 +22111,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.444444444444443</v>
+        <v>20.40909090909091</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22358,6 +22981,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" t="s">
+        <v>198</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
       <c r="P29" t="s">
         <v>112</v>
       </c>
@@ -22366,6 +23025,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:L30" ca="1" si="10">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1">AVERAGE(B30:L30)</f>
+        <v>20.09090909090909</v>
+      </c>
       <c r="P30" t="s">
         <v>171</v>
       </c>
@@ -22443,6 +23150,14 @@
       </c>
       <c r="Q39" s="6">
         <v>38362</v>
+      </c>
+    </row>
+    <row r="40" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>38650</v>
       </c>
     </row>
   </sheetData>
@@ -22458,8 +23173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88D7D6-4932-46BC-9430-8F20DDAB89DF}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22472,7 +23187,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.511363636363637</v>
+        <v>19.494949494949495</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23234,6 +23949,42 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
       <c r="P26" t="s">
         <v>43</v>
       </c>
@@ -23242,6 +23993,54 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" ca="1" si="8">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">AVERAGE(B27:M27)</f>
+        <v>19.363636363636363</v>
+      </c>
       <c r="P27" t="s">
         <v>54</v>
       </c>
@@ -23311,6 +24110,14 @@
       </c>
       <c r="Q35" s="6">
         <v>38695</v>
+      </c>
+    </row>
+    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P36" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>38377</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">
@@ -23343,8 +24150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A6E26-4348-4BD7-A4C3-5653B1514462}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23356,7 +24163,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.73863636363636</v>
+        <v>18.767676767676765</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23437,7 +24244,7 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
@@ -23445,7 +24252,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>18.545454545454547</v>
+        <v>18.636363636363637</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -23526,7 +24333,7 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
@@ -23534,7 +24341,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -23615,7 +24422,7 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
@@ -23623,7 +24430,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>18.818181818181817</v>
+        <v>18.90909090909091</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -23704,7 +24511,7 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="3"/>
@@ -23712,7 +24519,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -24126,6 +24933,42 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>61</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="P26" t="s">
         <v>64</v>
@@ -24135,7 +24978,54 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N27" s="1"/>
+      <c r="B27">
+        <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" ca="1" si="8">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">AVERAGE(B27:M27)</f>
+        <v>18.636363636363637</v>
+      </c>
       <c r="P27" t="s">
         <v>61</v>
       </c>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5323" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C48F6F-11A3-4030-9D13-B4978D843166}"/>
+  <xr:revisionPtr revIDLastSave="5338" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39321726-6300-4B89-8CE7-DFA9855CAF53}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" activeTab="1" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="241">
   <si>
     <t>Scholl</t>
   </si>
@@ -791,6 +791,9 @@
   <si>
     <t>Harrison</t>
   </si>
+  <si>
+    <t>Kujrakovic</t>
+  </si>
 </sst>
 </file>
 
@@ -1041,6 +1044,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,6 +2185,9 @@
                 <c:pt idx="9">
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.545454545454547</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3000,7 +3009,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
                   <c:v>20.09090909090909</c:v>
@@ -3894,7 +3903,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
                   <c:v>20.09090909090909</c:v>
@@ -4847,6 +4856,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15339,7 +15351,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -15383,7 +15395,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.381818181818183</v>
+        <v>19.371900826446282</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15419,7 +15431,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>20.27272727272727</v>
+        <v>20.282828282828284</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15428,7 +15440,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.40909090909091</v>
+        <v>20.421487603305785</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15470,7 +15482,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.27272727272727</v>
+        <v>20.282828282828284</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -15515,7 +15527,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <f ca="1">DATEDIF(VLOOKUP(B2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:L3" ca="1" si="0">DATEDIF(VLOOKUP(C2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -15559,7 +15571,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -16546,7 +16558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980021B-B36B-4907-BAF3-C28A440CD06D}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -16669,7 +16681,7 @@
       </c>
       <c r="L2" s="8" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="M2" s="8" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16965,7 +16977,7 @@
       </c>
       <c r="L6" s="5" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="M6" s="5" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -17147,7 +17159,7 @@
       </c>
       <c r="B9" s="5" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -17833,7 +17845,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17847,7 +17859,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.381818181818183</v>
+        <v>19.371900826446282</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18831,6 +18843,42 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" t="s">
+        <v>219</v>
+      </c>
       <c r="P32" t="s">
         <v>108</v>
       </c>
@@ -18838,7 +18886,55 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" ca="1" si="10">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1">AVERAGE(B33:M33)</f>
+        <v>19.272727272727273</v>
+      </c>
       <c r="P33" t="s">
         <v>160</v>
       </c>
@@ -18846,7 +18942,7 @@
         <v>38665</v>
       </c>
     </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>161</v>
       </c>
@@ -18854,7 +18950,7 @@
         <v>33804</v>
       </c>
     </row>
-    <row r="35" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
         <v>166</v>
       </c>
@@ -18862,7 +18958,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
       <c r="P36" t="s">
         <v>191</v>
@@ -18871,7 +18967,7 @@
         <v>39361</v>
       </c>
     </row>
-    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>190</v>
       </c>
@@ -18879,7 +18975,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>196</v>
       </c>
@@ -18887,7 +18983,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="39" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
         <v>219</v>
@@ -18896,13 +18992,13 @@
         <v>38932</v>
       </c>
     </row>
-    <row r="42" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="48" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="51" spans="14:14" x14ac:dyDescent="0.3">
@@ -22096,10 +22192,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22111,7 +22207,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.40909090909091</v>
+        <v>20.421487603305785</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23089,6 +23185,42 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>198</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
       <c r="P32" t="s">
         <v>176</v>
       </c>
@@ -23096,7 +23228,55 @@
         <v>38141</v>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" ca="1" si="11">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1">AVERAGE(B33:L33)</f>
+        <v>20.545454545454547</v>
+      </c>
       <c r="P33" t="s">
         <v>177</v>
       </c>
@@ -23104,7 +23284,7 @@
         <v>38563</v>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>193</v>
       </c>
@@ -23112,7 +23292,7 @@
         <v>39028</v>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
         <v>194</v>
       </c>
@@ -23120,7 +23300,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
         <v>198</v>
       </c>
@@ -23128,7 +23308,7 @@
         <v>38587</v>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>197</v>
       </c>
@@ -23136,7 +23316,7 @@
         <v>39590</v>
       </c>
     </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>221</v>
       </c>
@@ -23144,7 +23324,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
         <v>20</v>
       </c>
@@ -23152,12 +23332,20 @@
         <v>38362</v>
       </c>
     </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>239</v>
       </c>
       <c r="Q40" s="6">
         <v>38650</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P41" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>38829</v>
       </c>
     </row>
   </sheetData>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5338" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39321726-6300-4B89-8CE7-DFA9855CAF53}"/>
+  <xr:revisionPtr revIDLastSave="5354" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0C184DC-27E4-4635-9A5B-5CE36B499C8D}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="242">
   <si>
     <t>Scholl</t>
   </si>
@@ -794,6 +794,9 @@
   <si>
     <t>Kujrakovic</t>
   </si>
+  <si>
+    <t>Reichenau</t>
+  </si>
 </sst>
 </file>
 
@@ -1019,10 +1022,10 @@
                   <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.363636363636363</c:v>
+                  <c:v>18.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.818181818181817</c:v>
+                  <c:v>20.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.818181818181817</c:v>
@@ -1034,7 +1037,7 @@
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.454545454545453</c:v>
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19.545454545454547</c:v>
@@ -1341,6 +1344,9 @@
                 <c:pt idx="9">
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1623,6 +1629,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>18.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,6 +3338,9 @@
                 <c:pt idx="9">
                   <c:v>18.09090909090909</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.545454545454547</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4231,6 +4243,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15386,7 +15401,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.836363636363636</v>
+        <v>18.900826446280988</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15395,7 +15410,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.371900826446282</v>
+        <v>19.396694214876032</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15413,7 +15428,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.890909090909091</v>
+        <v>19.900826446280991</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -16645,11 +16660,11 @@
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.363636363636363</v>
+        <v>18.454545454545453</v>
       </c>
       <c r="D2" s="8" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.818181818181817</v>
+        <v>20.90909090909091</v>
       </c>
       <c r="E2" s="8" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16665,7 +16680,7 @@
       </c>
       <c r="H2" s="8" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="I2" s="8" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16755,7 +16770,7 @@
       </c>
       <c r="L3" s="8" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M3" s="8" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -16829,7 +16844,7 @@
       </c>
       <c r="L4" s="5" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="M4" s="5" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17859,7 +17874,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.371900826446282</v>
+        <v>19.396694214876032</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18015,7 +18030,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
@@ -18035,7 +18050,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>18.363636363636363</v>
+        <v>18.454545454545453</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -18107,7 +18122,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
@@ -18123,7 +18138,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.818181818181817</v>
+        <v>20.90909090909091</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -18489,7 +18504,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
@@ -18501,7 +18516,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="P21" t="s">
         <v>1</v>
@@ -19043,7 +19058,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19058,7 +19073,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.890909090909091</v>
+        <v>19.900826446280991</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20030,6 +20045,42 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
       <c r="P32" t="s">
         <v>151</v>
       </c>
@@ -20037,7 +20088,55 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" ca="1" si="10">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1">AVERAGE(B33:M33)</f>
+        <v>20</v>
+      </c>
       <c r="P33" t="s">
         <v>152</v>
       </c>
@@ -20045,7 +20144,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>153</v>
       </c>
@@ -20053,7 +20152,7 @@
         <v>38448</v>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
         <v>168</v>
       </c>
@@ -20061,7 +20160,7 @@
         <v>39162</v>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
         <v>169</v>
       </c>
@@ -20069,7 +20168,7 @@
         <v>39597</v>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>200</v>
       </c>
@@ -20091,7 +20190,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20104,7 +20203,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.836363636363636</v>
+        <v>18.900826446280988</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -21082,6 +21181,42 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>122</v>
+      </c>
       <c r="P32" t="s">
         <v>157</v>
       </c>
@@ -21089,7 +21224,55 @@
         <v>38790</v>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" ca="1" si="10">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1">AVERAGE(B33:M33)</f>
+        <v>19.545454545454547</v>
+      </c>
       <c r="P33" t="s">
         <v>158</v>
       </c>
@@ -21097,7 +21280,7 @@
         <v>38012</v>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>159</v>
       </c>
@@ -21105,7 +21288,7 @@
         <v>39085</v>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
         <v>188</v>
       </c>
@@ -21113,7 +21296,7 @@
         <v>38728</v>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
         <v>189</v>
       </c>
@@ -21121,7 +21304,7 @@
         <v>39538</v>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>209</v>
       </c>
@@ -21129,7 +21312,7 @@
         <v>39427</v>
       </c>
     </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>210</v>
       </c>
@@ -21137,7 +21320,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
         <v>212</v>
       </c>
@@ -21145,7 +21328,7 @@
         <v>37302</v>
       </c>
     </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>235</v>
       </c>
@@ -21153,7 +21336,7 @@
         <v>38913</v>
       </c>
     </row>
-    <row r="41" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P41" t="s">
         <v>236</v>
       </c>
@@ -21161,7 +21344,7 @@
         <v>38795</v>
       </c>
     </row>
-    <row r="42" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P42" t="s">
         <v>237</v>
       </c>
@@ -21169,7 +21352,7 @@
         <v>39771</v>
       </c>
     </row>
-    <row r="43" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P43" t="s">
         <v>238</v>
       </c>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5354" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0C184DC-27E4-4635-9A5B-5CE36B499C8D}"/>
+  <xr:revisionPtr revIDLastSave="5421" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335F6D26-C12E-4FDC-84EC-3C5EF3FE8DF9}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="246">
   <si>
     <t>Scholl</t>
   </si>
@@ -797,6 +797,18 @@
   <si>
     <t>Reichenau</t>
   </si>
+  <si>
+    <t>Ewemade</t>
+  </si>
+  <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
+    <t>Nunoo</t>
+  </si>
+  <si>
+    <t>Diallo</t>
+  </si>
 </sst>
 </file>
 
@@ -1019,22 +1031,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.90909090909091</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18.545454545454547</c:v>
@@ -1046,10 +1058,13 @@
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.454545454545453</c:v>
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.272727272727273</c:v>
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,6 +1362,9 @@
                 <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1633,6 +1651,9 @@
                 <c:pt idx="10">
                   <c:v>19.545454545454547</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.272727272727273</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1911,6 +1932,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,6 +2221,9 @@
                 <c:pt idx="10">
                   <c:v>20.545454545454547</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2466,10 +2493,10 @@
                   <c:v>19.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.636363636363637</c:v>
+                  <c:v>19.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19.636363636363637</c:v>
@@ -2481,10 +2508,13 @@
                   <c:v>19.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.272727272727273</c:v>
+                  <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2766,6 +2796,9 @@
                 <c:pt idx="24" formatCode="0.00">
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>18.90909090909091</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3043,6 +3076,9 @@
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
                   <c:v>21.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,6 +3376,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,6 +3680,9 @@
                 <c:pt idx="24" formatCode="0.00">
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>18.90909090909091</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3940,6 +3982,9 @@
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
                   <c:v>21.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4246,6 +4291,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4570,6 +4618,9 @@
                 <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.90909090909091</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4875,6 +4926,9 @@
                 <c:pt idx="10">
                   <c:v>20.545454545454547</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5165,10 +5219,10 @@
                   <c:v>19.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.636363636363637</c:v>
+                  <c:v>19.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19.636363636363637</c:v>
@@ -5180,10 +5234,13 @@
                   <c:v>19.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.272727272727273</c:v>
+                  <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,7 +5493,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19,36</c:v>
+                  <c:v>19,45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15392,7 +15449,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.767676767676765</v>
+        <v>18.781818181818178</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15401,7 +15458,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.900826446280988</v>
+        <v>18.93181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15410,7 +15467,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.396694214876032</v>
+        <v>19.439393939393941</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15419,7 +15476,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.494949494949495</v>
+        <v>19.509090909090908</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15428,7 +15485,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.900826446280991</v>
+        <v>19.893939393939394</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15437,7 +15494,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.161616161616163</v>
+        <v>20.036363636363639</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15446,7 +15503,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>20.282828282828284</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15455,7 +15512,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.421487603305785</v>
+        <v>20.401515151515152</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15485,7 +15542,7 @@
   <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15497,7 +15554,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.282828282828284</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -16376,6 +16433,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" t="s">
+        <v>102</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="P29" t="s">
         <v>118</v>
@@ -16385,7 +16478,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N30" s="1"/>
+      <c r="B30">
+        <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:L30" ca="1" si="9">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1">AVERAGE(B30:M30)</f>
+        <v>20.454545454545453</v>
+      </c>
       <c r="P30" t="s">
         <v>119</v>
       </c>
@@ -16656,7 +16796,7 @@
       </c>
       <c r="B2" s="8" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16664,7 +16804,7 @@
       </c>
       <c r="D2" s="8" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.90909090909091</v>
+        <v>21</v>
       </c>
       <c r="E2" s="8" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16672,11 +16812,11 @@
       </c>
       <c r="F2" s="8" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="G2" s="8" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="H2" s="8" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16692,15 +16832,15 @@
       </c>
       <c r="K2" s="8" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="L2" s="8" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="M2" s="8" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="N2" s="8" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16774,7 +16914,7 @@
       </c>
       <c r="M3" s="8" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="N3" s="8" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -16848,7 +16988,7 @@
       </c>
       <c r="M4" s="5" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="N4" s="5" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16914,7 +17054,7 @@
       </c>
       <c r="K5" s="5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.90909090909091</v>
       </c>
       <c r="L5" s="5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -16996,7 +17136,7 @@
       </c>
       <c r="M6" s="5" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="N6" s="5" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -17034,11 +17174,11 @@
       </c>
       <c r="D7" s="5" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.636363636363637</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17054,15 +17194,15 @@
       </c>
       <c r="I7" s="5" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="J7" s="5" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="K7" s="5" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="L7" s="5" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17136,7 +17276,7 @@
       </c>
       <c r="K8" s="5" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.90909090909091</v>
       </c>
       <c r="L8" s="5" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -17210,7 +17350,7 @@
       </c>
       <c r="K9" s="5" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="L9" s="5" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -17859,8 +17999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECAD747-1599-4E91-8390-8EFBB40A7E91}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17874,7 +18014,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.396694214876032</v>
+        <v>19.439393939393941</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -17942,7 +18082,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
@@ -17962,7 +18102,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -18118,7 +18258,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
@@ -18138,7 +18278,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.90909090909091</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -18300,7 +18440,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
@@ -18320,7 +18460,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -18388,7 +18528,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="5"/>
@@ -18408,7 +18548,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="P18" t="s">
         <v>3</v>
@@ -18832,7 +18972,7 @@
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="9"/>
@@ -18840,7 +18980,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="P30" t="s">
         <v>107</v>
@@ -18901,7 +19041,7 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>27</v>
@@ -18940,7 +19080,7 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="10"/>
@@ -18948,7 +19088,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:M33)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="P33" t="s">
         <v>160</v>
@@ -18957,7 +19097,7 @@
         <v>38665</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>161</v>
       </c>
@@ -18965,7 +19105,43 @@
         <v>33804</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>196</v>
+      </c>
+      <c r="J35" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" t="s">
+        <v>219</v>
+      </c>
       <c r="P35" t="s">
         <v>166</v>
       </c>
@@ -18973,8 +19149,55 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N36" s="1"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f ca="1">DATEDIF(VLOOKUP(B35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" ca="1" si="11">DATEDIF(VLOOKUP(C35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1">AVERAGE(B36:M36)</f>
+        <v>19.363636363636363</v>
+      </c>
       <c r="P36" t="s">
         <v>191</v>
       </c>
@@ -18982,7 +19205,7 @@
         <v>39361</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>190</v>
       </c>
@@ -18990,7 +19213,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>196</v>
       </c>
@@ -18998,7 +19221,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
         <v>219</v>
@@ -19007,13 +19230,13 @@
         <v>38932</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="51" spans="14:14" x14ac:dyDescent="0.3">
@@ -19055,10 +19278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE832A2-00C7-4FEB-881B-6BCBCF658A7A}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19073,7 +19296,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.900826446280991</v>
+        <v>19.893939393939394</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20088,7 +20311,7 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -20144,7 +20367,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>153</v>
       </c>
@@ -20152,7 +20375,43 @@
         <v>38448</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
       <c r="P35" t="s">
         <v>168</v>
       </c>
@@ -20160,7 +20419,55 @@
         <v>39162</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f ca="1">DATEDIF(VLOOKUP(B35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" ca="1" si="11">DATEDIF(VLOOKUP(C35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1">AVERAGE(B36:M36)</f>
+        <v>19.818181818181817</v>
+      </c>
       <c r="P36" t="s">
         <v>169</v>
       </c>
@@ -20168,12 +20475,20 @@
         <v>39597</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>200</v>
       </c>
       <c r="Q37" s="6">
         <v>39178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>38410</v>
       </c>
     </row>
   </sheetData>
@@ -20190,7 +20505,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20203,7 +20518,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.900826446280988</v>
+        <v>18.93181818181818</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -21224,7 +21539,7 @@
         <v>38790</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -21280,7 +21595,7 @@
         <v>38012</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>159</v>
       </c>
@@ -21288,7 +21603,43 @@
         <v>39085</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" t="s">
+        <v>122</v>
+      </c>
       <c r="P35" t="s">
         <v>188</v>
       </c>
@@ -21296,7 +21647,55 @@
         <v>38728</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f ca="1">DATEDIF(VLOOKUP(B35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" ca="1" si="11">DATEDIF(VLOOKUP(C35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1">AVERAGE(B36:M36)</f>
+        <v>19.272727272727273</v>
+      </c>
       <c r="P36" t="s">
         <v>189</v>
       </c>
@@ -21304,7 +21703,7 @@
         <v>39538</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>209</v>
       </c>
@@ -21312,7 +21711,7 @@
         <v>39427</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>210</v>
       </c>
@@ -21320,7 +21719,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
         <v>212</v>
       </c>
@@ -21328,7 +21727,7 @@
         <v>37302</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>235</v>
       </c>
@@ -21336,7 +21735,7 @@
         <v>38913</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P41" t="s">
         <v>236</v>
       </c>
@@ -21344,7 +21743,7 @@
         <v>38795</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P42" t="s">
         <v>237</v>
       </c>
@@ -21352,7 +21751,7 @@
         <v>39771</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P43" t="s">
         <v>238</v>
       </c>
@@ -21372,7 +21771,7 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21380,7 +21779,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.161616161616163</v>
+        <v>20.036363636363639</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22268,6 +22667,43 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>155</v>
+      </c>
+      <c r="N29" s="1"/>
       <c r="P29" t="s">
         <v>31</v>
       </c>
@@ -22276,7 +22712,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N30" s="1"/>
+      <c r="B30">
+        <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:L30" ca="1" si="9">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1">AVERAGE(B30:M30)</f>
+        <v>18.90909090909091</v>
+      </c>
       <c r="P30" t="s">
         <v>111</v>
       </c>
@@ -22340,6 +22823,14 @@
       </c>
       <c r="Q37" s="6">
         <v>38783</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>38520</v>
       </c>
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.3">
@@ -22377,8 +22868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22390,7 +22881,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.421487603305785</v>
+        <v>20.401515151515152</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23411,7 +23902,7 @@
         <v>38141</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -23467,7 +23958,7 @@
         <v>38563</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>193</v>
       </c>
@@ -23475,7 +23966,43 @@
         <v>39028</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
       <c r="P35" t="s">
         <v>194</v>
       </c>
@@ -23483,7 +24010,55 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f ca="1">DATEDIF(VLOOKUP(B35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" ca="1" si="12">DATEDIF(VLOOKUP(C35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1">AVERAGE(B36:L36)</f>
+        <v>20.181818181818183</v>
+      </c>
       <c r="P36" t="s">
         <v>198</v>
       </c>
@@ -23491,7 +24066,7 @@
         <v>38587</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>197</v>
       </c>
@@ -23499,7 +24074,7 @@
         <v>39590</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>221</v>
       </c>
@@ -23507,7 +24082,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
         <v>20</v>
       </c>
@@ -23515,7 +24090,7 @@
         <v>38362</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>239</v>
       </c>
@@ -23523,7 +24098,7 @@
         <v>38650</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P41" t="s">
         <v>240</v>
       </c>
@@ -23544,8 +24119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88D7D6-4932-46BC-9430-8F20DDAB89DF}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23558,7 +24133,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.494949494949495</v>
+        <v>19.509090909090908</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23778,7 +24353,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <f ca="1">DATEDIF(VLOOKUP(B8,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:L9" ca="1" si="2">DATEDIF(VLOOKUP(C8,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -23822,7 +24397,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -23866,7 +24441,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <f ca="1">DATEDIF(VLOOKUP(B11,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:L12" ca="1" si="3">DATEDIF(VLOOKUP(C11,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -23910,7 +24485,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.636363636363637</v>
+        <v>19.727272727272727</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -24258,7 +24833,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:L24" ca="1" si="7">DATEDIF(VLOOKUP(C23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -24302,7 +24877,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
@@ -24366,7 +24941,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:L27" ca="1" si="8">DATEDIF(VLOOKUP(C26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -24410,7 +24985,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="P27" t="s">
         <v>54</v>
@@ -24428,6 +25003,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>233</v>
+      </c>
+      <c r="I29" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
       <c r="P29" t="s">
         <v>114</v>
       </c>
@@ -24436,6 +25047,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:L30" ca="1" si="9">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1">AVERAGE(B30:M30)</f>
+        <v>19.272727272727273</v>
+      </c>
       <c r="P30" t="s">
         <v>162</v>
       </c>
@@ -24489,6 +25148,14 @@
       </c>
       <c r="Q36" s="6">
         <v>38377</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>38949</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">
@@ -24522,7 +25189,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24534,7 +25201,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.767676767676765</v>
+        <v>18.781818181818178</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -25413,6 +26080,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s">
+        <v>61</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="P29" t="s">
         <v>115</v>
@@ -25422,7 +26125,54 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N30" s="1"/>
+      <c r="B30">
+        <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:L30" ca="1" si="9">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="N30" s="1">
+        <f ca="1">AVERAGE(B30:M30)</f>
+        <v>18.90909090909091</v>
+      </c>
       <c r="P30" t="s">
         <v>116</v>
       </c>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5421" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335F6D26-C12E-4FDC-84EC-3C5EF3FE8DF9}"/>
+  <xr:revisionPtr revIDLastSave="5511" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7088F1-5D2E-43BC-8EC1-6106B270E253}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="252">
   <si>
     <t>Scholl</t>
   </si>
@@ -809,6 +809,24 @@
   <si>
     <t>Diallo</t>
   </si>
+  <si>
+    <t>Kiesl</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>Toifl</t>
+  </si>
+  <si>
+    <t>Höller</t>
+  </si>
+  <si>
+    <t>Saalfelden</t>
+  </si>
+  <si>
+    <t>Schandl</t>
+  </si>
 </sst>
 </file>
 
@@ -1065,6 +1083,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,6 +1675,9 @@
                 <c:pt idx="11">
                   <c:v>19.272727272727273</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.727272727272727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1936,6 +1960,9 @@
                 <c:pt idx="9">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.545454545454547</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2216,12 +2243,15 @@
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>20.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
@@ -2516,6 +2546,9 @@
                 <c:pt idx="27">
                   <c:v>19.272727272727273</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.272727272727273</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2799,6 +2832,9 @@
                 <c:pt idx="27" formatCode="0.00">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3078,6 +3114,9 @@
                   <c:v>21.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
@@ -3379,6 +3418,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,6 +3725,9 @@
                 <c:pt idx="27" formatCode="0.00">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3984,6 +4029,9 @@
                   <c:v>21.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
@@ -4621,6 +4669,9 @@
                 <c:pt idx="9">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.545454545454547</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4921,12 +4972,15 @@
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>20.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
@@ -5240,6 +5294,9 @@
                   <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>19.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
@@ -15449,7 +15506,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.781818181818178</v>
+        <v>18.785123966942145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15458,7 +15515,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.93181818181818</v>
+        <v>18.916083916083913</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15467,7 +15524,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.439393939393941</v>
+        <v>19.37762237762238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15476,7 +15533,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.509090909090908</v>
+        <v>19.487603305785125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15494,7 +15551,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.036363636363639</v>
+        <v>20.082644628099175</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15503,7 +15560,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>20.3</v>
+        <v>20.314049586776857</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15512,7 +15569,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.401515151515152</v>
+        <v>20.377622377622377</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15539,10 +15596,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DFA24-3406-41A0-A4BC-C12C2626EFAE}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15554,7 +15611,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.3</v>
+        <v>20.314049586776857</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -16002,7 +16059,7 @@
         <v>19.818181818181817</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -16041,7 +16098,7 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -16096,8 +16153,11 @@
       <c r="Q18" s="6">
         <v>38998</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>18</v>
       </c>
@@ -16105,7 +16165,7 @@
         <v>37425</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -16150,7 +16210,7 @@
         <v>36322</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -16206,7 +16266,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>66</v>
       </c>
@@ -16214,7 +16274,7 @@
         <v>38602</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -16259,7 +16319,7 @@
         <v>38873</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -16315,7 +16375,7 @@
         <v>39824</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>65</v>
       </c>
@@ -16323,7 +16383,7 @@
         <v>38030</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -16368,7 +16428,7 @@
         <v>38948</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -16424,7 +16484,7 @@
         <v>39252</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>69</v>
       </c>
@@ -16432,7 +16492,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -16477,7 +16537,7 @@
         <v>39243</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -16533,7 +16593,7 @@
         <v>36567</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>117</v>
       </c>
@@ -16541,7 +16601,43 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" t="s">
+        <v>202</v>
+      </c>
+      <c r="L32" t="s">
+        <v>102</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="P32" t="s">
         <v>148</v>
@@ -16550,8 +16646,55 @@
         <v>39050</v>
       </c>
     </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N33" s="1"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" ca="1" si="10">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1">AVERAGE(B33:M33)</f>
+        <v>20.454545454545453</v>
+      </c>
       <c r="P33" t="s">
         <v>149</v>
       </c>
@@ -16559,7 +16702,7 @@
         <v>38469</v>
       </c>
     </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>174</v>
       </c>
@@ -16567,7 +16710,7 @@
         <v>38419</v>
       </c>
     </row>
-    <row r="35" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N35" s="1"/>
       <c r="P35" t="s">
         <v>183</v>
@@ -16576,7 +16719,7 @@
         <v>38919</v>
       </c>
     </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
       <c r="P36" t="s">
         <v>184</v>
@@ -16585,7 +16728,7 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>185</v>
       </c>
@@ -16593,7 +16736,7 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
       <c r="P38" t="s">
         <v>186</v>
@@ -16602,7 +16745,7 @@
         <v>36322</v>
       </c>
     </row>
-    <row r="39" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
         <v>201</v>
@@ -16611,7 +16754,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="40" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>202</v>
       </c>
@@ -16619,7 +16762,7 @@
         <v>36576</v>
       </c>
     </row>
-    <row r="41" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
       <c r="P41" t="s">
         <v>226</v>
@@ -16628,19 +16771,19 @@
         <v>39206</v>
       </c>
     </row>
-    <row r="42" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="44" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="47" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.3">
@@ -16714,7 +16857,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16844,7 +16987,7 @@
       </c>
       <c r="N2" s="8" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="O2" s="8" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -16992,7 +17135,7 @@
       </c>
       <c r="N4" s="5" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="O4" s="5" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17058,7 +17201,7 @@
       </c>
       <c r="L5" s="5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="M5" s="5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17128,19 +17271,19 @@
       </c>
       <c r="K6" s="5" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="L6" s="5" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.545454545454547</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="M6" s="5" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.181818181818183</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="N6" s="5" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="O6" s="5" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -17206,7 +17349,7 @@
       </c>
       <c r="L7" s="5" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="M7" s="5" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17280,7 +17423,7 @@
       </c>
       <c r="L8" s="5" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="M8" s="5" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -17354,7 +17497,7 @@
       </c>
       <c r="L9" s="5" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="M9" s="5" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -17997,10 +18140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECAD747-1599-4E91-8390-8EFBB40A7E91}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18014,7 +18157,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.439393939393941</v>
+        <v>19.37762237762238</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18463,7 +18606,7 @@
         <v>20.727272727272727</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -18501,7 +18644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -18556,8 +18699,11 @@
       <c r="Q18" s="6">
         <v>36024</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>75</v>
       </c>
@@ -18565,7 +18711,7 @@
         <v>39233</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -18609,7 +18755,7 @@
         <v>39158</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>17</v>
@@ -18665,7 +18811,7 @@
         <v>38504</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>77</v>
       </c>
@@ -18673,7 +18819,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -18717,7 +18863,7 @@
         <v>38883</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>27</v>
@@ -18773,7 +18919,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>83</v>
       </c>
@@ -18781,7 +18927,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -18825,7 +18971,7 @@
         <v>39372</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>17</v>
@@ -18881,7 +19027,7 @@
         <v>38668</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>2</v>
       </c>
@@ -18889,7 +19035,7 @@
         <v>38453</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -18933,7 +19079,7 @@
         <v>39664</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>27</v>
@@ -18989,7 +19135,7 @@
         <v>39653</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>109</v>
       </c>
@@ -18997,7 +19143,7 @@
         <v>39418</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -19214,6 +19360,42 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K38" t="s">
+        <v>84</v>
+      </c>
+      <c r="L38" t="s">
+        <v>219</v>
+      </c>
       <c r="P38" t="s">
         <v>196</v>
       </c>
@@ -19222,12 +19404,75 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N39" s="1"/>
+      <c r="B39">
+        <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1">AVERAGE(B39:M39)</f>
+        <v>18.636363636363637</v>
+      </c>
       <c r="P39" t="s">
         <v>219</v>
       </c>
       <c r="Q39" s="6">
         <v>38932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>39958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P41" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>39424</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -19278,10 +19523,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE832A2-00C7-4FEB-881B-6BCBCF658A7A}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19739,7 +19984,7 @@
         <v>19.818181818181817</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -19777,7 +20022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -19827,15 +20072,18 @@
         <v>19.90909090909091</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>86</v>
       </c>
       <c r="Q19" s="6">
         <v>38475</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -19879,7 +20127,7 @@
         <v>38417</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -19935,7 +20183,7 @@
         <v>38682</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>36</v>
       </c>
@@ -19943,7 +20191,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -19987,7 +20235,7 @@
         <v>38727</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -20043,7 +20291,7 @@
         <v>37276</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>8</v>
       </c>
@@ -20051,7 +20299,7 @@
         <v>38694</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>230</v>
       </c>
@@ -20095,7 +20343,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -20151,7 +20399,7 @@
         <v>38475</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>88</v>
       </c>
@@ -20159,7 +20407,7 @@
         <v>38916</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -20203,7 +20451,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -20259,7 +20507,7 @@
         <v>38335</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>104</v>
       </c>
@@ -20267,7 +20515,7 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -20502,10 +20750,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE484A-7472-48CF-8DEF-9C09E1FFDA18}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20518,7 +20766,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.93181818181818</v>
+        <v>18.916083916083913</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20961,7 +21209,7 @@
         <v>18.90909090909091</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -20999,7 +21247,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -21054,8 +21302,11 @@
       <c r="Q18" s="6">
         <v>38815</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>89</v>
       </c>
@@ -21063,7 +21314,7 @@
         <v>39135</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -21107,7 +21358,7 @@
         <v>39895</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -21163,7 +21414,7 @@
         <v>38965</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>20</v>
       </c>
@@ -21171,7 +21422,7 @@
         <v>39123</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -21215,7 +21466,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -21271,7 +21522,7 @@
         <v>39460</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>39</v>
       </c>
@@ -21279,7 +21530,7 @@
         <v>37739</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>227</v>
       </c>
@@ -21323,7 +21574,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -21379,7 +21630,7 @@
         <v>38020</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>21</v>
       </c>
@@ -21387,7 +21638,7 @@
         <v>38566</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -21431,7 +21682,7 @@
         <v>38152</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -21487,7 +21738,7 @@
         <v>38392</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>122</v>
       </c>
@@ -21495,7 +21746,7 @@
         <v>37447</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>241</v>
       </c>
@@ -21712,6 +21963,42 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" t="s">
+        <v>159</v>
+      </c>
       <c r="P38" t="s">
         <v>210</v>
       </c>
@@ -21720,6 +22007,54 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1">AVERAGE(B39:M39)</f>
+        <v>18.727272727272727</v>
+      </c>
       <c r="P39" t="s">
         <v>212</v>
       </c>
@@ -21768,10 +22103,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628DC590-5B70-45B7-BCD6-8ED432E7A1AF}">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21779,7 +22114,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.036363636363639</v>
+        <v>20.082644628099175</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22236,7 +22571,7 @@
         <v>20.545454545454547</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -22275,7 +22610,7 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -22330,8 +22665,11 @@
       <c r="Q18" s="6">
         <v>38482</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>26</v>
       </c>
@@ -22339,7 +22677,7 @@
         <v>38627</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -22384,7 +22722,7 @@
         <v>38620</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -22440,7 +22778,7 @@
         <v>39510</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>26</v>
       </c>
@@ -22448,7 +22786,7 @@
         <v>38627</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -22493,7 +22831,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -22549,7 +22887,7 @@
         <v>39430</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>23</v>
       </c>
@@ -22557,7 +22895,7 @@
         <v>38906</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -22602,7 +22940,7 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -22658,7 +22996,7 @@
         <v>38728</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>25</v>
       </c>
@@ -22666,7 +23004,7 @@
         <v>32643</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -22711,7 +23049,7 @@
         <v>39197</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -22767,7 +23105,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>59</v>
       </c>
@@ -22775,7 +23113,44 @@
         <v>38851</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>155</v>
+      </c>
+      <c r="N32" s="1"/>
       <c r="P32" t="s">
         <v>155</v>
       </c>
@@ -22783,8 +23158,55 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N33" s="1"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" ca="1" si="10">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1">AVERAGE(B33:M33)</f>
+        <v>20.545454545454547</v>
+      </c>
       <c r="P33" t="s">
         <v>179</v>
       </c>
@@ -22792,7 +23214,7 @@
         <v>38324</v>
       </c>
     </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>180</v>
       </c>
@@ -22800,7 +23222,7 @@
         <v>38653</v>
       </c>
     </row>
-    <row r="35" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
         <v>220</v>
       </c>
@@ -22808,7 +23230,7 @@
         <v>37284</v>
       </c>
     </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
       <c r="P36" t="s">
         <v>228</v>
@@ -22817,7 +23239,7 @@
         <v>39501</v>
       </c>
     </row>
-    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>231</v>
       </c>
@@ -22825,7 +23247,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>242</v>
       </c>
@@ -22833,16 +23255,30 @@
         <v>38520</v>
       </c>
     </row>
-    <row r="39" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
-    </row>
-    <row r="42" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P39" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>38493</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>39427</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="48" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="51" spans="14:14" x14ac:dyDescent="0.3">
@@ -22866,10 +23302,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22881,7 +23317,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.401515151515152</v>
+        <v>20.377622377622377</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23324,7 +23760,7 @@
         <v>20.545454545454547</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -23362,7 +23798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -23417,8 +23853,11 @@
       <c r="Q18" s="6">
         <v>37152</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>17</v>
       </c>
@@ -23426,7 +23865,7 @@
         <v>38876</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -23470,7 +23909,7 @@
         <v>38589</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>17</v>
@@ -23526,7 +23965,7 @@
         <v>36971</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>12</v>
       </c>
@@ -23534,7 +23973,7 @@
         <v>36971</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -23578,7 +24017,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -23634,7 +24073,7 @@
         <v>38807</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>28</v>
       </c>
@@ -23642,7 +24081,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>223</v>
       </c>
@@ -23686,7 +24125,7 @@
         <v>37974</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -23742,7 +24181,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>97</v>
       </c>
@@ -23750,7 +24189,7 @@
         <v>39101</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -23794,14 +24233,14 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:L30" ca="1" si="10">DATEDIF(VLOOKUP(C29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="10"/>
@@ -23841,7 +24280,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:L30)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="P30" t="s">
         <v>171</v>
@@ -23850,7 +24289,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>13</v>
       </c>
@@ -23858,7 +24297,7 @@
         <v>38595</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -23866,7 +24305,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -23909,7 +24348,7 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:L33" ca="1" si="11">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="11"/>
@@ -23949,7 +24388,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:L33)</f>
-        <v>20.545454545454547</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="P33" t="s">
         <v>177</v>
@@ -23989,7 +24428,7 @@
         <v>239</v>
       </c>
       <c r="H35" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="I35" t="s">
         <v>29</v>
@@ -23998,7 +24437,7 @@
         <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -24033,11 +24472,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="12"/>
@@ -24057,7 +24496,7 @@
       </c>
       <c r="N36" s="1">
         <f ca="1">AVERAGE(B36:L36)</f>
-        <v>20.181818181818183</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="P36" t="s">
         <v>198</v>
@@ -24075,6 +24514,42 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
       <c r="P38" t="s">
         <v>221</v>
       </c>
@@ -24083,6 +24558,54 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" ca="1" si="13">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1">AVERAGE(B39:L39)</f>
+        <v>20.181818181818183</v>
+      </c>
       <c r="P39" t="s">
         <v>20</v>
       </c>
@@ -24104,6 +24627,14 @@
       </c>
       <c r="Q41" s="6">
         <v>38829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P42" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>39108</v>
       </c>
     </row>
   </sheetData>
@@ -24117,10 +24648,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88D7D6-4932-46BC-9430-8F20DDAB89DF}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24133,7 +24664,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.509090909090908</v>
+        <v>19.487603305785125</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -24576,7 +25107,7 @@
         <v>19.636363636363637</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -24614,7 +25145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -24669,8 +25200,11 @@
       <c r="Q18" s="6">
         <v>38672</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>52</v>
       </c>
@@ -24678,7 +25212,7 @@
         <v>38832</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -24722,7 +25256,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -24778,7 +25312,7 @@
         <v>39211</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>42</v>
       </c>
@@ -24786,7 +25320,7 @@
         <v>39328</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -24830,7 +25364,7 @@
         <v>36935</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>21</v>
@@ -24886,7 +25420,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>56</v>
       </c>
@@ -24894,7 +25428,7 @@
         <v>38815</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -24938,7 +25472,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>21</v>
@@ -24994,7 +25528,7 @@
         <v>39334</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>27</v>
       </c>
@@ -25002,7 +25536,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -25046,7 +25580,7 @@
         <v>36691</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>21</v>
@@ -25102,7 +25636,7 @@
         <v>38273</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>163</v>
       </c>
@@ -25110,7 +25644,43 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>233</v>
+      </c>
+      <c r="I32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
       <c r="P32" t="s">
         <v>173</v>
       </c>
@@ -25118,7 +25688,55 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" ca="1" si="10">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1">AVERAGE(B33:M33)</f>
+        <v>19.272727272727273</v>
+      </c>
       <c r="P33" t="s">
         <v>181</v>
       </c>
@@ -25126,7 +25744,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>203</v>
       </c>
@@ -25134,7 +25752,7 @@
         <v>39235</v>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
         <v>218</v>
       </c>
@@ -25142,7 +25760,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
         <v>233</v>
       </c>
@@ -25150,7 +25768,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>244</v>
       </c>
@@ -25186,22 +25804,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A6E26-4348-4BD7-A4C3-5653B1514462}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.781818181818178</v>
+        <v>18.785123966942145</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -25649,7 +26268,7 @@
         <v>18.727272727272727</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -25688,7 +26307,7 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>18</v>
@@ -25743,8 +26362,11 @@
       <c r="Q18" s="6">
         <v>39078</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>63</v>
       </c>
@@ -25752,7 +26374,7 @@
         <v>38409</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -25797,7 +26419,7 @@
         <v>39501</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -25853,7 +26475,7 @@
         <v>38778</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>58</v>
       </c>
@@ -25861,7 +26483,7 @@
         <v>38775</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>224</v>
       </c>
@@ -25906,7 +26528,7 @@
         <v>38724</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24">
         <f ca="1">DATEDIF(VLOOKUP(B23,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>18</v>
@@ -25962,7 +26584,7 @@
         <v>38762</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P25" t="s">
         <v>72</v>
       </c>
@@ -25970,7 +26592,7 @@
         <v>39463</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -26015,7 +26637,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27">
         <f ca="1">DATEDIF(VLOOKUP(B26,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>18</v>
@@ -26071,7 +26693,7 @@
         <v>38722</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>59</v>
       </c>
@@ -26079,7 +26701,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -26124,7 +26746,7 @@
         <v>38373</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <f ca="1">DATEDIF(VLOOKUP(B29,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>18</v>
@@ -26180,7 +26802,7 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>147</v>
       </c>
@@ -26188,7 +26810,43 @@
         <v>39109</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" t="s">
+        <v>62</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="P32" t="s">
         <v>225</v>
@@ -26197,8 +26855,55 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N33" s="1"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" ca="1" si="10">DATEDIF(VLOOKUP(C32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="N33" s="1">
+        <f ca="1">AVERAGE(B33:M33)</f>
+        <v>18.818181818181817</v>
+      </c>
       <c r="P33" t="s">
         <v>206</v>
       </c>
@@ -26206,7 +26911,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>207</v>
       </c>
@@ -26214,7 +26919,7 @@
         <v>38666</v>
       </c>
     </row>
-    <row r="35" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N35" s="1"/>
       <c r="P35" t="s">
         <v>205</v>
@@ -26223,7 +26928,7 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
       <c r="P36" t="s">
         <v>213</v>
@@ -26232,7 +26937,7 @@
         <v>38977</v>
       </c>
     </row>
-    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>217</v>
       </c>
@@ -26240,7 +26945,7 @@
         <v>38815</v>
       </c>
     </row>
-    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
       <c r="P38" t="s">
         <v>216</v>
@@ -26249,7 +26954,7 @@
         <v>38151</v>
       </c>
     </row>
-    <row r="39" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
         <v>214</v>
@@ -26258,7 +26963,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="40" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>215</v>
       </c>
@@ -26266,22 +26971,28 @@
         <v>39179</v>
       </c>
     </row>
-    <row r="41" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="P41" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>38994</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="44" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="47" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.3">

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5511" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7088F1-5D2E-43BC-8EC1-6106B270E253}"/>
+  <xr:revisionPtr revIDLastSave="5528" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29AA18CA-BE54-4345-A08C-F5A4CA4643F9}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="254">
   <si>
     <t>Scholl</t>
   </si>
@@ -827,6 +827,12 @@
   <si>
     <t>Schandl</t>
   </si>
+  <si>
+    <t>Schillinger</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
 </sst>
 </file>
 
@@ -1385,6 +1391,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,6 +4352,9 @@
                 <c:pt idx="11">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15542,7 +15554,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.893939393939394</v>
+        <v>19.88111888111888</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -17061,7 +17073,7 @@
       </c>
       <c r="N3" s="8" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="O3" s="8" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -19523,10 +19535,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE832A2-00C7-4FEB-881B-6BCBCF658A7A}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19541,7 +19553,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.893939393939394</v>
+        <v>19.88111888111888</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20080,7 +20092,7 @@
         <v>38475</v>
       </c>
       <c r="T19">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -20732,11 +20744,111 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
       <c r="P38" t="s">
         <v>245</v>
       </c>
       <c r="Q38" s="6">
         <v>38410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1">AVERAGE(B39:M39)</f>
+        <v>19.727272727272727</v>
+      </c>
+      <c r="P39" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>39226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>38395</v>
       </c>
     </row>
   </sheetData>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5528" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29AA18CA-BE54-4345-A08C-F5A4CA4643F9}"/>
+  <xr:revisionPtr revIDLastSave="5606" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C1E746-D8CE-4DAF-8FC7-049B075AD243}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="259">
   <si>
     <t>Scholl</t>
   </si>
@@ -833,6 +833,21 @@
   <si>
     <t>Mohammad</t>
   </si>
+  <si>
+    <t>Kone</t>
+  </si>
+  <si>
+    <t>Zuo</t>
+  </si>
+  <si>
+    <t>Khudyakov</t>
+  </si>
+  <si>
+    <t>Wals-Grünau</t>
+  </si>
+  <si>
+    <t>Zorlu</t>
+  </si>
 </sst>
 </file>
 
@@ -1092,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>18.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,31 +1378,31 @@
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.09090909090909</c:v>
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.09090909090909</c:v>
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
@@ -1393,6 +1411,9 @@
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>19.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
@@ -1687,6 +1708,9 @@
                 <c:pt idx="12">
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.272727272727273</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1952,10 +1976,10 @@
                   <c:v>20.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.454545454545453</c:v>
@@ -1964,13 +1988,16 @@
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,6 +2289,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,6 +2588,9 @@
                 <c:pt idx="30">
                   <c:v>19.272727272727273</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.09090909090909</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2844,6 +2877,9 @@
                 <c:pt idx="30" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3127,6 +3163,12 @@
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00">
                   <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,6 +3472,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>18.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,6 +3782,9 @@
                 <c:pt idx="30" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4043,6 +4091,12 @@
                 <c:pt idx="30" formatCode="0.00">
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>20.727272727272727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4320,31 +4374,31 @@
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.09090909090909</c:v>
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.09090909090909</c:v>
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
@@ -4353,6 +4407,9 @@
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>19.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
@@ -4664,10 +4721,10 @@
                   <c:v>20.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.454545454545453</c:v>
@@ -4676,13 +4733,16 @@
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.545454545454547</c:v>
+                  <c:v>20.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,6 +5054,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5310,6 +5373,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>19.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15518,7 +15584,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.785123966942145</v>
+        <v>18.803030303030301</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15527,7 +15593,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.916083916083913</v>
+        <v>18.870129870129865</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15536,7 +15602,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.37762237762238</v>
+        <v>19.389610389610393</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15545,7 +15611,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.487603305785125</v>
+        <v>19.454545454545457</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15554,7 +15620,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.88111888111888</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15563,7 +15629,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.082644628099175</v>
+        <v>20.15909090909091</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15572,7 +15638,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>20.314049586776857</v>
+        <v>20.356643356643357</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15581,7 +15647,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.377622377622377</v>
+        <v>20.376623376623375</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15611,7 +15677,7 @@
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15623,7 +15689,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.314049586776857</v>
+        <v>20.356643356643357</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -16658,7 +16724,7 @@
         <v>39050</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>19</v>
@@ -16714,7 +16780,7 @@
         <v>38469</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>174</v>
       </c>
@@ -16722,7 +16788,43 @@
         <v>38419</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" t="s">
+        <v>202</v>
+      </c>
+      <c r="L35" t="s">
+        <v>102</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="P35" t="s">
         <v>183</v>
@@ -16731,8 +16833,55 @@
         <v>38919</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N36" s="1"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f ca="1">DATEDIF(VLOOKUP(B35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" ca="1" si="11">DATEDIF(VLOOKUP(C35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1">AVERAGE(B36:M36)</f>
+        <v>20.454545454545453</v>
+      </c>
       <c r="P36" t="s">
         <v>184</v>
       </c>
@@ -16740,7 +16889,7 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>185</v>
       </c>
@@ -16748,7 +16897,43 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L38" t="s">
+        <v>102</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="P38" t="s">
         <v>186</v>
@@ -16757,8 +16942,55 @@
         <v>36322</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N39" s="1"/>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1">AVERAGE(B39:M39)</f>
+        <v>20.727272727272727</v>
+      </c>
       <c r="P39" t="s">
         <v>201</v>
       </c>
@@ -16766,7 +16998,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>202</v>
       </c>
@@ -16774,7 +17006,7 @@
         <v>36576</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
       <c r="P41" t="s">
         <v>226</v>
@@ -16783,19 +17015,25 @@
         <v>39206</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P42" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>37995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.3">
@@ -16869,7 +17107,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17003,7 +17241,7 @@
       </c>
       <c r="O2" s="8" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="P2" s="8" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17029,7 +17267,7 @@
       </c>
       <c r="C3" s="8" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="D3" s="8" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -17037,11 +17275,11 @@
       </c>
       <c r="E3" s="8" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="F3" s="8" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="G3" s="8" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -17049,7 +17287,7 @@
       </c>
       <c r="H3" s="8" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="I3" s="8" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -17057,11 +17295,11 @@
       </c>
       <c r="J3" s="8" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="K3" s="8" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="L3" s="8" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -17077,7 +17315,7 @@
       </c>
       <c r="O3" s="8" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="P3" s="8" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -17151,7 +17389,7 @@
       </c>
       <c r="O4" s="5" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="P4" s="5" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17189,11 +17427,11 @@
       </c>
       <c r="F5" s="5" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="G5" s="5" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="H5" s="5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17205,7 +17443,7 @@
       </c>
       <c r="J5" s="5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="K5" s="5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17213,11 +17451,11 @@
       </c>
       <c r="L5" s="5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="M5" s="5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="N5" s="5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17299,7 +17537,7 @@
       </c>
       <c r="O6" s="5" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="P6" s="5" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -17365,7 +17603,7 @@
       </c>
       <c r="M7" s="5" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="N7" s="5" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17439,7 +17677,7 @@
       </c>
       <c r="M8" s="5" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N8" s="5" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -17513,11 +17751,11 @@
       </c>
       <c r="M9" s="5" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="N9" s="5" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="O9" s="5" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -18154,8 +18392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECAD747-1599-4E91-8390-8EFBB40A7E91}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18169,7 +18407,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.37762237762238</v>
+        <v>19.389610389610393</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19480,6 +19718,42 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" t="s">
+        <v>166</v>
+      </c>
+      <c r="L41" t="s">
+        <v>219</v>
+      </c>
       <c r="P41" t="s">
         <v>246</v>
       </c>
@@ -19488,7 +19762,54 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N42" s="1"/>
+      <c r="B42">
+        <f ca="1">DATEDIF(VLOOKUP(B41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1">AVERAGE(B42:M42)</f>
+        <v>19.545454545454547</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
@@ -19535,10 +19856,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE832A2-00C7-4FEB-881B-6BCBCF658A7A}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19553,7 +19874,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.88111888111888</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -19701,7 +20022,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
@@ -19729,7 +20050,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -19889,7 +20210,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
@@ -19905,7 +20226,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -19977,7 +20298,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="4"/>
@@ -19993,7 +20314,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -20162,7 +20483,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
@@ -20186,7 +20507,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="P21" t="s">
         <v>34</v>
@@ -20390,7 +20711,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="8"/>
@@ -20402,7 +20723,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
@@ -20498,7 +20819,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="9"/>
@@ -20510,7 +20831,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="P30" t="s">
         <v>105</v>
@@ -20849,6 +21170,100 @@
       </c>
       <c r="Q40" s="6">
         <v>38395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>253</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f ca="1">DATEDIF(VLOOKUP(B41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1">AVERAGE(B42:M42)</f>
+        <v>19.727272727272727</v>
       </c>
     </row>
   </sheetData>
@@ -20862,10 +21277,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE484A-7472-48CF-8DEF-9C09E1FFDA18}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20878,7 +21293,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.916083916083913</v>
+        <v>18.870129870129865</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22183,6 +22598,42 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" t="s">
+        <v>159</v>
+      </c>
       <c r="P41" t="s">
         <v>236</v>
       </c>
@@ -22191,6 +22642,54 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f ca="1">DATEDIF(VLOOKUP(B41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1">AVERAGE(B42:M42)</f>
+        <v>18.272727272727273</v>
+      </c>
       <c r="P42" t="s">
         <v>237</v>
       </c>
@@ -22204,6 +22703,14 @@
       </c>
       <c r="Q43" s="6">
         <v>39339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P44" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>37852</v>
       </c>
     </row>
   </sheetData>
@@ -22218,7 +22725,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22226,7 +22733,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.082644628099175</v>
+        <v>20.15909090909091</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22672,7 +23179,7 @@
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="4"/>
@@ -22680,7 +23187,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -22761,7 +23268,7 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="5"/>
@@ -22769,7 +23276,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="P18" t="s">
         <v>94</v>
@@ -23071,7 +23578,7 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="8"/>
@@ -23099,7 +23606,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>19</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="P27" t="s">
         <v>22</v>
@@ -23270,7 +23777,7 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>20</v>
@@ -23297,7 +23804,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="10"/>
@@ -23317,7 +23824,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:M33)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="P33" t="s">
         <v>179</v>
@@ -23326,7 +23833,7 @@
         <v>38324</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>180</v>
       </c>
@@ -23334,7 +23841,44 @@
         <v>38653</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>248</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" t="s">
+        <v>155</v>
+      </c>
+      <c r="N35" s="1"/>
       <c r="P35" t="s">
         <v>220</v>
       </c>
@@ -23342,8 +23886,55 @@
         <v>37284</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N36" s="1"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f ca="1">DATEDIF(VLOOKUP(B35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" ca="1" si="11">DATEDIF(VLOOKUP(C35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1">AVERAGE(B36:M36)</f>
+        <v>20.636363636363637</v>
+      </c>
       <c r="P36" t="s">
         <v>228</v>
       </c>
@@ -23351,7 +23942,7 @@
         <v>39501</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>231</v>
       </c>
@@ -23359,7 +23950,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>242</v>
       </c>
@@ -23367,7 +23958,7 @@
         <v>38520</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
         <v>248</v>
@@ -23376,7 +23967,7 @@
         <v>38493</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>249</v>
       </c>
@@ -23384,13 +23975,13 @@
         <v>39427</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="51" spans="14:14" x14ac:dyDescent="0.3">
@@ -23414,10 +24005,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23429,7 +24020,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.377622377622377</v>
+        <v>20.376623376623375</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -24734,6 +25325,42 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>239</v>
+      </c>
+      <c r="H41" t="s">
+        <v>251</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>255</v>
+      </c>
+      <c r="K41" t="s">
+        <v>194</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
       <c r="P41" t="s">
         <v>240</v>
       </c>
@@ -24742,11 +25369,67 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f ca="1">DATEDIF(VLOOKUP(B41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" ca="1" si="14">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1">AVERAGE(B42:L42)</f>
+        <v>20.363636363636363</v>
+      </c>
       <c r="P42" t="s">
         <v>251</v>
       </c>
       <c r="Q42" s="6">
         <v>39108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>38417</v>
       </c>
     </row>
   </sheetData>
@@ -24763,7 +25446,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24776,7 +25459,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.487603305785125</v>
+        <v>19.454545454545457</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -25800,7 +26483,7 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>21</v>
@@ -25856,7 +26539,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>203</v>
       </c>
@@ -25864,7 +26547,43 @@
         <v>39235</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>203</v>
+      </c>
       <c r="P35" t="s">
         <v>218</v>
       </c>
@@ -25872,7 +26591,55 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f ca="1">DATEDIF(VLOOKUP(B35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" ca="1" si="11">DATEDIF(VLOOKUP(C35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1">AVERAGE(B36:M36)</f>
+        <v>19.09090909090909</v>
+      </c>
       <c r="P36" t="s">
         <v>233</v>
       </c>
@@ -25880,7 +26647,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>244</v>
       </c>
@@ -25919,11 +26686,12 @@
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.21875" customWidth="1"/>
@@ -25932,7 +26700,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.785123966942145</v>
+        <v>18.803030303030301</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -26967,7 +27735,7 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <f ca="1">DATEDIF(VLOOKUP(B32,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
         <v>18</v>
@@ -27023,7 +27791,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>207</v>
       </c>
@@ -27031,7 +27799,43 @@
         <v>38666</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>216</v>
+      </c>
+      <c r="H35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" t="s">
+        <v>62</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="P35" t="s">
         <v>205</v>
@@ -27040,8 +27844,55 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N36" s="1"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f ca="1">DATEDIF(VLOOKUP(B35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:L36" ca="1" si="11">DATEDIF(VLOOKUP(C35,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N36" s="1">
+        <f ca="1">AVERAGE(B36:M36)</f>
+        <v>19</v>
+      </c>
       <c r="P36" t="s">
         <v>213</v>
       </c>
@@ -27049,7 +27900,7 @@
         <v>38977</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>217</v>
       </c>
@@ -27057,7 +27908,7 @@
         <v>38815</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
       <c r="P38" t="s">
         <v>216</v>
@@ -27066,7 +27917,7 @@
         <v>38151</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
       <c r="P39" t="s">
         <v>214</v>
@@ -27075,7 +27926,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>215</v>
       </c>
@@ -27083,7 +27934,7 @@
         <v>39179</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
       <c r="P41" t="s">
         <v>247</v>
@@ -27092,19 +27943,19 @@
         <v>38994</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.3">

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5606" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C1E746-D8CE-4DAF-8FC7-049B075AD243}"/>
+  <xr:revisionPtr revIDLastSave="5693" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189BBAE2-3D7D-4855-84A2-71C81F75D812}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" activeTab="1" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="268">
   <si>
     <t>Scholl</t>
   </si>
@@ -848,6 +848,33 @@
   <si>
     <t>Zorlu</t>
   </si>
+  <si>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Danylenko</t>
+  </si>
+  <si>
+    <t>Pesu</t>
+  </si>
+  <si>
+    <t>Stosic</t>
+  </si>
+  <si>
+    <t>Kitzbühel</t>
+  </si>
+  <si>
+    <t>Pazourek</t>
+  </si>
+  <si>
+    <t>Pursall</t>
+  </si>
+  <si>
+    <t>Rabok</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
 </sst>
 </file>
 
@@ -1076,7 +1103,7 @@
                   <c:v>18.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>21.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.818181818181817</c:v>
@@ -1085,7 +1112,7 @@
                   <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18.545454545454547</c:v>
@@ -1097,19 +1124,22 @@
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.545454545454547</c:v>
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,6 +1446,9 @@
                 <c:pt idx="13">
                   <c:v>19.727272727272727</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1711,6 +1744,9 @@
                 <c:pt idx="13">
                   <c:v>18.272727272727273</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.636363636363637</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1999,6 +2035,9 @@
                 <c:pt idx="11">
                   <c:v>20.636363636363637</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.636363636363637</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2042,6 +2081,7 @@
         <c:axId val="1994872432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="22"/>
           <c:min val="18"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2267,7 +2307,7 @@
                   <c:v>20.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20</c:v>
@@ -2292,6 +2332,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>20.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,6 +2634,9 @@
                 <c:pt idx="33">
                   <c:v>19.09090909090909</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2879,6 +2925,9 @@
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,6 +3218,9 @@
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
                   <c:v>20.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>21.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,6 +3527,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>18.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3784,6 +3839,9 @@
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4096,6 +4154,9 @@
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
                   <c:v>20.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>21.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4411,6 +4472,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4744,6 +4808,9 @@
                 <c:pt idx="11">
                   <c:v>20.636363636363637</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.636363636363637</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4787,6 +4854,7 @@
         <c:axId val="1994872432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="22"/>
           <c:min val="18"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5032,7 +5100,7 @@
                   <c:v>20.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20</c:v>
@@ -5057,6 +5125,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>20.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5376,6 +5447,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>19.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15558,8 +15632,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15584,7 +15658,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.803030303030301</v>
+        <v>18.83216783216783</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15593,7 +15667,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.870129870129865</v>
+        <v>18.921212121212118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15602,7 +15676,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.389610389610393</v>
+        <v>19.357575757575759</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15611,7 +15685,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.454545454545457</v>
+        <v>19.405594405594407</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15620,7 +15694,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.90909090909091</v>
+        <v>19.903030303030302</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15629,25 +15703,25 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.15909090909091</v>
+        <v>20.195804195804197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
-        <f ca="1">Sturm!N1</f>
-        <v>20.356643356643357</v>
+        <f ca="1">WAC!N1</f>
+        <v>20.387878787878783</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5">
-        <f ca="1">WAC!N1</f>
-        <v>20.376623376623375</v>
+        <f ca="1">Sturm!N1</f>
+        <v>20.422077922077921</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15676,8 +15750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DFA24-3406-41A0-A4BC-C12C2626EFAE}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15689,7 +15763,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.356643356643357</v>
+        <v>20.422077922077921</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -17007,6 +17081,42 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41" t="s">
+        <v>118</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" t="s">
+        <v>202</v>
+      </c>
+      <c r="L41" t="s">
+        <v>102</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="P41" t="s">
         <v>226</v>
@@ -17016,12 +17126,67 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N42" s="1"/>
+      <c r="B42">
+        <f ca="1">DATEDIF(VLOOKUP(B41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1">AVERAGE(B42:M42)</f>
+        <v>21.272727272727273</v>
+      </c>
       <c r="P42" t="s">
         <v>256</v>
       </c>
       <c r="Q42" s="6">
         <v>37995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>36554</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -17106,7 +17271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980021B-B36B-4907-BAF3-C28A440CD06D}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -17197,7 +17362,7 @@
       </c>
       <c r="D2" s="8" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>21</v>
+        <v>21.09090909090909</v>
       </c>
       <c r="E2" s="8" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17209,7 +17374,7 @@
       </c>
       <c r="G2" s="8" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.818181818181817</v>
+        <v>18.90909090909091</v>
       </c>
       <c r="H2" s="8" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17225,7 +17390,7 @@
       </c>
       <c r="K2" s="8" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="L2" s="8" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17233,7 +17398,7 @@
       </c>
       <c r="M2" s="8" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="N2" s="8" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17245,7 +17410,7 @@
       </c>
       <c r="P2" s="8" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="Q2" s="8" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17319,7 +17484,7 @@
       </c>
       <c r="P3" s="8" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="Q3" s="8" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -17393,7 +17558,7 @@
       </c>
       <c r="P4" s="5" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="Q4" s="5" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17459,7 +17624,7 @@
       </c>
       <c r="N5" s="5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="O5" s="5" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17505,7 +17670,7 @@
       </c>
       <c r="G6" s="5" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="H6" s="5" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -17541,7 +17706,7 @@
       </c>
       <c r="P6" s="5" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="Q6" s="5" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -17607,7 +17772,7 @@
       </c>
       <c r="N7" s="5" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="O7" s="5" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17681,7 +17846,7 @@
       </c>
       <c r="N8" s="5" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.181818181818183</v>
       </c>
       <c r="O8" s="5" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -17759,7 +17924,7 @@
       </c>
       <c r="O9" s="5" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="P9" s="5" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -18392,8 +18557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECAD747-1599-4E91-8390-8EFBB40A7E91}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18407,7 +18572,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.389610389610393</v>
+        <v>19.357575757575759</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18647,7 +18812,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
@@ -18671,7 +18836,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>21</v>
+        <v>21.09090909090909</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -18925,7 +19090,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
@@ -18941,7 +19106,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.818181818181817</v>
+        <v>18.90909090909091</v>
       </c>
       <c r="P18" t="s">
         <v>3</v>
@@ -19364,7 +19529,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="9"/>
@@ -19376,7 +19541,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="P30" t="s">
         <v>107</v>
@@ -19580,7 +19745,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="11"/>
@@ -19592,7 +19757,7 @@
       </c>
       <c r="N36" s="1">
         <f ca="1">AVERAGE(B36:M36)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="P36" t="s">
         <v>191</v>
@@ -19810,9 +19975,108 @@
         <f ca="1">AVERAGE(B42:M42)</f>
         <v>19.545454545454547</v>
       </c>
+      <c r="P42" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>39739</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>39667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" t="s">
+        <v>166</v>
+      </c>
+      <c r="L44" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N45" s="1"/>
+      <c r="B45">
+        <f ca="1">DATEDIF(VLOOKUP(B44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" ca="1" si="14">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1">AVERAGE(B45:M45)</f>
+        <v>18.545454545454547</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
@@ -19856,10 +20120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE832A2-00C7-4FEB-881B-6BCBCF658A7A}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19874,7 +20138,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.90909090909091</v>
+        <v>19.903030303030302</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -21264,6 +21528,100 @@
       <c r="N42" s="1">
         <f ca="1">AVERAGE(B42:M42)</f>
         <v>19.727272727272727</v>
+      </c>
+      <c r="P42" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>38062</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f ca="1">DATEDIF(VLOOKUP(B44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" ca="1" si="14">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1">AVERAGE(B45:M45)</f>
+        <v>19.818181818181817</v>
       </c>
     </row>
   </sheetData>
@@ -21277,10 +21635,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE484A-7472-48CF-8DEF-9C09E1FFDA18}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21293,7 +21651,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.870129870129865</v>
+        <v>18.921212121212118</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22706,11 +23064,97 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" t="s">
+        <v>159</v>
+      </c>
       <c r="P44" t="s">
         <v>258</v>
       </c>
       <c r="Q44" s="6">
         <v>37852</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f ca="1">DATEDIF(VLOOKUP(B44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" ca="1" si="14">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1">AVERAGE(B45:M45)</f>
+        <v>19.636363636363637</v>
       </c>
     </row>
   </sheetData>
@@ -22724,8 +23168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628DC590-5B70-45B7-BCD6-8ED432E7A1AF}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22733,7 +23177,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.15909090909091</v>
+        <v>20.195804195804197</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23951,6 +24395,43 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" t="s">
+        <v>155</v>
+      </c>
+      <c r="N38" s="1"/>
       <c r="P38" t="s">
         <v>242</v>
       </c>
@@ -23959,7 +24440,54 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N39" s="1"/>
+      <c r="B39">
+        <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1">AVERAGE(B39:M39)</f>
+        <v>20.636363636363637</v>
+      </c>
       <c r="P39" t="s">
         <v>248</v>
       </c>
@@ -23973,6 +24501,14 @@
       </c>
       <c r="Q40" s="6">
         <v>39427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P41" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>38387</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -24005,10 +24541,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3E1E7-4E05-419E-8824-98C6A5690768}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24020,7 +24556,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.376623376623375</v>
+        <v>20.387878787878783</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -24508,7 +25044,7 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:L18" ca="1" si="6">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="6"/>
@@ -24548,7 +25084,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:L18)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="P18" t="s">
         <v>9</v>
@@ -25430,6 +25966,106 @@
       </c>
       <c r="Q43" s="6">
         <v>38417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H44" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>251</v>
+      </c>
+      <c r="K44" t="s">
+        <v>194</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>38342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f ca="1">DATEDIF(VLOOKUP(B44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" ca="1" si="15">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1">AVERAGE(B45:L45)</f>
+        <v>20.454545454545453</v>
+      </c>
+      <c r="P45" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>37955</v>
       </c>
     </row>
   </sheetData>
@@ -25446,7 +26082,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25459,7 +26095,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.454545454545457</v>
+        <v>19.405594405594407</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -26653,6 +27289,94 @@
       </c>
       <c r="Q37" s="6">
         <v>38949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1">AVERAGE(B39:M39)</f>
+        <v>18.818181818181817</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">
@@ -26685,8 +27409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A6E26-4348-4BD7-A4C3-5653B1514462}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26700,7 +27424,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.803030303030301</v>
+        <v>18.83216783216783</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -27909,6 +28633,42 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" t="s">
+        <v>259</v>
+      </c>
+      <c r="I38" t="s">
+        <v>247</v>
+      </c>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" t="s">
+        <v>62</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="P38" t="s">
         <v>216</v>
@@ -27918,7 +28678,54 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N39" s="1"/>
+      <c r="B39">
+        <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="N39" s="1">
+        <f ca="1">AVERAGE(B39:M39)</f>
+        <v>19.181818181818183</v>
+      </c>
       <c r="P39" t="s">
         <v>214</v>
       </c>
@@ -27945,6 +28752,12 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
+      <c r="P42" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>38581</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5693" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189BBAE2-3D7D-4855-84A2-71C81F75D812}"/>
+  <xr:revisionPtr revIDLastSave="5698" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD320BD-4165-4BE1-B3AC-D8C36063077B}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" activeTab="1" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="269">
   <si>
     <t>Scholl</t>
   </si>
@@ -875,6 +875,9 @@
   <si>
     <t>Raymond</t>
   </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
 </sst>
 </file>
 
@@ -1097,7 +1100,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19.454545454545453</c:v>
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.454545454545453</c:v>
@@ -1112,16 +1115,16 @@
                   <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.90909090909091</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.545454545454547</c:v>
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.545454545454547</c:v>
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.636363636363637</c:v>
@@ -1133,7 +1136,7 @@
                   <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19.545454545454547</c:v>
@@ -1730,7 +1733,7 @@
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.09090909090909</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.545454545454547</c:v>
@@ -1746,6 +1749,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>19.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,40 +2009,40 @@
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>20.181818181818183</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.363636363636363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.636363636363637</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.09090909090909</c:v>
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,43 +2605,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>19.181818181818183</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.90909090909091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.636363636363637</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.636363636363637</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.363636363636363</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19.09090909090909</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,7 +2912,7 @@
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
@@ -3514,7 +3520,7 @@
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.09090909090909</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.545454545454547</c:v>
@@ -3530,6 +3536,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>19.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3820,7 +3829,7 @@
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
@@ -4776,40 +4785,40 @@
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>20.181818181818183</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.363636363636363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.636363636363637</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.09090909090909</c:v>
+                  <c:v>19.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.636363636363637</c:v>
+                  <c:v>20.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,43 +5422,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>19.181818181818183</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.90909090909091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.636363636363637</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.636363636363637</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.363636363636363</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19.09090909090909</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5702,7 +5711,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19,45</c:v>
+                  <c:v>19,55</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15632,7 +15641,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -15658,7 +15667,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.83216783216783</v>
+        <v>18.839160839160837</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15667,7 +15676,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.921212121212118</v>
+        <v>18.96590909090909</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15676,7 +15685,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.357575757575759</v>
+        <v>19.393939393939391</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15685,7 +15694,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.405594405594407</v>
+        <v>19.531468531468533</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15703,7 +15712,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.195804195804197</v>
+        <v>20.272727272727273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -17271,7 +17280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980021B-B36B-4907-BAF3-C28A440CD06D}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -17354,7 +17363,7 @@
       </c>
       <c r="B2" s="8" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17374,19 +17383,19 @@
       </c>
       <c r="G2" s="8" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.90909090909091</v>
+        <v>19</v>
       </c>
       <c r="H2" s="8" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.545454545454547</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="I2" s="8" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="J2" s="8" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="K2" s="8" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17402,7 +17411,7 @@
       </c>
       <c r="N2" s="8" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="O2" s="8" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17538,7 +17547,7 @@
       </c>
       <c r="K4" s="5" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.09090909090909</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="L4" s="5" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17562,7 +17571,7 @@
       </c>
       <c r="Q4" s="5" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -17580,35 +17589,35 @@
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="D5" s="5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.363636363636363</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="F5" s="5" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="G5" s="5" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="H5" s="5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="I5" s="5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="J5" s="5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.09090909090909</v>
+        <v>19.181818181818183</v>
       </c>
       <c r="K5" s="5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17616,15 +17625,15 @@
       </c>
       <c r="L5" s="5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="M5" s="5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="N5" s="5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="O5" s="5" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17724,55 +17733,55 @@
       </c>
       <c r="B7" s="5" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.181818181818183</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.727272727272727</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="D7" s="5" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.636363636363637</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="G7" s="5" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.636363636363637</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="H7" s="5" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.181818181818183</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="I7" s="5" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="J7" s="5" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="K7" s="5" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="L7" s="5" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="M7" s="5" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.09090909090909</v>
+        <v>19.181818181818183</v>
       </c>
       <c r="N7" s="5" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.818181818181817</v>
+        <v>19</v>
       </c>
       <c r="O7" s="5" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17818,7 +17827,7 @@
       </c>
       <c r="G8" s="5" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="H8" s="5" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -18572,7 +18581,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.357575757575759</v>
+        <v>19.393939393939391</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18652,7 +18661,7 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
@@ -18660,7 +18669,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -19098,7 +19107,7 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="5"/>
@@ -19106,7 +19115,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.90909090909091</v>
+        <v>19</v>
       </c>
       <c r="P18" t="s">
         <v>3</v>
@@ -19209,7 +19218,7 @@
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="6"/>
@@ -19217,7 +19226,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>18.545454545454547</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="P21" t="s">
         <v>1</v>
@@ -19317,7 +19326,7 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
@@ -19325,7 +19334,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="P24" t="s">
         <v>0</v>
@@ -19425,7 +19434,7 @@
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="8"/>
@@ -19433,7 +19442,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="P27" t="s">
         <v>84</v>
@@ -19857,7 +19866,7 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="12"/>
@@ -19865,7 +19874,7 @@
       </c>
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
-        <v>18.636363636363637</v>
+        <v>18.727272727272727</v>
       </c>
       <c r="P39" t="s">
         <v>219</v>
@@ -21635,10 +21644,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE484A-7472-48CF-8DEF-9C09E1FFDA18}">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21651,7 +21660,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.921212121212118</v>
+        <v>18.96590909090909</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22594,7 +22603,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="9"/>
@@ -22614,7 +22623,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>18.09090909090909</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="P30" t="s">
         <v>121</v>
@@ -23155,6 +23164,94 @@
       <c r="N45" s="1">
         <f ca="1">AVERAGE(B45:M45)</f>
         <v>19.636363636363637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" t="s">
+        <v>212</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f ca="1">DATEDIF(VLOOKUP(B47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:L48" ca="1" si="15">DATEDIF(VLOOKUP(C47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="N48" s="1">
+        <f ca="1">AVERAGE(B48:M48)</f>
+        <v>19.545454545454547</v>
       </c>
     </row>
   </sheetData>
@@ -23177,7 +23274,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.195804195804197</v>
+        <v>20.272727272727273</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23322,7 +23419,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -23358,7 +23455,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -23414,7 +23511,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
@@ -23450,7 +23547,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -23506,7 +23603,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
@@ -23542,7 +23639,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>20.363636363636363</v>
+        <v>20.454545454545453</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -23595,7 +23692,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
@@ -23631,7 +23728,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -23684,7 +23781,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
@@ -23720,7 +23817,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="P18" t="s">
         <v>94</v>
@@ -23796,7 +23893,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="6"/>
@@ -23832,7 +23929,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="P21" t="s">
         <v>38</v>
@@ -23905,7 +24002,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
@@ -23941,7 +24038,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="P24" t="s">
         <v>32</v>
@@ -24014,7 +24111,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="8"/>
@@ -24050,7 +24147,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>19.09090909090909</v>
+        <v>19.181818181818183</v>
       </c>
       <c r="P27" t="s">
         <v>22</v>
@@ -24240,7 +24337,7 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="10"/>
@@ -24268,7 +24365,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:M33)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="P33" t="s">
         <v>179</v>
@@ -24349,7 +24446,7 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="11"/>
@@ -24377,7 +24474,7 @@
       </c>
       <c r="N36" s="1">
         <f ca="1">AVERAGE(B36:M36)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="P36" t="s">
         <v>228</v>
@@ -24458,7 +24555,7 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="12"/>
@@ -24486,7 +24583,7 @@
       </c>
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
-        <v>20.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="P39" t="s">
         <v>248</v>
@@ -26095,7 +26192,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.405594405594407</v>
+        <v>19.531468531468533</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -26139,7 +26236,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <f ca="1">DATEDIF(VLOOKUP(B2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:L3" ca="1" si="0">DATEDIF(VLOOKUP(C2,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -26163,7 +26260,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
@@ -26183,7 +26280,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.181818181818183</v>
+        <v>19.363636363636363</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -26227,7 +26324,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <f ca="1">DATEDIF(VLOOKUP(B5,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:L6" ca="1" si="1">DATEDIF(VLOOKUP(C5,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -26251,7 +26348,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
@@ -26271,7 +26368,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>19.727272727272727</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -26339,7 +26436,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
@@ -26359,7 +26456,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -26427,7 +26524,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
@@ -26447,7 +26544,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -26491,7 +26588,7 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <f ca="1">DATEDIF(VLOOKUP(B14,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:L15" ca="1" si="4">DATEDIF(VLOOKUP(C14,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -26515,7 +26612,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
@@ -26535,7 +26632,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>19.636363636363637</v>
+        <v>19.818181818181817</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -26579,7 +26676,7 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <f ca="1">DATEDIF(VLOOKUP(B17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -26623,7 +26720,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>19.636363636363637</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="P18" t="s">
         <v>47</v>
@@ -26690,7 +26787,7 @@
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21">
         <f ca="1">DATEDIF(VLOOKUP(B20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:L21" ca="1" si="6">DATEDIF(VLOOKUP(C20,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -26726,7 +26823,7 @@
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="6"/>
@@ -26734,7 +26831,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>19.181818181818183</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="P21" t="s">
         <v>45</v>
@@ -26834,7 +26931,7 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
@@ -26842,7 +26939,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
@@ -26942,7 +27039,7 @@
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="8"/>
@@ -26950,7 +27047,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="P27" t="s">
         <v>54</v>
@@ -27050,7 +27147,7 @@
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="9"/>
@@ -27058,7 +27155,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="P30" t="s">
         <v>162</v>
@@ -27158,7 +27255,7 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="10"/>
@@ -27166,7 +27263,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:M33)</f>
-        <v>19.272727272727273</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="P33" t="s">
         <v>181</v>
@@ -27266,7 +27363,7 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="11"/>
@@ -27274,7 +27371,7 @@
       </c>
       <c r="N36" s="1">
         <f ca="1">AVERAGE(B36:M36)</f>
-        <v>19.09090909090909</v>
+        <v>19.181818181818183</v>
       </c>
       <c r="P36" t="s">
         <v>233</v>
@@ -27332,7 +27429,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39">
         <f ca="1">DATEDIF(VLOOKUP(B38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
@@ -27368,7 +27465,7 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="12"/>
@@ -27376,7 +27473,7 @@
       </c>
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
-        <v>18.818181818181817</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">
@@ -27424,7 +27521,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.83216783216783</v>
+        <v>18.839160839160837</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -27950,7 +28047,7 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="5"/>
@@ -27958,7 +28055,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="P18" t="s">
         <v>99</v>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5698" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD320BD-4165-4BE1-B3AC-D8C36063077B}"/>
+  <xr:revisionPtr revIDLastSave="5747" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3028DF87-5C79-437C-B608-0276223DE8B2}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="274">
   <si>
     <t>Scholl</t>
   </si>
@@ -877,6 +877,21 @@
   </si>
   <si>
     <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>Weixelbraun</t>
+  </si>
+  <si>
+    <t>Erdogan</t>
+  </si>
+  <si>
+    <t>Jankovic</t>
+  </si>
+  <si>
+    <t>Roider</t>
+  </si>
+  <si>
+    <t>Beganovic</t>
   </si>
 </sst>
 </file>
@@ -2044,6 +2059,9 @@
                 <c:pt idx="12">
                   <c:v>20.727272727272727</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2643,6 +2661,9 @@
                 <c:pt idx="36">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.454545454545453</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2934,6 +2955,9 @@
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
                   <c:v>19.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,6 +3251,9 @@
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
                   <c:v>21.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3852,6 +3879,9 @@
                 <c:pt idx="36" formatCode="0.00">
                   <c:v>19.181818181818183</c:v>
                 </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4166,6 +4196,9 @@
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
                   <c:v>21.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4820,6 +4853,9 @@
                 <c:pt idx="12">
                   <c:v>20.727272727272727</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5459,6 +5495,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15667,7 +15706,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.839160839160837</v>
+        <v>18.837662337662334</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15694,7 +15733,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.531468531468533</v>
+        <v>19.525974025974026</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15712,7 +15751,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.272727272727273</v>
+        <v>20.324675324675326</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15730,7 +15769,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>20.422077922077921</v>
+        <v>20.418181818181818</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15759,8 +15798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DFA24-3406-41A0-A4BC-C12C2626EFAE}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15772,7 +15811,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.422077922077921</v>
+        <v>20.418181818181818</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -17199,10 +17238,99 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" t="s">
+        <v>273</v>
+      </c>
+      <c r="I44" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" t="s">
+        <v>149</v>
+      </c>
+      <c r="L44" t="s">
+        <v>102</v>
+      </c>
       <c r="N44" s="1"/>
+      <c r="P44" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>38239</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N45" s="1"/>
+      <c r="B45">
+        <f ca="1">DATEDIF(VLOOKUP(B44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" ca="1" si="14">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1">AVERAGE(B45:M45)</f>
+        <v>20.363636363636363</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>
@@ -17637,7 +17765,7 @@
       </c>
       <c r="O5" s="5" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P5" s="5" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17785,7 +17913,7 @@
       </c>
       <c r="O7" s="5" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="P7" s="5" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17859,7 +17987,7 @@
       </c>
       <c r="O8" s="5" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="P8" s="5" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -17937,7 +18065,7 @@
       </c>
       <c r="P9" s="5" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="Q9" s="5" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -23265,8 +23393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628DC590-5B70-45B7-BCD6-8ED432E7A1AF}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23274,7 +23402,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.272727272727273</v>
+        <v>20.324675324675326</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -24601,6 +24729,43 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>272</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="1"/>
       <c r="P41" t="s">
         <v>264</v>
       </c>
@@ -24609,7 +24774,68 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N42" s="1"/>
+      <c r="B42">
+        <f ca="1">DATEDIF(VLOOKUP(B41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1">AVERAGE(B42:M42)</f>
+        <v>21</v>
+      </c>
+      <c r="P42" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>38599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>38364</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
@@ -26178,8 +26404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88D7D6-4932-46BC-9430-8F20DDAB89DF}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26192,7 +26418,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.531468531468533</v>
+        <v>19.525974025974026</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -27425,6 +27651,12 @@
       <c r="L38" t="s">
         <v>45</v>
       </c>
+      <c r="P38" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>37972</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39">
@@ -27474,6 +27706,94 @@
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
         <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f ca="1">DATEDIF(VLOOKUP(B41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1">AVERAGE(B42:M42)</f>
+        <v>19.454545454545453</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">
@@ -27507,7 +27827,7 @@
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27521,7 +27841,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.839160839160837</v>
+        <v>18.837662337662334</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -28839,6 +29159,42 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" t="s">
+        <v>270</v>
+      </c>
+      <c r="I41" t="s">
+        <v>247</v>
+      </c>
+      <c r="J41" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" t="s">
+        <v>217</v>
+      </c>
+      <c r="L41" t="s">
+        <v>62</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="P41" t="s">
         <v>247</v>
@@ -28848,12 +29204,67 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N42" s="1"/>
+      <c r="B42">
+        <f ca="1">DATEDIF(VLOOKUP(B41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="N42" s="1">
+        <f ca="1">AVERAGE(B42:M42)</f>
+        <v>18.818181818181817</v>
+      </c>
       <c r="P42" t="s">
         <v>259</v>
       </c>
       <c r="Q42" s="6">
         <v>38581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>38932</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5747" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3028DF87-5C79-437C-B608-0276223DE8B2}"/>
+  <xr:revisionPtr revIDLastSave="5786" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{028C7F62-4AF5-4125-900A-4F976B27888B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" activeTab="1" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="275">
   <si>
     <t>Scholl</t>
   </si>
@@ -893,6 +893,9 @@
   <si>
     <t>Beganovic</t>
   </si>
+  <si>
+    <t>Sulzbacher</t>
+  </si>
 </sst>
 </file>
 
@@ -1423,43 +1426,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>19.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.90909090909091</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.181818181818183</c:v>
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.181818181818183</c:v>
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.727272727272727</c:v>
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19.727272727272727</c:v>
@@ -2062,6 +2065,9 @@
                 <c:pt idx="13">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2358,7 +2364,7 @@
                   <c:v>20.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2623,31 +2629,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>19.90909090909091</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
+                <c:pt idx="12">
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.727272727272727</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.454545454545453</c:v>
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.545454545454547</c:v>
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>19.363636363636363</c:v>
@@ -2656,13 +2662,16 @@
                   <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.181818181818183</c:v>
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>19.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,6 +2968,9 @@
                 <c:pt idx="39" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3217,7 +3229,7 @@
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
                   <c:v>20.181818181818183</c:v>
@@ -3226,7 +3238,7 @@
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
                   <c:v>20.90909090909091</c:v>
@@ -3247,13 +3259,16 @@
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
-                  <c:v>21.272727272727273</c:v>
+                  <c:v>21.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00">
-                  <c:v>20.363636363636363</c:v>
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,6 +3897,9 @@
                 <c:pt idx="39" formatCode="0.00">
                   <c:v>18.818181818181817</c:v>
                 </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4162,7 +4180,7 @@
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
                   <c:v>20.181818181818183</c:v>
@@ -4171,7 +4189,7 @@
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
                   <c:v>20.90909090909091</c:v>
@@ -4192,13 +4210,16 @@
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
-                  <c:v>21.272727272727273</c:v>
+                  <c:v>21.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00">
-                  <c:v>20.363636363636363</c:v>
+                  <c:v>20.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>20.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4474,43 +4495,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20.09090909090909</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>19.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.90909090909091</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.90909090909091</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.181818181818183</c:v>
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.181818181818183</c:v>
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>20.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.727272727272727</c:v>
+                  <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19.727272727272727</c:v>
@@ -4856,6 +4877,9 @@
                 <c:pt idx="13">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5172,7 +5196,7 @@
                   <c:v>20.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5458,31 +5482,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>19.90909090909091</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
+                <c:pt idx="12">
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.727272727272727</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.363636363636363</c:v>
+                  <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.454545454545453</c:v>
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.545454545454547</c:v>
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>19.363636363636363</c:v>
@@ -5491,13 +5515,16 @@
                   <c:v>19.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.181818181818183</c:v>
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>19.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15680,7 +15707,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -15706,7 +15733,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.837662337662334</v>
+        <v>18.848484848484848</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15733,7 +15760,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.525974025974026</v>
+        <v>19.56969696969697</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15742,7 +15769,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.903030303030302</v>
+        <v>19.97575757575758</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15751,7 +15778,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.324675324675326</v>
+        <v>20.369696969696971</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15760,7 +15787,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">WAC!N1</f>
-        <v>20.387878787878783</v>
+        <v>20.393939393939391</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15769,7 +15796,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>20.418181818181818</v>
+        <v>20.46022727272727</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15799,7 +15826,7 @@
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15811,7 +15838,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.418181818181818</v>
+        <v>20.46022727272727</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -16050,7 +16077,7 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
@@ -16078,7 +16105,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -16305,7 +16332,7 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
@@ -16345,7 +16372,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="P18" t="s">
         <v>67</v>
@@ -17071,7 +17098,7 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="12"/>
@@ -17111,7 +17138,7 @@
       </c>
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="P39" t="s">
         <v>201</v>
@@ -17180,7 +17207,7 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="13"/>
@@ -17220,7 +17247,7 @@
       </c>
       <c r="N42" s="1">
         <f ca="1">AVERAGE(B42:M42)</f>
-        <v>21.272727272727273</v>
+        <v>21.363636363636363</v>
       </c>
       <c r="P42" t="s">
         <v>256</v>
@@ -17289,7 +17316,7 @@
       </c>
       <c r="C45">
         <f t="shared" ref="C45:L45" ca="1" si="14">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="14"/>
@@ -17329,14 +17356,97 @@
       </c>
       <c r="N45" s="1">
         <f ca="1">AVERAGE(B45:M45)</f>
-        <v>20.363636363636363</v>
+        <v>20.454545454545453</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" t="s">
+        <v>118</v>
+      </c>
+      <c r="J47" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" t="s">
+        <v>226</v>
+      </c>
+      <c r="L47" t="s">
+        <v>102</v>
+      </c>
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N48" s="1"/>
+      <c r="B48">
+        <f ca="1">DATEDIF(VLOOKUP(B47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:L48" ca="1" si="15">DATEDIF(VLOOKUP(C47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="N48" s="1">
+        <f ca="1">AVERAGE(B48:M48)</f>
+        <v>20.636363636363637</v>
+      </c>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N50" s="1"/>
@@ -17408,7 +17518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980021B-B36B-4907-BAF3-C28A440CD06D}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -17565,47 +17675,47 @@
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="C3" s="8" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="D3" s="8" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="E3" s="8" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="F3" s="8" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="G3" s="8" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="H3" s="8" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="I3" s="8" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="J3" s="8" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="K3" s="8" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="L3" s="8" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="M3" s="8" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -17613,7 +17723,7 @@
       </c>
       <c r="N3" s="8" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="O3" s="8" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
@@ -17769,7 +17879,7 @@
       </c>
       <c r="P5" s="5" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="5" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17843,7 +17953,7 @@
       </c>
       <c r="P6" s="5" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="Q6" s="5" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
@@ -17861,39 +17971,39 @@
       </c>
       <c r="B7" s="5" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="G7" s="5" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="H7" s="5" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="I7" s="5" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="J7" s="5" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="K7" s="5" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17905,7 +18015,7 @@
       </c>
       <c r="M7" s="5" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.181818181818183</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="N7" s="5" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17917,7 +18027,7 @@
       </c>
       <c r="P7" s="5" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="Q7" s="5" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -17991,7 +18101,7 @@
       </c>
       <c r="P8" s="5" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="5" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
@@ -18017,7 +18127,7 @@
       </c>
       <c r="D9" s="5" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -18029,7 +18139,7 @@
       </c>
       <c r="G9" s="5" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="H9" s="5" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
@@ -18057,19 +18167,19 @@
       </c>
       <c r="N9" s="5" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="O9" s="5" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>21.272727272727273</v>
+        <v>21.363636363636363</v>
       </c>
       <c r="P9" s="5" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.363636363636363</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="Q9" s="5" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -20275,7 +20385,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.903030303030302</v>
+        <v>19.97575757575758</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20327,7 +20437,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
@@ -20363,7 +20473,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -20415,7 +20525,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -20451,7 +20561,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -20503,7 +20613,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
@@ -20539,7 +20649,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -20591,7 +20701,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
@@ -20627,7 +20737,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20679,7 +20789,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
@@ -20715,7 +20825,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -20767,7 +20877,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
@@ -20803,7 +20913,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -20872,7 +20982,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="6"/>
@@ -20908,7 +21018,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="P21" t="s">
         <v>34</v>
@@ -20980,7 +21090,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
@@ -21016,7 +21126,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="P24" t="s">
         <v>87</v>
@@ -21088,7 +21198,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="8"/>
@@ -21124,7 +21234,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
@@ -21196,7 +21306,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="9"/>
@@ -21232,7 +21342,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="P30" t="s">
         <v>105</v>
@@ -21304,7 +21414,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="10"/>
@@ -21340,7 +21450,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:M33)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="P33" t="s">
         <v>152</v>
@@ -21520,7 +21630,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="12"/>
@@ -21556,7 +21666,7 @@
       </c>
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="P39" t="s">
         <v>252</v>
@@ -23394,7 +23504,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23402,7 +23512,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.324675324675326</v>
+        <v>20.369696969696971</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -24837,8 +24947,94 @@
         <v>38364</v>
       </c>
     </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>272</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>242</v>
+      </c>
+      <c r="L44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="1"/>
+    </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N45" s="1"/>
+      <c r="B45">
+        <f ca="1">DATEDIF(VLOOKUP(B44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" ca="1" si="14">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1">AVERAGE(B45:M45)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
@@ -24879,7 +25075,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.387878787878783</v>
+        <v>20.393939393939391</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -26362,7 +26558,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="15"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="15"/>
@@ -26382,7 +26578,7 @@
       </c>
       <c r="N45" s="1">
         <f ca="1">AVERAGE(B45:L45)</f>
-        <v>20.454545454545453</v>
+        <v>20.545454545454547</v>
       </c>
       <c r="P45" t="s">
         <v>267</v>
@@ -26405,7 +26601,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26418,7 +26614,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.525974025974026</v>
+        <v>19.56969696969697</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -26502,11 +26698,11 @@
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -26590,11 +26786,11 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -26678,11 +26874,11 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -26766,11 +26962,11 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -26854,11 +27050,11 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -26942,11 +27138,11 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="P18" t="s">
         <v>47</v>
@@ -27053,11 +27249,11 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>19.363636363636363</v>
+        <v>19.454545454545453</v>
       </c>
       <c r="P21" t="s">
         <v>45</v>
@@ -27161,11 +27357,11 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
@@ -27269,11 +27465,11 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="P27" t="s">
         <v>54</v>
@@ -27573,7 +27769,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="11"/>
@@ -27597,7 +27793,7 @@
       </c>
       <c r="N36" s="1">
         <f ca="1">AVERAGE(B36:M36)</f>
-        <v>19.181818181818183</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="P36" t="s">
         <v>233</v>
@@ -27794,6 +27990,94 @@
       <c r="N42" s="1">
         <f ca="1">AVERAGE(B42:M42)</f>
         <v>19.454545454545453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J44" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f ca="1">DATEDIF(VLOOKUP(B44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" ca="1" si="14">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1">AVERAGE(B45:M45)</f>
+        <v>19.272727272727273</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">
@@ -27827,7 +28111,7 @@
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27841,7 +28125,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.837662337662334</v>
+        <v>18.848484848484848</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -29268,10 +29552,99 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" t="s">
+        <v>259</v>
+      </c>
+      <c r="I44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" t="s">
+        <v>274</v>
+      </c>
+      <c r="K44" t="s">
+        <v>217</v>
+      </c>
+      <c r="L44" t="s">
+        <v>62</v>
+      </c>
       <c r="N44" s="1"/>
+      <c r="P44" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>38422</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N45" s="1"/>
+      <c r="B45">
+        <f ca="1">DATEDIF(VLOOKUP(B44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" ca="1" si="14">DATEDIF(VLOOKUP(C44,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="N45" s="1">
+        <f ca="1">AVERAGE(B45:M45)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5786" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{028C7F62-4AF5-4125-900A-4F976B27888B}"/>
+  <xr:revisionPtr revIDLastSave="5815" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7833D21-423D-4366-8632-CEE55832D576}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" activeTab="1" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" activeTab="9" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="275">
   <si>
     <t>Scholl</t>
   </si>
@@ -1121,7 +1121,7 @@
                   <c:v>19.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.454545454545453</c:v>
+                  <c:v>18.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21.09090909090909</c:v>
@@ -2024,49 +2024,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>20.09090909090909</c:v>
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.272727272727273</c:v>
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.363636363636363</c:v>
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>20.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>20.636363636363637</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.545454545454547</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.181818181818183</c:v>
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.181818181818183</c:v>
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.90909090909091</c:v>
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2673,6 +2676,9 @@
                 <c:pt idx="42">
                   <c:v>19.272727272727273</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.272727272727273</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2969,6 +2975,9 @@
                   <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00">
                   <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
@@ -3269,6 +3278,9 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00">
                   <c:v>20.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3900,6 +3912,9 @@
                 <c:pt idx="42" formatCode="0.00">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="44" formatCode="0.00">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4220,6 +4235,9 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00">
                   <c:v>20.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4836,49 +4854,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>20.09090909090909</c:v>
+                  <c:v>20.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.272727272727273</c:v>
+                  <c:v>20.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.363636363636363</c:v>
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>20.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>20.636363636363637</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.545454545454547</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.181818181818183</c:v>
+                  <c:v>20.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.181818181818183</c:v>
+                  <c:v>19.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.90909090909091</c:v>
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,6 +5545,9 @@
                   <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>19.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>19.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
@@ -15733,7 +15757,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.848484848484848</v>
+        <v>18.857954545454543</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15751,7 +15775,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.393939393939391</v>
+        <v>19.399999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15760,7 +15784,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.56969696969697</v>
+        <v>19.551136363636363</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15778,7 +15802,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">'Young Violets'!N1</f>
-        <v>20.369696969696971</v>
+        <v>20.488636363636363</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15796,7 +15820,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">Sturm!N1</f>
-        <v>20.46022727272727</v>
+        <v>20.449197860962563</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15825,8 +15849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DFA24-3406-41A0-A4BC-C12C2626EFAE}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15838,7 +15862,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>20.46022727272727</v>
+        <v>20.449197860962563</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -17448,34 +17472,117 @@
         <v>20.636363636363637</v>
       </c>
     </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" t="s">
+        <v>202</v>
+      </c>
+      <c r="H50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" t="s">
+        <v>226</v>
+      </c>
+      <c r="L50" t="s">
+        <v>102</v>
+      </c>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N51" s="1"/>
-    </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f ca="1">DATEDIF(VLOOKUP(B50,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:L51" ca="1" si="16">DATEDIF(VLOOKUP(C50,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="N51" s="1">
+        <f ca="1">AVERAGE(B51:M51)</f>
+        <v>20.272727272727273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N54" s="1"/>
     </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N57" s="1"/>
     </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N60" s="1"/>
     </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N63" s="1"/>
     </row>
     <row r="65" spans="14:14" x14ac:dyDescent="0.3">
@@ -17518,7 +17625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980021B-B36B-4907-BAF3-C28A440CD06D}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -17605,7 +17712,7 @@
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="D2" s="8" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17823,15 +17930,15 @@
       </c>
       <c r="B5" s="5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="D5" s="5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.363636363636363</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17839,31 +17946,31 @@
       </c>
       <c r="F5" s="5" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="G5" s="5" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.636363636363637</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="H5" s="5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="I5" s="5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="J5" s="5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.181818181818183</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="K5" s="5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.90909090909091</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="L5" s="5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="M5" s="5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17871,7 +17978,7 @@
       </c>
       <c r="N5" s="5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="O5" s="5" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17883,7 +17990,7 @@
       </c>
       <c r="Q5" s="5" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>21.09090909090909</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -18031,7 +18138,7 @@
       </c>
       <c r="Q7" s="5" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>0</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -18819,7 +18926,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.393939393939391</v>
+        <v>19.399999999999995</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18987,7 +19094,7 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
@@ -18995,7 +19102,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>18.454545454545453</v>
+        <v>18.545454545454547</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -23504,7 +23611,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23512,7 +23619,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.369696969696971</v>
+        <v>20.488636363636363</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -23581,7 +23688,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
@@ -23601,7 +23708,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -23673,7 +23780,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
@@ -23693,7 +23800,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -23765,7 +23872,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
@@ -23785,7 +23892,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.363636363636363</v>
+        <v>20.454545454545453</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -23942,7 +24049,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
@@ -23966,7 +24073,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -24031,11 +24138,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="5"/>
@@ -24055,7 +24162,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>20.636363636363637</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="P18" t="s">
         <v>94</v>
@@ -24147,7 +24254,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="6"/>
@@ -24167,7 +24274,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>20.545454545454547</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="P21" t="s">
         <v>38</v>
@@ -24256,7 +24363,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
@@ -24276,7 +24383,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="P24" t="s">
         <v>32</v>
@@ -24365,7 +24472,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="8"/>
@@ -24385,7 +24492,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>19.181818181818183</v>
+        <v>19.272727272727273</v>
       </c>
       <c r="P27" t="s">
         <v>22</v>
@@ -24458,7 +24565,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="9"/>
@@ -24474,7 +24581,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="9"/>
@@ -24494,7 +24601,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>18.90909090909091</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="P30" t="s">
         <v>111</v>
@@ -24567,7 +24674,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="10"/>
@@ -24603,7 +24710,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:M33)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="P33" t="s">
         <v>179</v>
@@ -24781,7 +24888,7 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:L39" ca="1" si="12">DATEDIF(VLOOKUP(C38,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="12"/>
@@ -24821,7 +24928,7 @@
       </c>
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="P39" t="s">
         <v>248</v>
@@ -25036,8 +25143,94 @@
         <v>21</v>
       </c>
     </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" t="s">
+        <v>272</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>242</v>
+      </c>
+      <c r="L47" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" s="1"/>
+    </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N48" s="1"/>
+      <c r="B48">
+        <f ca="1">DATEDIF(VLOOKUP(B47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:L48" ca="1" si="15">DATEDIF(VLOOKUP(C47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="N48" s="1">
+        <f ca="1">AVERAGE(B48:M48)</f>
+        <v>21.09090909090909</v>
+      </c>
     </row>
     <row r="51" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N51" s="1"/>
@@ -26601,7 +26794,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26614,7 +26807,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.56969696969697</v>
+        <v>19.551136363636363</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -28077,6 +28270,94 @@
       </c>
       <c r="N45" s="1">
         <f ca="1">AVERAGE(B45:M45)</f>
+        <v>19.272727272727273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f ca="1">DATEDIF(VLOOKUP(B47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:L48" ca="1" si="15">DATEDIF(VLOOKUP(C47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="N48" s="1">
+        <f ca="1">AVERAGE(B48:M48)</f>
         <v>19.272727272727273</v>
       </c>
     </row>
@@ -28110,8 +28391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A6E26-4348-4BD7-A4C3-5653B1514462}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28125,7 +28406,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.848484848484848</v>
+        <v>18.857954545454543</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -29647,9 +29928,92 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N47" s="1"/>
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>217</v>
+      </c>
+      <c r="L47" t="s">
+        <v>62</v>
+      </c>
+      <c r="N47" s="1">
+        <f ca="1">AVERAGE(B48:M48)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f ca="1">DATEDIF(VLOOKUP(B47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:L48" ca="1" si="15">DATEDIF(VLOOKUP(C47,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
       <c r="N48" s="1"/>
     </row>
     <row r="50" spans="14:14" x14ac:dyDescent="0.3">

--- a/Statistik Altersdurchschnitt.xlsx
+++ b/Statistik Altersdurchschnitt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coc-my.sharepoint.com/personal/mario_demmelbauer_coc-ag_de/Documents/JWR/Analysen/2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5815" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7833D21-423D-4366-8632-CEE55832D576}"/>
+  <xr:revisionPtr revIDLastSave="5858" documentId="8_{B13851A0-BF92-44E0-9E4C-BF4EA78055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{019F996B-6189-45D3-B90B-88FFFE9365F3}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" activeTab="9" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{71B9BB1E-DBD4-4A3F-B11E-2D74833D57ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtübersicht" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="278">
   <si>
     <t>Scholl</t>
   </si>
@@ -896,6 +896,15 @@
   <si>
     <t>Sulzbacher</t>
   </si>
+  <si>
+    <t>Freund</t>
+  </si>
+  <si>
+    <t>Moizi</t>
+  </si>
+  <si>
+    <t>Markovic</t>
+  </si>
 </sst>
 </file>
 
@@ -1154,7 +1163,7 @@
                   <c:v>19.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19.545454545454547</c:v>
@@ -1426,49 +1435,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>19.90909090909091</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.181818181818183</c:v>
+                <c:pt idx="12">
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.727272727272727</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,19 +1748,19 @@
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.181818181818183</c:v>
+                  <c:v>18.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.545454545454547</c:v>
@@ -1763,7 +1772,7 @@
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.272727272727273</c:v>
+                  <c:v>18.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>19.636363636363637</c:v>
@@ -2054,10 +2063,10 @@
                   <c:v>19.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.818181818181817</c:v>
+                  <c:v>20.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20.818181818181817</c:v>
@@ -2070,6 +2079,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>21.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,10 +2662,10 @@
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.454545454545453</c:v>
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.545454545454547</c:v>
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>19.636363636363637</c:v>
@@ -2678,6 +2690,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>19.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,8 +2992,11 @@
                 <c:pt idx="42" formatCode="0.00">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="0.00">
+                <c:pt idx="45" formatCode="0.00">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,19 +3580,19 @@
                   <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.727272727272727</c:v>
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.818181818181817</c:v>
+                  <c:v>18.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.181818181818183</c:v>
+                  <c:v>18.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.545454545454547</c:v>
@@ -3586,7 +3604,7 @@
                   <c:v>18.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.272727272727273</c:v>
+                  <c:v>18.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>19.636363636363637</c:v>
@@ -3912,8 +3930,11 @@
                 <c:pt idx="42" formatCode="0.00">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="0.00">
+                <c:pt idx="45" formatCode="0.00">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>18.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4513,49 +4534,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>19.90909090909091</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.181818181818183</c:v>
+                <c:pt idx="12">
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.727272727272727</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.818181818181817</c:v>
+                  <c:v>19.90909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4884,10 +4905,10 @@
                   <c:v>19.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.818181818181817</c:v>
+                  <c:v>20.90909090909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.727272727272727</c:v>
+                  <c:v>20.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20.818181818181817</c:v>
@@ -4900,6 +4921,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>21.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.545454545454547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5521,10 +5545,10 @@
                   <c:v>19.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.454545454545453</c:v>
+                  <c:v>19.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.545454545454547</c:v>
+                  <c:v>19.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>19.636363636363637</c:v>
@@ -5549,6 +5573,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>19.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15731,7 +15758,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -15757,7 +15784,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">Liefering!N1</f>
-        <v>18.857954545454543</v>
+        <v>18.855614973262028</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15766,7 +15793,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">'Altach Juniors'!N1</f>
-        <v>18.96590909090909</v>
+        <v>18.988636363636363</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15775,7 +15802,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">JWR!N1</f>
-        <v>19.399999999999995</v>
+        <v>19.406060606060603</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15784,7 +15811,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">Rapid!N1</f>
-        <v>19.551136363636363</v>
+        <v>19.534759358288767</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15793,34 +15820,34 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">LASK!N1</f>
-        <v>19.97575757575758</v>
+        <v>20.06666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
-        <f ca="1">'Young Violets'!N1</f>
-        <v>20.488636363636363</v>
+        <f ca="1">WAC!N1</f>
+        <v>20.393939393939391</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5">
-        <f ca="1">WAC!N1</f>
-        <v>20.393939393939391</v>
+        <f ca="1">Sturm!N1</f>
+        <v>20.449197860962563</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5">
-        <f ca="1">Sturm!N1</f>
-        <v>20.449197860962563</v>
+        <f ca="1">'Young Violets'!N1</f>
+        <v>20.502673796791445</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15849,8 +15876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DFA24-3406-41A0-A4BC-C12C2626EFAE}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15956,7 +15983,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
@@ -17626,7 +17653,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17756,7 +17783,7 @@
       </c>
       <c r="N2" s="8" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="O2" s="8" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
@@ -17770,11 +17797,26 @@
         <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="8"/>
+      <c r="R2" s="8" cm="1">
+        <f t="array" aca="1" ref="R2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="8" cm="1">
+        <f t="array" aca="1" ref="S2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="8" cm="1">
+        <f t="array" aca="1" ref="T2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="8" cm="1">
+        <f t="array" aca="1" ref="U2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="8" cm="1">
+        <f t="array" aca="1" ref="V2" ca="1">INDIRECT("JWR!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -17782,73 +17824,88 @@
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
       <c r="D3" s="8" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="E3" s="8" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="F3" s="8" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="G3" s="8" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="H3" s="8" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="I3" s="8" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="J3" s="8" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="K3" s="8" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="L3" s="8" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="M3" s="8" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="N3" s="8" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="O3" s="8" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="P3" s="8" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="Q3" s="8" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="R3" s="8" cm="1">
+        <f t="array" aca="1" ref="R3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="8" cm="1">
+        <f t="array" aca="1" ref="S3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="8" cm="1">
+        <f t="array" aca="1" ref="T3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="8" cm="1">
+        <f t="array" aca="1" ref="U3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="8" cm="1">
+        <f t="array" aca="1" ref="V3" ca="1">INDIRECT("LASK!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -17876,7 +17933,7 @@
       </c>
       <c r="G4" s="5" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="H4" s="5" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17884,7 +17941,7 @@
       </c>
       <c r="I4" s="5" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.818181818181817</v>
+        <v>18.90909090909091</v>
       </c>
       <c r="J4" s="5" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17892,7 +17949,7 @@
       </c>
       <c r="K4" s="5" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.181818181818183</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="L4" s="5" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17908,7 +17965,7 @@
       </c>
       <c r="O4" s="5" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>18.272727272727273</v>
+        <v>18.363636363636363</v>
       </c>
       <c r="P4" s="5" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17918,11 +17975,26 @@
         <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.545454545454547</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="R4" s="5" cm="1">
+        <f t="array" aca="1" ref="R4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" cm="1">
+        <f t="array" aca="1" ref="S4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="5" cm="1">
+        <f t="array" aca="1" ref="T4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="5" cm="1">
+        <f t="array" aca="1" ref="U4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="5" cm="1">
+        <f t="array" aca="1" ref="V4" ca="1">INDIRECT("'Altach Juniors'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -17970,11 +18042,11 @@
       </c>
       <c r="L5" s="5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.818181818181817</v>
+        <v>20.90909090909091</v>
       </c>
       <c r="M5" s="5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="N5" s="5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
@@ -17992,11 +18064,26 @@
         <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
         <v>21.09090909090909</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="R5" s="5" cm="1">
+        <f t="array" aca="1" ref="R5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>20.545454545454547</v>
+      </c>
+      <c r="S5" s="5" cm="1">
+        <f t="array" aca="1" ref="S5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" cm="1">
+        <f t="array" aca="1" ref="T5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" cm="1">
+        <f t="array" aca="1" ref="U5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" cm="1">
+        <f t="array" aca="1" ref="V5" ca="1">INDIRECT("'Young Violets'!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -18066,11 +18153,26 @@
         <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
+      <c r="R6" s="5" cm="1">
+        <f t="array" aca="1" ref="R6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" cm="1">
+        <f t="array" aca="1" ref="S6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="5" cm="1">
+        <f t="array" aca="1" ref="T6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="5" cm="1">
+        <f t="array" aca="1" ref="U6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" cm="1">
+        <f t="array" aca="1" ref="V6" ca="1">INDIRECT("WAC!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -18102,11 +18204,11 @@
       </c>
       <c r="H7" s="5" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="I7" s="5" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="J7" s="5" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
@@ -18140,11 +18242,26 @@
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
         <v>19.272727272727273</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="R7" s="5" cm="1">
+        <f t="array" aca="1" ref="R7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19.09090909090909</v>
+      </c>
+      <c r="S7" s="5" cm="1">
+        <f t="array" aca="1" ref="S7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" cm="1">
+        <f t="array" aca="1" ref="T7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="5" cm="1">
+        <f t="array" aca="1" ref="U7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" cm="1">
+        <f t="array" aca="1" ref="V7" ca="1">INDIRECT("Rapid!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -18212,13 +18329,28 @@
       </c>
       <c r="Q8" s="5" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>19</v>
+      </c>
+      <c r="R8" s="5" cm="1">
+        <f t="array" aca="1" ref="R8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>18.818181818181817</v>
+      </c>
+      <c r="S8" s="5" cm="1">
+        <f t="array" aca="1" ref="S8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="T8" s="5" cm="1">
+        <f t="array" aca="1" ref="T8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="5" cm="1">
+        <f t="array" aca="1" ref="U8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" cm="1">
+        <f t="array" aca="1" ref="V8" ca="1">INDIRECT("Liefering!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -18288,11 +18420,26 @@
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
         <v>20.636363636363637</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="R9" s="5" cm="1">
+        <f t="array" aca="1" ref="R9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>20.272727272727273</v>
+      </c>
+      <c r="S9" s="5" cm="1">
+        <f t="array" aca="1" ref="S9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="5" cm="1">
+        <f t="array" aca="1" ref="T9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="5" cm="1">
+        <f t="array" aca="1" ref="U9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5" cm="1">
+        <f t="array" aca="1" ref="V9" ca="1">INDIRECT("Sturm!N" &amp; (COLUMN()-1)*3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
@@ -18894,7 +19041,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:Q9">
+  <conditionalFormatting sqref="B2:V9">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(B2&lt;&gt;0,B2=MAX(IF(B$2:B$9&lt;&gt;0,B$2:B$9)))</formula>
     </cfRule>
@@ -18926,7 +19073,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.399999999999995</v>
+        <v>19.406060606060603</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20191,7 +20338,7 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="12"/>
@@ -20219,7 +20366,7 @@
       </c>
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="P39" t="s">
         <v>219</v>
@@ -20492,7 +20639,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.97575757575758</v>
+        <v>20.06666666666667</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -20560,7 +20707,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
@@ -20580,7 +20727,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1">AVERAGE(B3:M3)</f>
-        <v>19.90909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -20648,7 +20795,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
@@ -20668,7 +20815,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1">AVERAGE(B6:M6)</f>
-        <v>20.181818181818183</v>
+        <v>20.272727272727273</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -20736,7 +20883,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
@@ -20756,7 +20903,7 @@
       </c>
       <c r="N9" s="1">
         <f ca="1">AVERAGE(B9:M9)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -20824,7 +20971,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
@@ -20844,7 +20991,7 @@
       </c>
       <c r="N12" s="1">
         <f ca="1">AVERAGE(B12:M12)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20912,7 +21059,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
@@ -20932,7 +21079,7 @@
       </c>
       <c r="N15" s="1">
         <f ca="1">AVERAGE(B15:M15)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -21000,7 +21147,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="5"/>
@@ -21020,7 +21167,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -21105,7 +21252,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="6"/>
@@ -21125,7 +21272,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>20</v>
+        <v>20.09090909090909</v>
       </c>
       <c r="P21" t="s">
         <v>34</v>
@@ -21213,7 +21360,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
@@ -21233,7 +21380,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="P24" t="s">
         <v>87</v>
@@ -21321,7 +21468,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="8"/>
@@ -21341,7 +21488,7 @@
       </c>
       <c r="N27" s="1">
         <f ca="1">AVERAGE(B27:M27)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
@@ -21429,7 +21576,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="9"/>
@@ -21449,7 +21596,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>20.272727272727273</v>
+        <v>20.363636363636363</v>
       </c>
       <c r="P30" t="s">
         <v>105</v>
@@ -21537,7 +21684,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="10"/>
@@ -21557,7 +21704,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:M33)</f>
-        <v>20.09090909090909</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="P33" t="s">
         <v>152</v>
@@ -21645,7 +21792,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="11"/>
@@ -21665,7 +21812,7 @@
       </c>
       <c r="N36" s="1">
         <f ca="1">AVERAGE(B36:M36)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="P36" t="s">
         <v>169</v>
@@ -21753,7 +21900,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="12"/>
@@ -21773,7 +21920,7 @@
       </c>
       <c r="N39" s="1">
         <f ca="1">AVERAGE(B39:M39)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="P39" t="s">
         <v>252</v>
@@ -21861,7 +22008,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="13"/>
@@ -21881,7 +22028,7 @@
       </c>
       <c r="N42" s="1">
         <f ca="1">AVERAGE(B42:M42)</f>
-        <v>19.727272727272727</v>
+        <v>19.818181818181817</v>
       </c>
       <c r="P42" t="s">
         <v>265</v>
@@ -21955,7 +22102,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="14"/>
@@ -21975,7 +22122,7 @@
       </c>
       <c r="N45" s="1">
         <f ca="1">AVERAGE(B45:M45)</f>
-        <v>19.818181818181817</v>
+        <v>19.90909090909091</v>
       </c>
     </row>
   </sheetData>
@@ -22005,7 +22152,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>18.96590909090909</v>
+        <v>18.988636363636363</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -22493,7 +22640,7 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:L18" ca="1" si="5">DATEDIF(VLOOKUP(C17,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
@@ -22533,7 +22680,7 @@
       </c>
       <c r="N18" s="1">
         <f ca="1">AVERAGE(B18:M18)</f>
-        <v>18.727272727272727</v>
+        <v>18.818181818181817</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
@@ -22716,7 +22863,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
@@ -22752,7 +22899,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>18.818181818181817</v>
+        <v>18.90909090909091</v>
       </c>
       <c r="P24" t="s">
         <v>91</v>
@@ -22932,7 +23079,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="9"/>
@@ -22968,7 +23115,7 @@
       </c>
       <c r="N30" s="1">
         <f ca="1">AVERAGE(B30:M30)</f>
-        <v>18.181818181818183</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="P30" t="s">
         <v>121</v>
@@ -23360,7 +23507,7 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:L42" ca="1" si="13">DATEDIF(VLOOKUP(C41,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="13"/>
@@ -23400,7 +23547,7 @@
       </c>
       <c r="N42" s="1">
         <f ca="1">AVERAGE(B42:M42)</f>
-        <v>18.272727272727273</v>
+        <v>18.363636363636363</v>
       </c>
       <c r="P42" t="s">
         <v>237</v>
@@ -23611,7 +23758,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23619,7 +23766,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N2:N99)</f>
-        <v>20.488636363636363</v>
+        <v>20.502673796791445</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -24694,7 +24841,7 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="10"/>
@@ -24710,7 +24857,7 @@
       </c>
       <c r="N33" s="1">
         <f ca="1">AVERAGE(B33:M33)</f>
-        <v>20.818181818181817</v>
+        <v>20.90909090909091</v>
       </c>
       <c r="P33" t="s">
         <v>179</v>
@@ -24803,7 +24950,7 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="11"/>
@@ -24819,7 +24966,7 @@
       </c>
       <c r="N36" s="1">
         <f ca="1">AVERAGE(B36:M36)</f>
-        <v>20.727272727272727</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="P36" t="s">
         <v>228</v>
@@ -25092,6 +25239,12 @@
         <v>22</v>
       </c>
       <c r="N44" s="1"/>
+      <c r="P44" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>39580</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45">
@@ -25232,16 +25385,102 @@
         <v>21.09090909090909</v>
       </c>
     </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N51" s="1"/>
-    </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" t="s">
+        <v>264</v>
+      </c>
+      <c r="H50" t="s">
+        <v>272</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" t="s">
+        <v>277</v>
+      </c>
+      <c r="L50" t="s">
+        <v>249</v>
+      </c>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f ca="1">DATEDIF(VLOOKUP(B50,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:L51" ca="1" si="16">DATEDIF(VLOOKUP(C50,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="16"/>
+        <v>36</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="N51" s="1">
+        <f ca="1">AVERAGE(B51:M51)</f>
+        <v>20.545454545454547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N54" s="1"/>
     </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N57" s="1"/>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N60" s="1"/>
     </row>
   </sheetData>
@@ -26793,8 +27032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88D7D6-4932-46BC-9430-8F20DDAB89DF}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26807,7 +27046,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>19.551136363636363</v>
+        <v>19.534759358288767</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -27426,7 +27665,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="6"/>
@@ -27446,7 +27685,7 @@
       </c>
       <c r="N21" s="1">
         <f ca="1">AVERAGE(B21:M21)</f>
-        <v>19.454545454545453</v>
+        <v>19.545454545454547</v>
       </c>
       <c r="P21" t="s">
         <v>45</v>
@@ -27534,7 +27773,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
@@ -27554,7 +27793,7 @@
       </c>
       <c r="N24" s="1">
         <f ca="1">AVERAGE(B24:M24)</f>
-        <v>19.545454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
@@ -28096,6 +28335,12 @@
         <f ca="1">AVERAGE(B39:M39)</f>
         <v>19</v>
       </c>
+      <c r="P39" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>39232</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -28361,11 +28606,99 @@
         <v>19.272727272727273</v>
       </c>
     </row>
-    <row r="62" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" t="s">
+        <v>203</v>
+      </c>
+      <c r="J50" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f ca="1">DATEDIF(VLOOKUP(B50,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:L51" ca="1" si="16">DATEDIF(VLOOKUP(C50,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="N51" s="1">
+        <f ca="1">AVERAGE(B51:M51)</f>
+        <v>19.09090909090909</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N62"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O63" s="1"/>
     </row>
     <row r="65" spans="14:14" x14ac:dyDescent="0.3">
@@ -28391,8 +28724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A6E26-4348-4BD7-A4C3-5653B1514462}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28406,7 +28739,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1">
         <f ca="1">AVERAGE(N3:N99)</f>
-        <v>18.857954545454543</v>
+        <v>18.855614973262028</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -29926,6 +30259,12 @@
         <f ca="1">AVERAGE(B45:M45)</f>
         <v>19</v>
       </c>
+      <c r="P45" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>39186</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -29964,10 +30303,7 @@
       <c r="L47" t="s">
         <v>62</v>
       </c>
-      <c r="N47" s="1">
-        <f ca="1">AVERAGE(B48:M48)</f>
-        <v>19</v>
-      </c>
+      <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48">
@@ -30014,36 +30350,122 @@
         <f t="shared" ca="1" si="15"/>
         <v>19</v>
       </c>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N48" s="1">
+        <f ca="1">AVERAGE(B48:L48)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" t="s">
+        <v>214</v>
+      </c>
+      <c r="I50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" t="s">
+        <v>217</v>
+      </c>
+      <c r="L50" t="s">
+        <v>62</v>
+      </c>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N51" s="1"/>
-    </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f ca="1">DATEDIF(VLOOKUP(B50,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:L51" ca="1" si="16">DATEDIF(VLOOKUP(C50,$P$18:$Q$100,2,FALSE),TODAY(),"Y")</f>
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="N51" s="1">
+        <f ca="1">AVERAGE(B51:L51)</f>
+        <v>18.818181818181817</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N54" s="1"/>
     </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N57" s="1"/>
     </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N60" s="1"/>
     </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N63" s="1"/>
     </row>
     <row r="65" spans="14:14" x14ac:dyDescent="0.3">
